--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\getDataFinal\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\MIA\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EB643A-5995-46CB-BBCD-63E0F7BD64D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F1241-F560-4DE1-8BBE-D921B88577EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="675" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\MIA\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\MIAfINAL\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F1241-F560-4DE1-8BBE-D921B88577EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -15348,7 +15347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -15689,7 +15688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L4826"/>
   <sheetViews>
@@ -15697,7 +15696,7 @@
       <selection activeCell="B3915" sqref="B3915"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -111634,7 +111633,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K3915">
+  <sortState ref="B4:K3915">
     <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\MIAfINAL\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\MIAplease\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF8DFC-697E-4C20-B2CE-F4B41655DB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Productos!$A$3:$L$4826</definedName>
+  </definedNames>
+  <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -15347,8 +15351,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -15357,6 +15361,12 @@
     <font>
       <b/>
       <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -15382,9 +15392,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15688,15 +15699,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L4826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3903" workbookViewId="0">
-      <selection activeCell="B3915" sqref="B3915"/>
+    <sheetView tabSelected="1" topLeftCell="A3304" workbookViewId="0">
+      <selection activeCell="B3319" sqref="B3319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -26535,6 +26546,7 @@
       <c r="B482" t="s">
         <v>5056</v>
       </c>
+      <c r="C482" s="2"/>
       <c r="E482" t="s">
         <v>2963</v>
       </c>
@@ -111633,7 +111645,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="B4:K3915">
+  <autoFilter ref="A3:L4826" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K3915">
     <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\MIAplease\SessionBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\MIAFinal\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF8DFC-697E-4C20-B2CE-F4B41655DB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7A8741-1041-4E40-9DAF-42158E816DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12406" uniqueCount="5104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12405" uniqueCount="5104">
   <si>
     <t>Reporte Productos</t>
   </si>
@@ -92488,7 +92488,7 @@
         <v>3437</v>
       </c>
       <c r="B3440" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="E3440" t="s">
         <v>3111</v>
@@ -92508,7 +92508,7 @@
         <v>3438</v>
       </c>
       <c r="B3441" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="E3441" t="s">
         <v>3113</v>
@@ -92528,7 +92528,7 @@
         <v>3439</v>
       </c>
       <c r="B3442" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="E3442" t="s">
         <v>3115</v>
@@ -92548,7 +92548,7 @@
         <v>3440</v>
       </c>
       <c r="B3443" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="E3443" t="s">
         <v>4864</v>
@@ -92568,7 +92568,7 @@
         <v>3441</v>
       </c>
       <c r="B3444" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="E3444" t="s">
         <v>3118</v>
@@ -92588,7 +92588,7 @@
         <v>3442</v>
       </c>
       <c r="B3445" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E3445" t="s">
         <v>3295</v>
@@ -92608,7 +92608,7 @@
         <v>3443</v>
       </c>
       <c r="B3446" t="s">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="E3446" t="s">
         <v>3121</v>
@@ -92628,7 +92628,7 @@
         <v>3444</v>
       </c>
       <c r="B3447" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="E3447" t="s">
         <v>3890</v>
@@ -92648,7 +92648,7 @@
         <v>3445</v>
       </c>
       <c r="B3448" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E3448" t="s">
         <v>4865</v>
@@ -92668,7 +92668,7 @@
         <v>3446</v>
       </c>
       <c r="B3449" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="E3449" t="s">
         <v>3220</v>
@@ -92688,7 +92688,7 @@
         <v>3447</v>
       </c>
       <c r="B3450" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E3450" t="s">
         <v>3220</v>
@@ -92708,7 +92708,7 @@
         <v>3448</v>
       </c>
       <c r="B3451" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="E3451" t="s">
         <v>3127</v>
@@ -92728,7 +92728,7 @@
         <v>3449</v>
       </c>
       <c r="B3452" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="E3452" t="s">
         <v>3129</v>
@@ -92748,7 +92748,7 @@
         <v>3450</v>
       </c>
       <c r="B3453" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="E3453" t="s">
         <v>4035</v>
@@ -92768,7 +92768,7 @@
         <v>3451</v>
       </c>
       <c r="B3454" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="E3454" t="s">
         <v>4046</v>
@@ -92788,7 +92788,7 @@
         <v>3452</v>
       </c>
       <c r="B3455" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="E3455" t="s">
         <v>3134</v>
@@ -92808,7 +92808,7 @@
         <v>3453</v>
       </c>
       <c r="B3456" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E3456" t="s">
         <v>3134</v>
@@ -92828,7 +92828,7 @@
         <v>3454</v>
       </c>
       <c r="B3457" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="E3457" t="s">
         <v>3137</v>
@@ -92848,7 +92848,7 @@
         <v>3455</v>
       </c>
       <c r="B3458" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="E3458" t="s">
         <v>3139</v>
@@ -92868,7 +92868,7 @@
         <v>3456</v>
       </c>
       <c r="B3459" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="E3459" t="s">
         <v>3139</v>
@@ -92888,7 +92888,7 @@
         <v>3457</v>
       </c>
       <c r="B3460" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E3460" t="s">
         <v>3132</v>
@@ -92908,7 +92908,7 @@
         <v>3458</v>
       </c>
       <c r="B3461" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="E3461" t="s">
         <v>3143</v>
@@ -92928,7 +92928,7 @@
         <v>3459</v>
       </c>
       <c r="B3462" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="E3462" t="s">
         <v>4398</v>
@@ -92948,7 +92948,7 @@
         <v>3460</v>
       </c>
       <c r="B3463" t="s">
-        <v>3145</v>
+        <v>3159</v>
       </c>
       <c r="E3463" t="s">
         <v>3146</v>
@@ -92968,7 +92968,7 @@
         <v>3461</v>
       </c>
       <c r="B3464" t="s">
-        <v>3159</v>
+        <v>3204</v>
       </c>
       <c r="E3464" t="s">
         <v>3160</v>
@@ -92988,7 +92988,7 @@
         <v>3462</v>
       </c>
       <c r="B3465" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="E3465" t="s">
         <v>3205</v>
@@ -93008,7 +93008,7 @@
         <v>3463</v>
       </c>
       <c r="B3466" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="E3466" t="s">
         <v>3205</v>
@@ -93028,7 +93028,7 @@
         <v>3464</v>
       </c>
       <c r="B3467" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="E3467" t="s">
         <v>3208</v>
@@ -93048,7 +93048,7 @@
         <v>3465</v>
       </c>
       <c r="B3468" t="s">
-        <v>3209</v>
+        <v>3214</v>
       </c>
       <c r="E3468" t="s">
         <v>3210</v>
@@ -93068,7 +93068,7 @@
         <v>3466</v>
       </c>
       <c r="B3469" t="s">
-        <v>3214</v>
+        <v>3223</v>
       </c>
       <c r="E3469" t="s">
         <v>3215</v>
@@ -93088,7 +93088,7 @@
         <v>3467</v>
       </c>
       <c r="B3470" t="s">
-        <v>3223</v>
+        <v>3232</v>
       </c>
       <c r="E3470" t="s">
         <v>3224</v>
@@ -93108,7 +93108,7 @@
         <v>3468</v>
       </c>
       <c r="B3471" t="s">
-        <v>3232</v>
+        <v>3265</v>
       </c>
       <c r="E3471" t="s">
         <v>3570</v>
@@ -93128,7 +93128,7 @@
         <v>3469</v>
       </c>
       <c r="B3472" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="E3472" t="s">
         <v>3266</v>
@@ -93148,7 +93148,7 @@
         <v>3470</v>
       </c>
       <c r="B3473" t="s">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="E3473" t="s">
         <v>3268</v>
@@ -93168,7 +93168,7 @@
         <v>3471</v>
       </c>
       <c r="B3474" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="E3474" t="s">
         <v>3270</v>
@@ -93188,7 +93188,7 @@
         <v>3472</v>
       </c>
       <c r="B3475" t="s">
-        <v>3271</v>
+        <v>3409</v>
       </c>
       <c r="E3475" t="s">
         <v>3220</v>
@@ -93208,7 +93208,7 @@
         <v>3473</v>
       </c>
       <c r="B3476" t="s">
-        <v>3409</v>
+        <v>3425</v>
       </c>
       <c r="E3476" t="s">
         <v>3339</v>
@@ -93228,7 +93228,7 @@
         <v>3474</v>
       </c>
       <c r="B3477" t="s">
-        <v>3425</v>
+        <v>3490</v>
       </c>
       <c r="E3477" t="s">
         <v>3426</v>
@@ -93248,7 +93248,7 @@
         <v>3475</v>
       </c>
       <c r="B3478" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="E3478" t="s">
         <v>3137</v>
@@ -93268,7 +93268,7 @@
         <v>3476</v>
       </c>
       <c r="B3479" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="E3479" t="s">
         <v>3492</v>
@@ -93288,7 +93288,7 @@
         <v>3477</v>
       </c>
       <c r="B3480" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="E3480" t="s">
         <v>3494</v>
@@ -93308,7 +93308,7 @@
         <v>3478</v>
       </c>
       <c r="B3481" t="s">
-        <v>3495</v>
+        <v>3500</v>
       </c>
       <c r="E3481" t="s">
         <v>3496</v>
@@ -93328,7 +93328,7 @@
         <v>3479</v>
       </c>
       <c r="B3482" t="s">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="E3482" t="s">
         <v>3270</v>
@@ -93348,7 +93348,7 @@
         <v>3480</v>
       </c>
       <c r="B3483" t="s">
-        <v>3506</v>
+        <v>3510</v>
       </c>
       <c r="E3483" t="s">
         <v>3507</v>
@@ -93368,7 +93368,7 @@
         <v>3481</v>
       </c>
       <c r="B3484" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="E3484" t="s">
         <v>3511</v>
@@ -93388,7 +93388,7 @@
         <v>3482</v>
       </c>
       <c r="B3485" t="s">
-        <v>3512</v>
+        <v>3508</v>
       </c>
       <c r="E3485" t="s">
         <v>3513</v>
@@ -93408,7 +93408,7 @@
         <v>3483</v>
       </c>
       <c r="B3486" t="s">
-        <v>3508</v>
+        <v>3563</v>
       </c>
       <c r="E3486" t="s">
         <v>3509</v>
@@ -93428,7 +93428,7 @@
         <v>3484</v>
       </c>
       <c r="B3487" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="E3487" t="s">
         <v>3424</v>
@@ -93448,7 +93448,7 @@
         <v>3485</v>
       </c>
       <c r="B3488" t="s">
-        <v>3564</v>
+        <v>4956</v>
       </c>
       <c r="E3488" t="s">
         <v>3424</v>
@@ -93468,7 +93468,7 @@
         <v>3486</v>
       </c>
       <c r="B3489" t="s">
-        <v>4956</v>
+        <v>3581</v>
       </c>
       <c r="E3489" t="s">
         <v>3630</v>
@@ -93488,7 +93488,7 @@
         <v>3487</v>
       </c>
       <c r="B3490" t="s">
-        <v>3581</v>
+        <v>3616</v>
       </c>
       <c r="E3490" t="s">
         <v>3056</v>
@@ -93508,7 +93508,7 @@
         <v>3488</v>
       </c>
       <c r="B3491" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
       <c r="E3491" t="s">
         <v>3270</v>
@@ -93528,7 +93528,7 @@
         <v>3489</v>
       </c>
       <c r="B3492" t="s">
-        <v>3619</v>
+        <v>3658</v>
       </c>
       <c r="E3492" t="s">
         <v>3113</v>
@@ -93548,7 +93548,7 @@
         <v>3490</v>
       </c>
       <c r="B3493" t="s">
-        <v>3658</v>
+        <v>3717</v>
       </c>
       <c r="E3493" t="s">
         <v>3160</v>
@@ -93568,7 +93568,7 @@
         <v>3491</v>
       </c>
       <c r="B3494" t="s">
-        <v>3717</v>
+        <v>3719</v>
       </c>
       <c r="E3494" t="s">
         <v>3718</v>
@@ -93588,7 +93588,7 @@
         <v>3492</v>
       </c>
       <c r="B3495" t="s">
-        <v>3719</v>
+        <v>3732</v>
       </c>
       <c r="E3495" t="s">
         <v>3712</v>
@@ -93608,7 +93608,7 @@
         <v>3493</v>
       </c>
       <c r="B3496" t="s">
-        <v>3732</v>
+        <v>3770</v>
       </c>
       <c r="E3496" t="s">
         <v>3062</v>
@@ -93628,7 +93628,7 @@
         <v>3494</v>
       </c>
       <c r="B3497" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="E3497" t="s">
         <v>3062</v>
@@ -93648,7 +93648,7 @@
         <v>3495</v>
       </c>
       <c r="B3498" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="E3498" t="s">
         <v>3062</v>
@@ -93668,7 +93668,7 @@
         <v>3496</v>
       </c>
       <c r="B3499" t="s">
-        <v>3772</v>
+        <v>3807</v>
       </c>
       <c r="E3499" t="s">
         <v>3773</v>
@@ -93688,7 +93688,7 @@
         <v>3497</v>
       </c>
       <c r="B3500" t="s">
-        <v>3807</v>
+        <v>3819</v>
       </c>
       <c r="E3500" t="s">
         <v>3595</v>
@@ -93708,7 +93708,7 @@
         <v>3498</v>
       </c>
       <c r="B3501" t="s">
-        <v>3819</v>
+        <v>3945</v>
       </c>
       <c r="E3501" t="s">
         <v>3266</v>
@@ -93728,7 +93728,7 @@
         <v>3499</v>
       </c>
       <c r="B3502" t="s">
-        <v>3945</v>
+        <v>3958</v>
       </c>
       <c r="E3502" t="s">
         <v>3946</v>
@@ -93748,7 +93748,7 @@
         <v>3500</v>
       </c>
       <c r="B3503" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="E3503" t="s">
         <v>3712</v>
@@ -93768,7 +93768,7 @@
         <v>3501</v>
       </c>
       <c r="B3504" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="E3504" t="s">
         <v>3712</v>
@@ -93788,7 +93788,7 @@
         <v>3502</v>
       </c>
       <c r="B3505" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="E3505" t="s">
         <v>3712</v>
@@ -93808,7 +93808,7 @@
         <v>3503</v>
       </c>
       <c r="B3506" t="s">
-        <v>3961</v>
+        <v>3984</v>
       </c>
       <c r="E3506" t="s">
         <v>3712</v>
@@ -93828,7 +93828,7 @@
         <v>3504</v>
       </c>
       <c r="B3507" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
       <c r="E3507" t="s">
         <v>3113</v>
@@ -93848,7 +93848,7 @@
         <v>3505</v>
       </c>
       <c r="B3508" t="s">
-        <v>3988</v>
+        <v>4016</v>
       </c>
       <c r="E3508" t="s">
         <v>3989</v>
@@ -93868,7 +93868,7 @@
         <v>3506</v>
       </c>
       <c r="B3509" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="E3509" t="s">
         <v>4017</v>
@@ -93888,7 +93888,7 @@
         <v>3507</v>
       </c>
       <c r="B3510" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="E3510" t="s">
         <v>3105</v>
@@ -93908,7 +93908,7 @@
         <v>3508</v>
       </c>
       <c r="B3511" t="s">
-        <v>4019</v>
+        <v>4038</v>
       </c>
       <c r="E3511" t="s">
         <v>3115</v>
@@ -93928,7 +93928,7 @@
         <v>3509</v>
       </c>
       <c r="B3512" t="s">
-        <v>4038</v>
+        <v>4041</v>
       </c>
       <c r="E3512" t="s">
         <v>3773</v>
@@ -93948,7 +93948,7 @@
         <v>3510</v>
       </c>
       <c r="B3513" t="s">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="E3513" t="s">
         <v>3855</v>
@@ -93968,7 +93968,7 @@
         <v>3511</v>
       </c>
       <c r="B3514" t="s">
-        <v>4044</v>
+        <v>4105</v>
       </c>
       <c r="E3514" t="s">
         <v>3215</v>
@@ -93988,7 +93988,7 @@
         <v>3512</v>
       </c>
       <c r="B3515" t="s">
-        <v>4105</v>
+        <v>4111</v>
       </c>
       <c r="E3515" t="s">
         <v>3551</v>
@@ -94008,7 +94008,7 @@
         <v>3513</v>
       </c>
       <c r="B3516" t="s">
-        <v>4111</v>
+        <v>4117</v>
       </c>
       <c r="E3516" t="s">
         <v>4017</v>
@@ -94028,7 +94028,7 @@
         <v>3514</v>
       </c>
       <c r="B3517" t="s">
-        <v>4117</v>
+        <v>4132</v>
       </c>
       <c r="E3517" t="s">
         <v>3113</v>
@@ -94048,7 +94048,7 @@
         <v>3515</v>
       </c>
       <c r="B3518" t="s">
-        <v>4132</v>
+        <v>4136</v>
       </c>
       <c r="E3518" t="s">
         <v>3855</v>
@@ -94068,7 +94068,7 @@
         <v>3516</v>
       </c>
       <c r="B3519" t="s">
-        <v>4136</v>
+        <v>4145</v>
       </c>
       <c r="E3519" t="s">
         <v>3266</v>
@@ -94088,7 +94088,7 @@
         <v>3517</v>
       </c>
       <c r="B3520" t="s">
-        <v>4145</v>
+        <v>4160</v>
       </c>
       <c r="E3520" t="s">
         <v>4146</v>
@@ -94108,7 +94108,7 @@
         <v>3518</v>
       </c>
       <c r="B3521" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E3521" t="s">
         <v>3509</v>
@@ -94128,7 +94128,7 @@
         <v>3519</v>
       </c>
       <c r="B3522" t="s">
-        <v>4161</v>
+        <v>4163</v>
       </c>
       <c r="E3522" t="s">
         <v>3509</v>
@@ -94148,7 +94148,7 @@
         <v>3520</v>
       </c>
       <c r="B3523" t="s">
-        <v>4163</v>
+        <v>4169</v>
       </c>
       <c r="E3523" t="s">
         <v>3077</v>
@@ -94168,7 +94168,7 @@
         <v>3521</v>
       </c>
       <c r="B3524" t="s">
-        <v>4169</v>
+        <v>4234</v>
       </c>
       <c r="E3524" t="s">
         <v>3139</v>
@@ -94188,7 +94188,7 @@
         <v>3522</v>
       </c>
       <c r="B3525" t="s">
-        <v>4234</v>
+        <v>4239</v>
       </c>
       <c r="E3525" t="s">
         <v>4035</v>
@@ -94208,7 +94208,7 @@
         <v>3523</v>
       </c>
       <c r="B3526" t="s">
-        <v>4239</v>
+        <v>4267</v>
       </c>
       <c r="E3526" t="s">
         <v>4035</v>
@@ -94228,7 +94228,7 @@
         <v>3524</v>
       </c>
       <c r="B3527" t="s">
-        <v>4267</v>
+        <v>4271</v>
       </c>
       <c r="E3527" t="s">
         <v>4268</v>
@@ -94248,7 +94248,7 @@
         <v>3525</v>
       </c>
       <c r="B3528" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E3528" t="s">
         <v>3270</v>
@@ -94268,7 +94268,7 @@
         <v>3526</v>
       </c>
       <c r="B3529" t="s">
-        <v>4272</v>
+        <v>4277</v>
       </c>
       <c r="E3529" t="s">
         <v>3270</v>
@@ -94288,7 +94288,7 @@
         <v>3527</v>
       </c>
       <c r="B3530" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
       <c r="E3530" t="s">
         <v>3077</v>
@@ -94308,7 +94308,7 @@
         <v>3528</v>
       </c>
       <c r="B3531" t="s">
-        <v>4278</v>
+        <v>4306</v>
       </c>
       <c r="E3531" t="s">
         <v>3091</v>
@@ -94328,7 +94328,7 @@
         <v>3529</v>
       </c>
       <c r="B3532" t="s">
-        <v>4306</v>
+        <v>5004</v>
       </c>
       <c r="E3532" t="s">
         <v>3339</v>
@@ -94348,7 +94348,7 @@
         <v>3530</v>
       </c>
       <c r="B3533" t="s">
-        <v>5004</v>
+        <v>5040</v>
       </c>
       <c r="E3533" t="s">
         <v>3266</v>
@@ -94368,7 +94368,7 @@
         <v>3531</v>
       </c>
       <c r="B3534" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="E3534" t="s">
         <v>3890</v>
@@ -94388,7 +94388,7 @@
         <v>3532</v>
       </c>
       <c r="B3535" t="s">
-        <v>5042</v>
+        <v>5055</v>
       </c>
       <c r="E3535" t="s">
         <v>3311</v>
@@ -94408,7 +94408,7 @@
         <v>3533</v>
       </c>
       <c r="B3536" t="s">
-        <v>5055</v>
+        <v>5064</v>
       </c>
       <c r="E3536" t="s">
         <v>3712</v>
@@ -94428,7 +94428,7 @@
         <v>3534</v>
       </c>
       <c r="B3537" t="s">
-        <v>5064</v>
+        <v>5083</v>
       </c>
       <c r="E3537" t="s">
         <v>3551</v>
@@ -94448,7 +94448,7 @@
         <v>3535</v>
       </c>
       <c r="B3538" t="s">
-        <v>5083</v>
+        <v>2682</v>
       </c>
       <c r="E3538" t="s">
         <v>3077</v>
@@ -94468,7 +94468,7 @@
         <v>3536</v>
       </c>
       <c r="B3539" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="E3539" t="s">
         <v>4149</v>
@@ -94491,7 +94491,7 @@
         <v>3537</v>
       </c>
       <c r="B3540" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="E3540" t="s">
         <v>4149</v>
@@ -94514,7 +94514,7 @@
         <v>3538</v>
       </c>
       <c r="B3541" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="E3541" t="s">
         <v>4149</v>
@@ -94537,7 +94537,7 @@
         <v>3539</v>
       </c>
       <c r="B3542" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="E3542" t="s">
         <v>4149</v>
@@ -94560,7 +94560,7 @@
         <v>3540</v>
       </c>
       <c r="B3543" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="E3543" t="s">
         <v>3398</v>
@@ -94583,7 +94583,7 @@
         <v>3541</v>
       </c>
       <c r="B3544" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="E3544" t="s">
         <v>4073</v>
@@ -94606,7 +94606,7 @@
         <v>3542</v>
       </c>
       <c r="B3545" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="E3545" t="s">
         <v>4639</v>
@@ -94629,7 +94629,7 @@
         <v>3543</v>
       </c>
       <c r="B3546" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="E3546" t="s">
         <v>3602</v>
@@ -94652,7 +94652,7 @@
         <v>3544</v>
       </c>
       <c r="B3547" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="E3547" t="s">
         <v>2533</v>
@@ -94675,7 +94675,7 @@
         <v>3545</v>
       </c>
       <c r="B3548" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="E3548" t="s">
         <v>2533</v>
@@ -94698,7 +94698,7 @@
         <v>3546</v>
       </c>
       <c r="B3549" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="E3549" t="s">
         <v>2533</v>
@@ -94721,7 +94721,7 @@
         <v>3547</v>
       </c>
       <c r="B3550" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="E3550" t="s">
         <v>2533</v>
@@ -94744,7 +94744,7 @@
         <v>3548</v>
       </c>
       <c r="B3551" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E3551" t="s">
         <v>3202</v>
@@ -94767,7 +94767,7 @@
         <v>3549</v>
       </c>
       <c r="B3552" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="E3552" t="s">
         <v>4149</v>
@@ -94790,7 +94790,7 @@
         <v>3550</v>
       </c>
       <c r="B3553" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="E3553" t="s">
         <v>4780</v>
@@ -94813,7 +94813,7 @@
         <v>3551</v>
       </c>
       <c r="B3554" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="E3554" t="s">
         <v>4452</v>
@@ -94836,7 +94836,7 @@
         <v>3552</v>
       </c>
       <c r="B3555" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="E3555" t="s">
         <v>2533</v>
@@ -94859,7 +94859,7 @@
         <v>3553</v>
       </c>
       <c r="B3556" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="E3556" t="s">
         <v>4781</v>
@@ -94882,7 +94882,7 @@
         <v>3554</v>
       </c>
       <c r="B3557" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="E3557" t="s">
         <v>3025</v>
@@ -94905,7 +94905,7 @@
         <v>3555</v>
       </c>
       <c r="B3558" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="E3558" t="s">
         <v>3458</v>
@@ -94928,7 +94928,7 @@
         <v>3556</v>
       </c>
       <c r="B3559" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="E3559" t="s">
         <v>2533</v>
@@ -94951,7 +94951,7 @@
         <v>3557</v>
       </c>
       <c r="B3560" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="E3560" t="s">
         <v>4759</v>
@@ -94974,7 +94974,7 @@
         <v>3558</v>
       </c>
       <c r="B3561" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="E3561" t="s">
         <v>4759</v>
@@ -94997,7 +94997,7 @@
         <v>3559</v>
       </c>
       <c r="B3562" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="E3562" t="s">
         <v>3458</v>
@@ -95020,7 +95020,7 @@
         <v>3560</v>
       </c>
       <c r="B3563" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="E3563" t="s">
         <v>3458</v>
@@ -95043,7 +95043,7 @@
         <v>3561</v>
       </c>
       <c r="B3564" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="E3564" t="s">
         <v>2533</v>
@@ -95066,7 +95066,7 @@
         <v>3562</v>
       </c>
       <c r="B3565" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="E3565" t="s">
         <v>3458</v>
@@ -95089,7 +95089,7 @@
         <v>3563</v>
       </c>
       <c r="B3566" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="E3566" t="s">
         <v>4782</v>
@@ -95112,7 +95112,7 @@
         <v>3564</v>
       </c>
       <c r="B3567" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="E3567" t="s">
         <v>3509</v>
@@ -95135,7 +95135,7 @@
         <v>3565</v>
       </c>
       <c r="B3568" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="E3568" t="s">
         <v>3212</v>
@@ -95158,7 +95158,7 @@
         <v>3566</v>
       </c>
       <c r="B3569" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E3569" t="s">
         <v>3212</v>
@@ -95181,7 +95181,7 @@
         <v>3567</v>
       </c>
       <c r="B3570" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="E3570" t="s">
         <v>3212</v>
@@ -95204,7 +95204,7 @@
         <v>3568</v>
       </c>
       <c r="B3571" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="E3571" t="s">
         <v>4783</v>
@@ -95227,7 +95227,7 @@
         <v>3569</v>
       </c>
       <c r="B3572" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E3572" t="s">
         <v>3215</v>
@@ -95250,7 +95250,7 @@
         <v>3570</v>
       </c>
       <c r="B3573" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="E3573" t="s">
         <v>3095</v>
@@ -95273,7 +95273,7 @@
         <v>3571</v>
       </c>
       <c r="B3574" t="s">
-        <v>2717</v>
+        <v>2722</v>
       </c>
       <c r="E3574" t="s">
         <v>4784</v>
@@ -95296,7 +95296,7 @@
         <v>3572</v>
       </c>
       <c r="B3575" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E3575" t="s">
         <v>2533</v>
@@ -95319,7 +95319,7 @@
         <v>3573</v>
       </c>
       <c r="B3576" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="E3576" t="s">
         <v>4785</v>
@@ -95342,7 +95342,7 @@
         <v>3574</v>
       </c>
       <c r="B3577" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E3577" t="s">
         <v>4786</v>
@@ -95365,7 +95365,7 @@
         <v>3575</v>
       </c>
       <c r="B3578" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="E3578" t="s">
         <v>4787</v>
@@ -95388,7 +95388,7 @@
         <v>3576</v>
       </c>
       <c r="B3579" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E3579" t="s">
         <v>2533</v>
@@ -95411,7 +95411,7 @@
         <v>3577</v>
       </c>
       <c r="B3580" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E3580" t="s">
         <v>4788</v>
@@ -95434,7 +95434,7 @@
         <v>3578</v>
       </c>
       <c r="B3581" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="E3581" t="s">
         <v>4789</v>
@@ -95457,7 +95457,7 @@
         <v>3579</v>
       </c>
       <c r="B3582" t="s">
-        <v>2729</v>
+        <v>5086</v>
       </c>
       <c r="E3582" t="s">
         <v>4785</v>
@@ -95480,7 +95480,7 @@
         <v>3580</v>
       </c>
       <c r="B3583" t="s">
-        <v>5086</v>
+        <v>2730</v>
       </c>
       <c r="E3583" t="s">
         <v>2533</v>
@@ -95503,7 +95503,7 @@
         <v>3581</v>
       </c>
       <c r="B3584" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="E3584" t="s">
         <v>2533</v>
@@ -95526,7 +95526,7 @@
         <v>3582</v>
       </c>
       <c r="B3585" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="E3585" t="s">
         <v>4790</v>
@@ -95549,7 +95549,7 @@
         <v>3583</v>
       </c>
       <c r="B3586" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="E3586" t="s">
         <v>4791</v>
@@ -95572,7 +95572,7 @@
         <v>3584</v>
       </c>
       <c r="B3587" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E3587" t="s">
         <v>4470</v>
@@ -95595,7 +95595,7 @@
         <v>3585</v>
       </c>
       <c r="B3588" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="E3588" t="s">
         <v>4470</v>
@@ -95618,7 +95618,7 @@
         <v>3586</v>
       </c>
       <c r="B3589" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="E3589" t="s">
         <v>3951</v>
@@ -95641,7 +95641,7 @@
         <v>3587</v>
       </c>
       <c r="B3590" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E3590" t="s">
         <v>4452</v>
@@ -95664,7 +95664,7 @@
         <v>3588</v>
       </c>
       <c r="B3591" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="E3591" t="s">
         <v>4452</v>
@@ -95687,7 +95687,7 @@
         <v>3589</v>
       </c>
       <c r="B3592" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E3592" t="s">
         <v>4452</v>
@@ -95710,7 +95710,7 @@
         <v>3590</v>
       </c>
       <c r="B3593" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="E3593" t="s">
         <v>3636</v>
@@ -95733,7 +95733,7 @@
         <v>3591</v>
       </c>
       <c r="B3594" t="s">
-        <v>2740</v>
+        <v>2748</v>
       </c>
       <c r="E3594" t="s">
         <v>3636</v>
@@ -95756,7 +95756,7 @@
         <v>3592</v>
       </c>
       <c r="B3595" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E3595" t="s">
         <v>3095</v>
@@ -95779,7 +95779,7 @@
         <v>3593</v>
       </c>
       <c r="B3596" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E3596" t="s">
         <v>4792</v>
@@ -95802,7 +95802,7 @@
         <v>3594</v>
       </c>
       <c r="B3597" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="E3597" t="s">
         <v>4793</v>
@@ -95825,7 +95825,7 @@
         <v>3595</v>
       </c>
       <c r="B3598" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="E3598" t="s">
         <v>4794</v>
@@ -95848,7 +95848,7 @@
         <v>3596</v>
       </c>
       <c r="B3599" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E3599" t="s">
         <v>3198</v>
@@ -95871,7 +95871,7 @@
         <v>3597</v>
       </c>
       <c r="B3600" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E3600" t="s">
         <v>3398</v>
@@ -95894,7 +95894,7 @@
         <v>3598</v>
       </c>
       <c r="B3601" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="E3601" t="s">
         <v>4795</v>
@@ -95917,7 +95917,7 @@
         <v>3599</v>
       </c>
       <c r="B3602" t="s">
-        <v>2757</v>
+        <v>2763</v>
       </c>
       <c r="E3602" t="s">
         <v>4796</v>
@@ -95940,7 +95940,7 @@
         <v>3600</v>
       </c>
       <c r="B3603" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="E3603" t="s">
         <v>3630</v>
@@ -95963,7 +95963,7 @@
         <v>3601</v>
       </c>
       <c r="B3604" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E3604" t="s">
         <v>4797</v>
@@ -95986,7 +95986,7 @@
         <v>3602</v>
       </c>
       <c r="B3605" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="E3605" t="s">
         <v>2897</v>
@@ -96009,7 +96009,7 @@
         <v>3603</v>
       </c>
       <c r="B3606" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="E3606" t="s">
         <v>4798</v>
@@ -96032,7 +96032,7 @@
         <v>3604</v>
       </c>
       <c r="B3607" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="E3607" t="s">
         <v>3062</v>
@@ -96055,7 +96055,7 @@
         <v>3605</v>
       </c>
       <c r="B3608" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="E3608" t="s">
         <v>3684</v>
@@ -96078,7 +96078,7 @@
         <v>3606</v>
       </c>
       <c r="B3609" t="s">
-        <v>2770</v>
+        <v>2781</v>
       </c>
       <c r="E3609" t="s">
         <v>2771</v>
@@ -96101,7 +96101,7 @@
         <v>3607</v>
       </c>
       <c r="B3610" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="E3610" t="s">
         <v>4800</v>
@@ -96124,7 +96124,7 @@
         <v>3608</v>
       </c>
       <c r="B3611" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E3611" t="s">
         <v>3684</v>
@@ -96147,7 +96147,7 @@
         <v>3609</v>
       </c>
       <c r="B3612" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="E3612" t="s">
         <v>2784</v>
@@ -96170,7 +96170,7 @@
         <v>3610</v>
       </c>
       <c r="B3613" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="E3613" t="s">
         <v>2784</v>
@@ -96193,7 +96193,7 @@
         <v>3611</v>
       </c>
       <c r="B3614" t="s">
-        <v>2786</v>
+        <v>2794</v>
       </c>
       <c r="E3614" t="s">
         <v>3460</v>
@@ -96216,7 +96216,7 @@
         <v>3612</v>
       </c>
       <c r="B3615" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="E3615" t="s">
         <v>3686</v>
@@ -96239,7 +96239,7 @@
         <v>3613</v>
       </c>
       <c r="B3616" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="E3616" t="s">
         <v>3686</v>
@@ -96262,7 +96262,7 @@
         <v>3614</v>
       </c>
       <c r="B3617" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="E3617" t="s">
         <v>3054</v>
@@ -96285,7 +96285,7 @@
         <v>3615</v>
       </c>
       <c r="B3618" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="E3618" t="s">
         <v>4801</v>
@@ -96308,7 +96308,7 @@
         <v>3616</v>
       </c>
       <c r="B3619" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="E3619" t="s">
         <v>2800</v>
@@ -96331,7 +96331,7 @@
         <v>3617</v>
       </c>
       <c r="B3620" t="s">
-        <v>2801</v>
+        <v>2813</v>
       </c>
       <c r="E3620" t="s">
         <v>3503</v>
@@ -96354,7 +96354,7 @@
         <v>3618</v>
       </c>
       <c r="B3621" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="E3621" t="s">
         <v>3054</v>
@@ -96377,7 +96377,7 @@
         <v>3619</v>
       </c>
       <c r="B3622" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="E3622" t="s">
         <v>3054</v>
@@ -96400,7 +96400,7 @@
         <v>3620</v>
       </c>
       <c r="B3623" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="E3623" t="s">
         <v>3934</v>
@@ -96423,7 +96423,7 @@
         <v>3621</v>
       </c>
       <c r="B3624" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="E3624" t="s">
         <v>2820</v>
@@ -96446,7 +96446,7 @@
         <v>3622</v>
       </c>
       <c r="B3625" t="s">
-        <v>2821</v>
+        <v>2878</v>
       </c>
       <c r="E3625" t="s">
         <v>2820</v>
@@ -96469,7 +96469,7 @@
         <v>3623</v>
       </c>
       <c r="B3626" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="E3626" t="s">
         <v>3212</v>
@@ -96492,7 +96492,7 @@
         <v>3624</v>
       </c>
       <c r="B3627" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="E3627" t="s">
         <v>4813</v>
@@ -96515,7 +96515,7 @@
         <v>3625</v>
       </c>
       <c r="B3628" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="E3628" t="s">
         <v>4814</v>
@@ -96538,7 +96538,7 @@
         <v>3626</v>
       </c>
       <c r="B3629" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="E3629" t="s">
         <v>4815</v>
@@ -96561,7 +96561,7 @@
         <v>3627</v>
       </c>
       <c r="B3630" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="E3630" t="s">
         <v>4404</v>
@@ -96584,7 +96584,7 @@
         <v>3628</v>
       </c>
       <c r="B3631" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="E3631" t="s">
         <v>3516</v>
@@ -96607,7 +96607,7 @@
         <v>3629</v>
       </c>
       <c r="B3632" t="s">
-        <v>2887</v>
+        <v>2901</v>
       </c>
       <c r="E3632" t="s">
         <v>3516</v>
@@ -96630,7 +96630,7 @@
         <v>3630</v>
       </c>
       <c r="B3633" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="E3633" t="s">
         <v>4782</v>
@@ -96653,7 +96653,7 @@
         <v>3631</v>
       </c>
       <c r="B3634" t="s">
-        <v>2902</v>
+        <v>2922</v>
       </c>
       <c r="E3634" t="s">
         <v>4818</v>
@@ -96676,7 +96676,7 @@
         <v>3632</v>
       </c>
       <c r="B3635" t="s">
-        <v>2922</v>
+        <v>2936</v>
       </c>
       <c r="E3635" t="s">
         <v>2533</v>
@@ -96699,7 +96699,7 @@
         <v>3633</v>
       </c>
       <c r="B3636" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="E3636" t="s">
         <v>2938</v>
@@ -96722,7 +96722,7 @@
         <v>3634</v>
       </c>
       <c r="B3637" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E3637" t="s">
         <v>2938</v>
@@ -96745,7 +96745,7 @@
         <v>3635</v>
       </c>
       <c r="B3638" t="s">
-        <v>2939</v>
+        <v>2967</v>
       </c>
       <c r="E3638" t="s">
         <v>3602</v>
@@ -96768,7 +96768,7 @@
         <v>3636</v>
       </c>
       <c r="B3639" t="s">
-        <v>2967</v>
+        <v>2971</v>
       </c>
       <c r="E3639" t="s">
         <v>4789</v>
@@ -96791,7 +96791,7 @@
         <v>3637</v>
       </c>
       <c r="B3640" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="E3640" t="s">
         <v>4825</v>
@@ -96814,7 +96814,7 @@
         <v>3638</v>
       </c>
       <c r="B3641" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="E3641" t="s">
         <v>4789</v>
@@ -96837,7 +96837,7 @@
         <v>3639</v>
       </c>
       <c r="B3642" t="s">
-        <v>2973</v>
+        <v>2990</v>
       </c>
       <c r="E3642" t="s">
         <v>4092</v>
@@ -96860,7 +96860,7 @@
         <v>3640</v>
       </c>
       <c r="B3643" t="s">
-        <v>2990</v>
+        <v>3399</v>
       </c>
       <c r="E3643" t="s">
         <v>3458</v>
@@ -96883,7 +96883,7 @@
         <v>3641</v>
       </c>
       <c r="B3644" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="E3644" t="s">
         <v>3025</v>
@@ -96903,7 +96903,7 @@
         <v>3642</v>
       </c>
       <c r="B3645" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="E3645" t="s">
         <v>3398</v>
@@ -96923,7 +96923,7 @@
         <v>3643</v>
       </c>
       <c r="B3646" t="s">
-        <v>3395</v>
+        <v>3502</v>
       </c>
       <c r="E3646" t="s">
         <v>3396</v>
@@ -96943,7 +96943,7 @@
         <v>3644</v>
       </c>
       <c r="B3647" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="E3647" t="s">
         <v>3503</v>
@@ -96963,7 +96963,7 @@
         <v>3645</v>
       </c>
       <c r="B3648" t="s">
-        <v>3504</v>
+        <v>3515</v>
       </c>
       <c r="E3648" t="s">
         <v>3505</v>
@@ -96983,7 +96983,7 @@
         <v>3646</v>
       </c>
       <c r="B3649" t="s">
-        <v>3515</v>
+        <v>3544</v>
       </c>
       <c r="E3649" t="s">
         <v>3516</v>
@@ -97003,7 +97003,7 @@
         <v>3647</v>
       </c>
       <c r="B3650" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="E3650" t="s">
         <v>3054</v>
@@ -97023,7 +97023,7 @@
         <v>3648</v>
       </c>
       <c r="B3651" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="E3651" t="s">
         <v>3234</v>
@@ -97043,7 +97043,7 @@
         <v>3649</v>
       </c>
       <c r="B3652" t="s">
-        <v>3546</v>
+        <v>3557</v>
       </c>
       <c r="E3652" t="s">
         <v>3547</v>
@@ -97063,7 +97063,7 @@
         <v>3650</v>
       </c>
       <c r="B3653" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E3653" t="s">
         <v>3433</v>
@@ -97083,7 +97083,7 @@
         <v>3651</v>
       </c>
       <c r="B3654" t="s">
-        <v>3556</v>
+        <v>3597</v>
       </c>
       <c r="E3654" t="s">
         <v>3062</v>
@@ -97103,7 +97103,7 @@
         <v>3652</v>
       </c>
       <c r="B3655" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="E3655" t="s">
         <v>2897</v>
@@ -97123,7 +97123,7 @@
         <v>3653</v>
       </c>
       <c r="B3656" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="E3656" t="s">
         <v>3458</v>
@@ -97143,7 +97143,7 @@
         <v>3654</v>
       </c>
       <c r="B3657" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="E3657" t="s">
         <v>3602</v>
@@ -97163,7 +97163,7 @@
         <v>3655</v>
       </c>
       <c r="B3658" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="E3658" t="s">
         <v>3602</v>
@@ -97183,7 +97183,7 @@
         <v>3656</v>
       </c>
       <c r="B3659" t="s">
-        <v>3604</v>
+        <v>3628</v>
       </c>
       <c r="E3659" t="s">
         <v>3602</v>
@@ -97203,7 +97203,7 @@
         <v>3657</v>
       </c>
       <c r="B3660" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="E3660" t="s">
         <v>3054</v>
@@ -97223,7 +97223,7 @@
         <v>3658</v>
       </c>
       <c r="B3661" t="s">
-        <v>3631</v>
+        <v>3713</v>
       </c>
       <c r="E3661" t="s">
         <v>3458</v>
@@ -97243,7 +97243,7 @@
         <v>3659</v>
       </c>
       <c r="B3662" t="s">
-        <v>3713</v>
+        <v>3722</v>
       </c>
       <c r="E3662" t="s">
         <v>3686</v>
@@ -97263,7 +97263,7 @@
         <v>3660</v>
       </c>
       <c r="B3663" t="s">
-        <v>3722</v>
+        <v>3724</v>
       </c>
       <c r="E3663" t="s">
         <v>3723</v>
@@ -97283,7 +97283,7 @@
         <v>3661</v>
       </c>
       <c r="B3664" t="s">
-        <v>3724</v>
+        <v>3729</v>
       </c>
       <c r="E3664" t="s">
         <v>3725</v>
@@ -97303,7 +97303,7 @@
         <v>3662</v>
       </c>
       <c r="B3665" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="E3665" t="s">
         <v>2897</v>
@@ -97323,7 +97323,7 @@
         <v>3663</v>
       </c>
       <c r="B3666" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="E3666" t="s">
         <v>3062</v>
@@ -97343,7 +97343,7 @@
         <v>3664</v>
       </c>
       <c r="B3667" t="s">
-        <v>3731</v>
+        <v>3746</v>
       </c>
       <c r="E3667" t="s">
         <v>3396</v>
@@ -97363,7 +97363,7 @@
         <v>3665</v>
       </c>
       <c r="B3668" t="s">
-        <v>3746</v>
+        <v>3748</v>
       </c>
       <c r="E3668" t="s">
         <v>3747</v>
@@ -97383,7 +97383,7 @@
         <v>3666</v>
       </c>
       <c r="B3669" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="E3669" t="s">
         <v>3743</v>
@@ -97403,7 +97403,7 @@
         <v>3667</v>
       </c>
       <c r="B3670" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E3670" t="s">
         <v>3743</v>
@@ -97423,7 +97423,7 @@
         <v>3668</v>
       </c>
       <c r="B3671" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="E3671" t="s">
         <v>3458</v>
@@ -97443,7 +97443,7 @@
         <v>3669</v>
       </c>
       <c r="B3672" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="E3672" t="s">
         <v>3458</v>
@@ -97463,7 +97463,7 @@
         <v>3670</v>
       </c>
       <c r="B3673" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="E3673" t="s">
         <v>3458</v>
@@ -97483,7 +97483,7 @@
         <v>3671</v>
       </c>
       <c r="B3674" t="s">
-        <v>3753</v>
+        <v>3755</v>
       </c>
       <c r="E3674" t="s">
         <v>3754</v>
@@ -97503,7 +97503,7 @@
         <v>3672</v>
       </c>
       <c r="B3675" t="s">
-        <v>3755</v>
+        <v>3757</v>
       </c>
       <c r="E3675" t="s">
         <v>3756</v>
@@ -97523,7 +97523,7 @@
         <v>3673</v>
       </c>
       <c r="B3676" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="E3676" t="s">
         <v>3756</v>
@@ -97543,7 +97543,7 @@
         <v>3674</v>
       </c>
       <c r="B3677" t="s">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="E3677" t="s">
         <v>3759</v>
@@ -97563,7 +97563,7 @@
         <v>3675</v>
       </c>
       <c r="B3678" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="E3678" t="s">
         <v>3759</v>
@@ -97583,7 +97583,7 @@
         <v>3676</v>
       </c>
       <c r="B3679" t="s">
-        <v>3761</v>
+        <v>3763</v>
       </c>
       <c r="E3679" t="s">
         <v>3762</v>
@@ -97603,7 +97603,7 @@
         <v>3677</v>
       </c>
       <c r="B3680" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="E3680" t="s">
         <v>3547</v>
@@ -97623,7 +97623,7 @@
         <v>3678</v>
       </c>
       <c r="B3681" t="s">
-        <v>3764</v>
+        <v>3766</v>
       </c>
       <c r="E3681" t="s">
         <v>3765</v>
@@ -97643,7 +97643,7 @@
         <v>3679</v>
       </c>
       <c r="B3682" t="s">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="E3682" t="s">
         <v>3767</v>
@@ -97663,7 +97663,7 @@
         <v>3680</v>
       </c>
       <c r="B3683" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="E3683" t="s">
         <v>3143</v>
@@ -97683,7 +97683,7 @@
         <v>3681</v>
       </c>
       <c r="B3684" t="s">
-        <v>3769</v>
+        <v>3784</v>
       </c>
       <c r="E3684" t="s">
         <v>3143</v>
@@ -97703,7 +97703,7 @@
         <v>3682</v>
       </c>
       <c r="B3685" t="s">
-        <v>3784</v>
+        <v>3933</v>
       </c>
       <c r="E3685" t="s">
         <v>3503</v>
@@ -97723,7 +97723,7 @@
         <v>3683</v>
       </c>
       <c r="B3686" t="s">
-        <v>3933</v>
+        <v>3942</v>
       </c>
       <c r="E3686" t="s">
         <v>3934</v>
@@ -97743,7 +97743,7 @@
         <v>3684</v>
       </c>
       <c r="B3687" t="s">
-        <v>3942</v>
+        <v>3950</v>
       </c>
       <c r="E3687" t="s">
         <v>3934</v>
@@ -97763,7 +97763,7 @@
         <v>3685</v>
       </c>
       <c r="B3688" t="s">
-        <v>3950</v>
+        <v>3964</v>
       </c>
       <c r="E3688" t="s">
         <v>3951</v>
@@ -97783,7 +97783,7 @@
         <v>3686</v>
       </c>
       <c r="B3689" t="s">
-        <v>3964</v>
+        <v>4032</v>
       </c>
       <c r="E3689" t="s">
         <v>3411</v>
@@ -97803,7 +97803,7 @@
         <v>3687</v>
       </c>
       <c r="B3690" t="s">
-        <v>4032</v>
+        <v>4042</v>
       </c>
       <c r="E3690" t="s">
         <v>3759</v>
@@ -97823,7 +97823,7 @@
         <v>3688</v>
       </c>
       <c r="B3691" t="s">
-        <v>4042</v>
+        <v>4050</v>
       </c>
       <c r="E3691" t="s">
         <v>3234</v>
@@ -97843,7 +97843,7 @@
         <v>3689</v>
       </c>
       <c r="B3692" t="s">
-        <v>4050</v>
+        <v>4052</v>
       </c>
       <c r="E3692" t="s">
         <v>4051</v>
@@ -97863,7 +97863,7 @@
         <v>3690</v>
       </c>
       <c r="B3693" t="s">
-        <v>4052</v>
+        <v>4057</v>
       </c>
       <c r="E3693" t="s">
         <v>3636</v>
@@ -97883,7 +97883,7 @@
         <v>3691</v>
       </c>
       <c r="B3694" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="E3694" t="s">
         <v>3215</v>
@@ -97903,7 +97903,7 @@
         <v>3692</v>
       </c>
       <c r="B3695" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="E3695" t="s">
         <v>3143</v>
@@ -97923,7 +97923,7 @@
         <v>3693</v>
       </c>
       <c r="B3696" t="s">
-        <v>4059</v>
+        <v>4061</v>
       </c>
       <c r="E3696" t="s">
         <v>3516</v>
@@ -97943,7 +97943,7 @@
         <v>3694</v>
       </c>
       <c r="B3697" t="s">
-        <v>4061</v>
+        <v>4064</v>
       </c>
       <c r="E3697" t="s">
         <v>4062</v>
@@ -97963,7 +97963,7 @@
         <v>3695</v>
       </c>
       <c r="B3698" t="s">
-        <v>4064</v>
+        <v>4066</v>
       </c>
       <c r="E3698" t="s">
         <v>3458</v>
@@ -97983,7 +97983,7 @@
         <v>3696</v>
       </c>
       <c r="B3699" t="s">
-        <v>4066</v>
+        <v>4072</v>
       </c>
       <c r="E3699" t="s">
         <v>4067</v>
@@ -98003,7 +98003,7 @@
         <v>3697</v>
       </c>
       <c r="B3700" t="s">
-        <v>4072</v>
+        <v>4074</v>
       </c>
       <c r="E3700" t="s">
         <v>4073</v>
@@ -98023,7 +98023,7 @@
         <v>3698</v>
       </c>
       <c r="B3701" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="E3701" t="s">
         <v>3723</v>
@@ -98043,7 +98043,7 @@
         <v>3699</v>
       </c>
       <c r="B3702" t="s">
-        <v>4075</v>
+        <v>4077</v>
       </c>
       <c r="E3702" t="s">
         <v>4076</v>
@@ -98063,7 +98063,7 @@
         <v>3700</v>
       </c>
       <c r="B3703" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="E3703" t="s">
         <v>2897</v>
@@ -98083,7 +98083,7 @@
         <v>3701</v>
       </c>
       <c r="B3704" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E3704" t="s">
         <v>2897</v>
@@ -98103,7 +98103,7 @@
         <v>3702</v>
       </c>
       <c r="B3705" t="s">
-        <v>4079</v>
+        <v>4081</v>
       </c>
       <c r="E3705" t="s">
         <v>4080</v>
@@ -98123,7 +98123,7 @@
         <v>3703</v>
       </c>
       <c r="B3706" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E3706" t="s">
         <v>3547</v>
@@ -98143,7 +98143,7 @@
         <v>3704</v>
       </c>
       <c r="B3707" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E3707" t="s">
         <v>3234</v>
@@ -98163,7 +98163,7 @@
         <v>3705</v>
       </c>
       <c r="B3708" t="s">
-        <v>4083</v>
+        <v>4088</v>
       </c>
       <c r="E3708" t="s">
         <v>3411</v>
@@ -98183,7 +98183,7 @@
         <v>3706</v>
       </c>
       <c r="B3709" t="s">
-        <v>4088</v>
+        <v>4129</v>
       </c>
       <c r="E3709" t="s">
         <v>3723</v>
@@ -98203,7 +98203,7 @@
         <v>3707</v>
       </c>
       <c r="B3710" t="s">
-        <v>4129</v>
+        <v>4137</v>
       </c>
       <c r="E3710" t="s">
         <v>3054</v>
@@ -98223,7 +98223,7 @@
         <v>3708</v>
       </c>
       <c r="B3711" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="E3711" t="s">
         <v>3396</v>
@@ -98243,7 +98243,7 @@
         <v>3709</v>
       </c>
       <c r="B3712" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E3712" t="s">
         <v>2897</v>
@@ -98263,7 +98263,7 @@
         <v>3710</v>
       </c>
       <c r="B3713" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="E3713" t="s">
         <v>3234</v>
@@ -98283,7 +98283,7 @@
         <v>3711</v>
       </c>
       <c r="B3714" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="E3714" t="s">
         <v>3396</v>
@@ -98303,7 +98303,7 @@
         <v>3712</v>
       </c>
       <c r="B3715" t="s">
-        <v>4141</v>
+        <v>4147</v>
       </c>
       <c r="E3715" t="s">
         <v>3054</v>
@@ -98323,7 +98323,7 @@
         <v>3713</v>
       </c>
       <c r="B3716" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E3716" t="s">
         <v>3396</v>
@@ -98343,7 +98343,7 @@
         <v>3714</v>
       </c>
       <c r="B3717" t="s">
-        <v>4148</v>
+        <v>4150</v>
       </c>
       <c r="E3717" t="s">
         <v>4149</v>
@@ -98363,7 +98363,7 @@
         <v>3715</v>
       </c>
       <c r="B3718" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E3718" t="s">
         <v>4149</v>
@@ -98383,7 +98383,7 @@
         <v>3716</v>
       </c>
       <c r="B3719" t="s">
-        <v>4151</v>
+        <v>4153</v>
       </c>
       <c r="E3719" t="s">
         <v>4149</v>
@@ -98403,7 +98403,7 @@
         <v>3717</v>
       </c>
       <c r="B3720" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E3720" t="s">
         <v>4149</v>
@@ -98423,7 +98423,7 @@
         <v>3718</v>
       </c>
       <c r="B3721" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E3721" t="s">
         <v>3458</v>
@@ -98443,7 +98443,7 @@
         <v>3719</v>
       </c>
       <c r="B3722" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E3722" t="s">
         <v>4073</v>
@@ -98463,7 +98463,7 @@
         <v>3720</v>
       </c>
       <c r="B3723" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E3723" t="s">
         <v>3602</v>
@@ -98483,7 +98483,7 @@
         <v>3721</v>
       </c>
       <c r="B3724" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E3724" t="s">
         <v>3602</v>
@@ -98503,7 +98503,7 @@
         <v>3722</v>
       </c>
       <c r="B3725" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E3725" t="s">
         <v>3602</v>
@@ -98523,7 +98523,7 @@
         <v>3723</v>
       </c>
       <c r="B3726" t="s">
-        <v>4159</v>
+        <v>4162</v>
       </c>
       <c r="E3726" t="s">
         <v>3509</v>
@@ -98543,7 +98543,7 @@
         <v>3724</v>
       </c>
       <c r="B3727" t="s">
-        <v>4162</v>
+        <v>4166</v>
       </c>
       <c r="E3727" t="s">
         <v>3509</v>
@@ -98563,7 +98563,7 @@
         <v>3725</v>
       </c>
       <c r="B3728" t="s">
-        <v>4166</v>
+        <v>4233</v>
       </c>
       <c r="E3728" t="s">
         <v>2897</v>
@@ -98583,7 +98583,7 @@
         <v>3726</v>
       </c>
       <c r="B3729" t="s">
-        <v>4233</v>
+        <v>4246</v>
       </c>
       <c r="E3729" t="s">
         <v>3396</v>
@@ -98603,7 +98603,7 @@
         <v>3727</v>
       </c>
       <c r="B3730" t="s">
-        <v>4246</v>
+        <v>4274</v>
       </c>
       <c r="E3730" t="s">
         <v>4247</v>
@@ -98623,7 +98623,7 @@
         <v>3728</v>
       </c>
       <c r="B3731" t="s">
-        <v>4274</v>
+        <v>4283</v>
       </c>
       <c r="E3731" t="s">
         <v>4275</v>
@@ -98643,7 +98643,7 @@
         <v>3729</v>
       </c>
       <c r="B3732" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="E3732" t="s">
         <v>4247</v>
@@ -98663,7 +98663,7 @@
         <v>3730</v>
       </c>
       <c r="B3733" t="s">
-        <v>4284</v>
+        <v>4289</v>
       </c>
       <c r="E3733" t="s">
         <v>4247</v>
@@ -98683,7 +98683,7 @@
         <v>3731</v>
       </c>
       <c r="B3734" t="s">
-        <v>4289</v>
+        <v>4292</v>
       </c>
       <c r="E3734" t="s">
         <v>3602</v>
@@ -98703,7 +98703,7 @@
         <v>3732</v>
       </c>
       <c r="B3735" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="E3735" t="s">
         <v>4275</v>
@@ -98723,7 +98723,7 @@
         <v>3733</v>
       </c>
       <c r="B3736" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="E3736" t="s">
         <v>3602</v>
@@ -98743,7 +98743,7 @@
         <v>3734</v>
       </c>
       <c r="B3737" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="E3737" t="s">
         <v>3458</v>
@@ -98763,7 +98763,7 @@
         <v>3735</v>
       </c>
       <c r="B3738" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="E3738" t="s">
         <v>3062</v>
@@ -98783,7 +98783,7 @@
         <v>3736</v>
       </c>
       <c r="B3739" t="s">
-        <v>4296</v>
+        <v>4999</v>
       </c>
       <c r="E3739" t="s">
         <v>3396</v>
@@ -98803,7 +98803,7 @@
         <v>3737</v>
       </c>
       <c r="B3740" t="s">
-        <v>4999</v>
+        <v>5013</v>
       </c>
       <c r="E3740" t="s">
         <v>5000</v>
@@ -98823,7 +98823,7 @@
         <v>3738</v>
       </c>
       <c r="B3741" t="s">
-        <v>5013</v>
+        <v>5014</v>
       </c>
       <c r="E3741" t="s">
         <v>3054</v>
@@ -98843,7 +98843,7 @@
         <v>3739</v>
       </c>
       <c r="B3742" t="s">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="E3742" t="s">
         <v>3054</v>
@@ -98863,7 +98863,7 @@
         <v>3740</v>
       </c>
       <c r="B3743" t="s">
-        <v>5015</v>
+        <v>5016</v>
       </c>
       <c r="E3743" t="s">
         <v>4080</v>
@@ -98883,7 +98883,7 @@
         <v>3741</v>
       </c>
       <c r="B3744" t="s">
-        <v>5016</v>
+        <v>5019</v>
       </c>
       <c r="E3744" t="s">
         <v>4080</v>
@@ -98903,7 +98903,7 @@
         <v>3742</v>
       </c>
       <c r="B3745" t="s">
-        <v>5019</v>
+        <v>5031</v>
       </c>
       <c r="E3745" t="s">
         <v>5020</v>
@@ -98923,7 +98923,7 @@
         <v>3743</v>
       </c>
       <c r="B3746" t="s">
-        <v>5031</v>
+        <v>5046</v>
       </c>
       <c r="E3746" t="s">
         <v>3143</v>
@@ -98943,7 +98943,7 @@
         <v>3744</v>
       </c>
       <c r="B3747" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="E3747" t="s">
         <v>3602</v>
@@ -98963,7 +98963,7 @@
         <v>3745</v>
       </c>
       <c r="B3748" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="E3748" t="s">
         <v>3516</v>
@@ -98983,7 +98983,7 @@
         <v>3746</v>
       </c>
       <c r="B3749" t="s">
-        <v>5049</v>
+        <v>5072</v>
       </c>
       <c r="E3749" t="s">
         <v>4275</v>
@@ -99003,7 +99003,7 @@
         <v>3747</v>
       </c>
       <c r="B3750" t="s">
-        <v>5072</v>
+        <v>2277</v>
       </c>
       <c r="E3750" t="s">
         <v>2897</v>
@@ -99023,7 +99023,7 @@
         <v>3748</v>
       </c>
       <c r="B3751" t="s">
-        <v>2277</v>
+        <v>721</v>
       </c>
       <c r="E3751" t="s">
         <v>4501</v>
@@ -99046,7 +99046,7 @@
         <v>3749</v>
       </c>
       <c r="B3752" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E3752" t="s">
         <v>4492</v>
@@ -99069,7 +99069,7 @@
         <v>3750</v>
       </c>
       <c r="B3753" t="s">
-        <v>716</v>
+        <v>2216</v>
       </c>
       <c r="E3753" t="s">
         <v>4491</v>
@@ -99092,7 +99092,7 @@
         <v>3751</v>
       </c>
       <c r="B3754" t="s">
-        <v>2216</v>
+        <v>2266</v>
       </c>
       <c r="E3754" t="s">
         <v>4721</v>
@@ -99115,7 +99115,7 @@
         <v>3752</v>
       </c>
       <c r="B3755" t="s">
-        <v>2266</v>
+        <v>2213</v>
       </c>
       <c r="E3755" t="s">
         <v>3625</v>
@@ -99138,7 +99138,7 @@
         <v>3753</v>
       </c>
       <c r="B3756" t="s">
-        <v>2213</v>
+        <v>2197</v>
       </c>
       <c r="E3756" t="s">
         <v>4721</v>
@@ -99161,7 +99161,7 @@
         <v>3754</v>
       </c>
       <c r="B3757" t="s">
-        <v>2197</v>
+        <v>2127</v>
       </c>
       <c r="E3757" t="s">
         <v>4090</v>
@@ -99184,7 +99184,7 @@
         <v>3755</v>
       </c>
       <c r="B3758" t="s">
-        <v>2127</v>
+        <v>2212</v>
       </c>
       <c r="E3758" t="s">
         <v>4494</v>
@@ -99207,7 +99207,7 @@
         <v>3756</v>
       </c>
       <c r="B3759" t="s">
-        <v>2212</v>
+        <v>717</v>
       </c>
       <c r="E3759" t="s">
         <v>4721</v>
@@ -99230,7 +99230,7 @@
         <v>3757</v>
       </c>
       <c r="B3760" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="E3760" t="s">
         <v>4491</v>
@@ -99253,7 +99253,7 @@
         <v>3758</v>
       </c>
       <c r="B3761" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E3761" t="s">
         <v>4498</v>
@@ -99276,7 +99276,7 @@
         <v>3759</v>
       </c>
       <c r="B3762" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E3762" t="s">
         <v>4493</v>
@@ -99299,7 +99299,7 @@
         <v>3760</v>
       </c>
       <c r="B3763" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E3763" t="s">
         <v>4496</v>
@@ -99322,7 +99322,7 @@
         <v>3761</v>
       </c>
       <c r="B3764" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E3764" t="s">
         <v>4496</v>
@@ -99345,7 +99345,7 @@
         <v>3762</v>
       </c>
       <c r="B3765" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E3765" t="s">
         <v>4497</v>
@@ -99368,7 +99368,7 @@
         <v>3763</v>
       </c>
       <c r="B3766" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E3766" t="s">
         <v>4495</v>
@@ -99391,7 +99391,7 @@
         <v>3764</v>
       </c>
       <c r="B3767" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="E3767" t="s">
         <v>4495</v>
@@ -99414,7 +99414,7 @@
         <v>3765</v>
       </c>
       <c r="B3768" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="E3768" t="s">
         <v>4491</v>
@@ -99437,7 +99437,7 @@
         <v>3766</v>
       </c>
       <c r="B3769" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="E3769" t="s">
         <v>4499</v>
@@ -99460,7 +99460,7 @@
         <v>3767</v>
       </c>
       <c r="B3770" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="E3770" t="s">
         <v>4502</v>
@@ -99483,7 +99483,7 @@
         <v>3768</v>
       </c>
       <c r="B3771" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E3771" t="s">
         <v>4493</v>
@@ -99506,7 +99506,7 @@
         <v>3769</v>
       </c>
       <c r="B3772" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="E3772" t="s">
         <v>4492</v>
@@ -99529,7 +99529,7 @@
         <v>3770</v>
       </c>
       <c r="B3773" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E3773" t="s">
         <v>4496</v>
@@ -99552,7 +99552,7 @@
         <v>3771</v>
       </c>
       <c r="B3774" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E3774" t="s">
         <v>4492</v>
@@ -99575,7 +99575,7 @@
         <v>3772</v>
       </c>
       <c r="B3775" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="E3775" t="s">
         <v>4491</v>
@@ -99598,7 +99598,7 @@
         <v>3773</v>
       </c>
       <c r="B3776" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E3776" t="s">
         <v>4503</v>
@@ -99621,7 +99621,7 @@
         <v>3774</v>
       </c>
       <c r="B3777" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E3777" t="s">
         <v>4503</v>
@@ -99644,7 +99644,7 @@
         <v>3775</v>
       </c>
       <c r="B3778" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E3778" t="s">
         <v>4500</v>
@@ -99667,7 +99667,7 @@
         <v>3776</v>
       </c>
       <c r="B3779" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E3779" t="s">
         <v>4500</v>
@@ -99690,7 +99690,7 @@
         <v>3777</v>
       </c>
       <c r="B3780" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E3780" t="s">
         <v>4503</v>
@@ -99713,7 +99713,7 @@
         <v>3778</v>
       </c>
       <c r="B3781" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E3781" t="s">
         <v>4501</v>
@@ -99736,7 +99736,7 @@
         <v>3779</v>
       </c>
       <c r="B3782" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E3782" t="s">
         <v>4501</v>
@@ -99759,7 +99759,7 @@
         <v>3780</v>
       </c>
       <c r="B3783" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E3783" t="s">
         <v>3625</v>
@@ -99782,7 +99782,7 @@
         <v>3781</v>
       </c>
       <c r="B3784" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="E3784" t="s">
         <v>3212</v>
@@ -99805,7 +99805,7 @@
         <v>3782</v>
       </c>
       <c r="B3785" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="E3785" t="s">
         <v>3930</v>
@@ -99828,7 +99828,7 @@
         <v>3783</v>
       </c>
       <c r="B3786" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E3786" t="s">
         <v>4503</v>
@@ -99851,7 +99851,7 @@
         <v>3784</v>
       </c>
       <c r="B3787" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="E3787" t="s">
         <v>4503</v>
@@ -99874,7 +99874,7 @@
         <v>3785</v>
       </c>
       <c r="B3788" t="s">
-        <v>726</v>
+        <v>2117</v>
       </c>
       <c r="E3788" t="s">
         <v>4494</v>
@@ -99897,7 +99897,7 @@
         <v>3786</v>
       </c>
       <c r="B3789" t="s">
-        <v>2117</v>
+        <v>2215</v>
       </c>
       <c r="E3789" t="s">
         <v>4492</v>
@@ -99920,7 +99920,7 @@
         <v>3787</v>
       </c>
       <c r="B3790" t="s">
-        <v>2215</v>
+        <v>2120</v>
       </c>
       <c r="E3790" t="s">
         <v>4721</v>
@@ -99943,7 +99943,7 @@
         <v>3788</v>
       </c>
       <c r="B3791" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="E3791" t="s">
         <v>4492</v>
@@ -99966,7 +99966,7 @@
         <v>3789</v>
       </c>
       <c r="B3792" t="s">
-        <v>2118</v>
+        <v>2209</v>
       </c>
       <c r="E3792" t="s">
         <v>4492</v>
@@ -99989,7 +99989,7 @@
         <v>3790</v>
       </c>
       <c r="B3793" t="s">
-        <v>2209</v>
+        <v>2265</v>
       </c>
       <c r="E3793" t="s">
         <v>4721</v>
@@ -100012,7 +100012,7 @@
         <v>3791</v>
       </c>
       <c r="B3794" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E3794" t="s">
         <v>4699</v>
@@ -100035,7 +100035,7 @@
         <v>3792</v>
       </c>
       <c r="B3795" t="s">
-        <v>2264</v>
+        <v>2084</v>
       </c>
       <c r="E3795" t="s">
         <v>4726</v>
@@ -100058,7 +100058,7 @@
         <v>3793</v>
       </c>
       <c r="B3796" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="E3796" t="s">
         <v>4491</v>
@@ -100081,7 +100081,7 @@
         <v>3794</v>
       </c>
       <c r="B3797" t="s">
-        <v>2085</v>
+        <v>2214</v>
       </c>
       <c r="E3797" t="s">
         <v>4491</v>
@@ -100104,7 +100104,7 @@
         <v>3795</v>
       </c>
       <c r="B3798" t="s">
-        <v>2214</v>
+        <v>2276</v>
       </c>
       <c r="E3798" t="s">
         <v>4721</v>
@@ -100127,7 +100127,7 @@
         <v>3796</v>
       </c>
       <c r="B3799" t="s">
-        <v>2276</v>
+        <v>2282</v>
       </c>
       <c r="E3799" t="s">
         <v>4501</v>
@@ -100150,7 +100150,7 @@
         <v>3797</v>
       </c>
       <c r="B3800" t="s">
-        <v>2282</v>
+        <v>2268</v>
       </c>
       <c r="E3800" t="s">
         <v>4699</v>
@@ -100173,7 +100173,7 @@
         <v>3798</v>
       </c>
       <c r="B3801" t="s">
-        <v>2268</v>
+        <v>2189</v>
       </c>
       <c r="E3801" t="s">
         <v>3625</v>
@@ -100196,7 +100196,7 @@
         <v>3799</v>
       </c>
       <c r="B3802" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E3802" t="s">
         <v>4648</v>
@@ -100219,7 +100219,7 @@
         <v>3800</v>
       </c>
       <c r="B3803" t="s">
-        <v>2191</v>
+        <v>2278</v>
       </c>
       <c r="E3803" t="s">
         <v>4717</v>
@@ -100242,7 +100242,7 @@
         <v>3801</v>
       </c>
       <c r="B3804" t="s">
-        <v>2278</v>
+        <v>2137</v>
       </c>
       <c r="E3804" t="s">
         <v>4501</v>
@@ -100265,7 +100265,7 @@
         <v>3802</v>
       </c>
       <c r="B3805" t="s">
-        <v>2137</v>
+        <v>2116</v>
       </c>
       <c r="E3805" t="s">
         <v>4037</v>
@@ -100288,7 +100288,7 @@
         <v>3803</v>
       </c>
       <c r="B3806" t="s">
-        <v>2116</v>
+        <v>2091</v>
       </c>
       <c r="E3806" t="s">
         <v>4700</v>
@@ -100311,7 +100311,7 @@
         <v>3804</v>
       </c>
       <c r="B3807" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E3807" t="s">
         <v>4695</v>
@@ -100334,7 +100334,7 @@
         <v>3805</v>
       </c>
       <c r="B3808" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="E3808" t="s">
         <v>4695</v>
@@ -100357,7 +100357,7 @@
         <v>3806</v>
       </c>
       <c r="B3809" t="s">
-        <v>2096</v>
+        <v>2217</v>
       </c>
       <c r="E3809" t="s">
         <v>4697</v>
@@ -100380,7 +100380,7 @@
         <v>3807</v>
       </c>
       <c r="B3810" t="s">
-        <v>2217</v>
+        <v>2199</v>
       </c>
       <c r="E3810" t="s">
         <v>4722</v>
@@ -100403,7 +100403,7 @@
         <v>3808</v>
       </c>
       <c r="B3811" t="s">
-        <v>2199</v>
+        <v>2114</v>
       </c>
       <c r="E3811" t="s">
         <v>4719</v>
@@ -100426,7 +100426,7 @@
         <v>3809</v>
       </c>
       <c r="B3812" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="E3812" t="s">
         <v>4699</v>
@@ -100449,7 +100449,7 @@
         <v>3810</v>
       </c>
       <c r="B3813" t="s">
-        <v>2115</v>
+        <v>2093</v>
       </c>
       <c r="E3813" t="s">
         <v>4699</v>
@@ -100472,7 +100472,7 @@
         <v>3811</v>
       </c>
       <c r="B3814" t="s">
-        <v>2093</v>
+        <v>2210</v>
       </c>
       <c r="E3814" t="s">
         <v>4695</v>
@@ -100495,7 +100495,7 @@
         <v>3812</v>
       </c>
       <c r="B3815" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E3815" t="s">
         <v>4721</v>
@@ -100518,7 +100518,7 @@
         <v>3813</v>
       </c>
       <c r="B3816" t="s">
-        <v>2211</v>
+        <v>2119</v>
       </c>
       <c r="E3816" t="s">
         <v>4721</v>
@@ -100541,7 +100541,7 @@
         <v>3814</v>
       </c>
       <c r="B3817" t="s">
-        <v>2119</v>
+        <v>2094</v>
       </c>
       <c r="E3817" t="s">
         <v>4492</v>
@@ -100564,7 +100564,7 @@
         <v>3815</v>
       </c>
       <c r="B3818" t="s">
-        <v>2094</v>
+        <v>2267</v>
       </c>
       <c r="E3818" t="s">
         <v>4695</v>
@@ -100587,7 +100587,7 @@
         <v>3816</v>
       </c>
       <c r="B3819" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="E3819" t="s">
         <v>3625</v>
@@ -100610,7 +100610,7 @@
         <v>3817</v>
       </c>
       <c r="B3820" t="s">
-        <v>2271</v>
+        <v>2109</v>
       </c>
       <c r="E3820" t="s">
         <v>4729</v>
@@ -100633,7 +100633,7 @@
         <v>3818</v>
       </c>
       <c r="B3821" t="s">
-        <v>2109</v>
+        <v>2148</v>
       </c>
       <c r="E3821" t="s">
         <v>3842</v>
@@ -100656,7 +100656,7 @@
         <v>3819</v>
       </c>
       <c r="B3822" t="s">
-        <v>2148</v>
+        <v>2643</v>
       </c>
       <c r="E3822" t="s">
         <v>4709</v>
@@ -100679,7 +100679,7 @@
         <v>3820</v>
       </c>
       <c r="B3823" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="E3823" t="s">
         <v>3625</v>
@@ -100702,7 +100702,7 @@
         <v>3821</v>
       </c>
       <c r="B3824" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="E3824" t="s">
         <v>4774</v>
@@ -100725,7 +100725,7 @@
         <v>3822</v>
       </c>
       <c r="B3825" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="E3825" t="s">
         <v>4774</v>
@@ -100748,7 +100748,7 @@
         <v>3823</v>
       </c>
       <c r="B3826" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="E3826" t="s">
         <v>4699</v>
@@ -100771,7 +100771,7 @@
         <v>3824</v>
       </c>
       <c r="B3827" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="E3827" t="s">
         <v>4775</v>
@@ -100794,7 +100794,7 @@
         <v>3825</v>
       </c>
       <c r="B3828" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="E3828" t="s">
         <v>4721</v>
@@ -100817,7 +100817,7 @@
         <v>3826</v>
       </c>
       <c r="B3829" t="s">
-        <v>2651</v>
+        <v>2557</v>
       </c>
       <c r="E3829" t="s">
         <v>4776</v>
@@ -100840,7 +100840,7 @@
         <v>3827</v>
       </c>
       <c r="B3830" t="s">
-        <v>2557</v>
+        <v>2652</v>
       </c>
       <c r="E3830" t="s">
         <v>4765</v>
@@ -100863,7 +100863,7 @@
         <v>3828</v>
       </c>
       <c r="B3831" t="s">
-        <v>2652</v>
+        <v>2929</v>
       </c>
       <c r="E3831" t="s">
         <v>4777</v>
@@ -100886,7 +100886,7 @@
         <v>3829</v>
       </c>
       <c r="B3832" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="E3832" t="s">
         <v>3756</v>
@@ -100909,7 +100909,7 @@
         <v>3830</v>
       </c>
       <c r="B3833" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="E3833" t="s">
         <v>4703</v>
@@ -100932,7 +100932,7 @@
         <v>3831</v>
       </c>
       <c r="B3834" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="E3834" t="s">
         <v>4721</v>
@@ -100955,7 +100955,7 @@
         <v>3832</v>
       </c>
       <c r="B3835" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="E3835" t="s">
         <v>4721</v>
@@ -100978,7 +100978,7 @@
         <v>3833</v>
       </c>
       <c r="B3836" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="E3836" t="s">
         <v>4819</v>
@@ -101001,7 +101001,7 @@
         <v>3834</v>
       </c>
       <c r="B3837" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="E3837" t="s">
         <v>4820</v>
@@ -101024,7 +101024,7 @@
         <v>3835</v>
       </c>
       <c r="B3838" t="s">
-        <v>2935</v>
+        <v>3624</v>
       </c>
       <c r="E3838" t="s">
         <v>4821</v>
@@ -101047,7 +101047,7 @@
         <v>3836</v>
       </c>
       <c r="B3839" t="s">
-        <v>3624</v>
+        <v>3626</v>
       </c>
       <c r="E3839" t="s">
         <v>3625</v>
@@ -101067,7 +101067,7 @@
         <v>3837</v>
       </c>
       <c r="B3840" t="s">
-        <v>3626</v>
+        <v>3839</v>
       </c>
       <c r="E3840" t="s">
         <v>3627</v>
@@ -101087,7 +101087,7 @@
         <v>3838</v>
       </c>
       <c r="B3841" t="s">
-        <v>3839</v>
+        <v>3841</v>
       </c>
       <c r="E3841" t="s">
         <v>3840</v>
@@ -101107,7 +101107,7 @@
         <v>3839</v>
       </c>
       <c r="B3842" t="s">
-        <v>3841</v>
+        <v>3929</v>
       </c>
       <c r="E3842" t="s">
         <v>3842</v>
@@ -101127,7 +101127,7 @@
         <v>3840</v>
       </c>
       <c r="B3843" t="s">
-        <v>3929</v>
+        <v>3969</v>
       </c>
       <c r="E3843" t="s">
         <v>3930</v>
@@ -101147,7 +101147,7 @@
         <v>3841</v>
       </c>
       <c r="B3844" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="E3844" t="s">
         <v>3928</v>
@@ -101167,7 +101167,7 @@
         <v>3842</v>
       </c>
       <c r="B3845" t="s">
-        <v>3970</v>
+        <v>4089</v>
       </c>
       <c r="E3845" t="s">
         <v>3971</v>
@@ -101187,7 +101187,7 @@
         <v>3843</v>
       </c>
       <c r="B3846" t="s">
-        <v>4089</v>
+        <v>4091</v>
       </c>
       <c r="E3846" t="s">
         <v>4090</v>
@@ -101207,7 +101207,7 @@
         <v>3844</v>
       </c>
       <c r="B3847" t="s">
-        <v>4091</v>
+        <v>4127</v>
       </c>
       <c r="E3847" t="s">
         <v>4092</v>
@@ -101227,7 +101227,7 @@
         <v>3845</v>
       </c>
       <c r="B3848" t="s">
-        <v>4127</v>
+        <v>4252</v>
       </c>
       <c r="E3848" t="s">
         <v>3212</v>
@@ -101247,7 +101247,7 @@
         <v>3846</v>
       </c>
       <c r="B3849" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="E3849" t="s">
         <v>3756</v>
@@ -101267,7 +101267,7 @@
         <v>3847</v>
       </c>
       <c r="B3850" t="s">
-        <v>4253</v>
+        <v>5033</v>
       </c>
       <c r="E3850" t="s">
         <v>3756</v>
@@ -101287,7 +101287,7 @@
         <v>3848</v>
       </c>
       <c r="B3851" t="s">
-        <v>5033</v>
+        <v>5078</v>
       </c>
       <c r="E3851" t="s">
         <v>3928</v>
@@ -101307,7 +101307,7 @@
         <v>3849</v>
       </c>
       <c r="B3852" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="E3852" t="s">
         <v>4037</v>
@@ -101327,7 +101327,7 @@
         <v>3850</v>
       </c>
       <c r="B3853" t="s">
-        <v>5079</v>
+        <v>5080</v>
       </c>
       <c r="E3853" t="s">
         <v>4037</v>
@@ -101347,7 +101347,7 @@
         <v>3851</v>
       </c>
       <c r="B3854" t="s">
-        <v>5080</v>
+        <v>924</v>
       </c>
       <c r="E3854" t="s">
         <v>4037</v>
@@ -101367,7 +101367,7 @@
         <v>3852</v>
       </c>
       <c r="B3855" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E3855" t="s">
         <v>4531</v>
@@ -101390,7 +101390,7 @@
         <v>3853</v>
       </c>
       <c r="B3856" t="s">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="E3856" t="s">
         <v>4531</v>
@@ -101413,7 +101413,7 @@
         <v>3854</v>
       </c>
       <c r="B3857" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E3857" t="s">
         <v>4414</v>
@@ -101436,7 +101436,7 @@
         <v>3855</v>
       </c>
       <c r="B3858" t="s">
-        <v>890</v>
+        <v>921</v>
       </c>
       <c r="E3858" t="s">
         <v>4414</v>
@@ -101459,7 +101459,7 @@
         <v>3856</v>
       </c>
       <c r="B3859" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="E3859" t="s">
         <v>4530</v>
@@ -101482,7 +101482,7 @@
         <v>3857</v>
       </c>
       <c r="B3860" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="E3860" t="s">
         <v>4425</v>
@@ -101505,7 +101505,7 @@
         <v>3858</v>
       </c>
       <c r="B3861" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="E3861" t="s">
         <v>4515</v>
@@ -101528,7 +101528,7 @@
         <v>3859</v>
       </c>
       <c r="B3862" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="E3862" t="s">
         <v>3518</v>
@@ -101551,7 +101551,7 @@
         <v>3860</v>
       </c>
       <c r="B3863" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="E3863" t="s">
         <v>4433</v>
@@ -101574,7 +101574,7 @@
         <v>3861</v>
       </c>
       <c r="B3864" t="s">
-        <v>891</v>
+        <v>922</v>
       </c>
       <c r="E3864" t="s">
         <v>4414</v>
@@ -101597,7 +101597,7 @@
         <v>3862</v>
       </c>
       <c r="B3865" t="s">
-        <v>922</v>
+        <v>2491</v>
       </c>
       <c r="E3865" t="s">
         <v>4530</v>
@@ -101620,7 +101620,7 @@
         <v>3863</v>
       </c>
       <c r="B3866" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="E3866" t="s">
         <v>4530</v>
@@ -101643,7 +101643,7 @@
         <v>3864</v>
       </c>
       <c r="B3867" t="s">
-        <v>2492</v>
+        <v>2888</v>
       </c>
       <c r="E3867" t="s">
         <v>4758</v>
@@ -101666,7 +101666,7 @@
         <v>3865</v>
       </c>
       <c r="B3868" t="s">
-        <v>2888</v>
+        <v>2893</v>
       </c>
       <c r="E3868" t="s">
         <v>4414</v>
@@ -101689,7 +101689,7 @@
         <v>3866</v>
       </c>
       <c r="B3869" t="s">
-        <v>2893</v>
+        <v>4842</v>
       </c>
       <c r="E3869" t="s">
         <v>4433</v>
@@ -101712,7 +101712,7 @@
         <v>3867</v>
       </c>
       <c r="B3870" t="s">
-        <v>4842</v>
+        <v>3787</v>
       </c>
       <c r="E3870" t="s">
         <v>4515</v>
@@ -101732,7 +101732,7 @@
         <v>3868</v>
       </c>
       <c r="B3871" t="s">
-        <v>3787</v>
+        <v>3789</v>
       </c>
       <c r="E3871" t="s">
         <v>3788</v>
@@ -101752,7 +101752,7 @@
         <v>3869</v>
       </c>
       <c r="B3872" t="s">
-        <v>3789</v>
+        <v>913</v>
       </c>
       <c r="E3872" t="s">
         <v>3365</v>
@@ -101772,7 +101772,7 @@
         <v>3870</v>
       </c>
       <c r="B3873" t="s">
-        <v>913</v>
+        <v>482</v>
       </c>
       <c r="E3873" t="s">
         <v>3365</v>
@@ -101795,7 +101795,7 @@
         <v>3871</v>
       </c>
       <c r="B3874" t="s">
-        <v>482</v>
+        <v>2630</v>
       </c>
       <c r="E3874" t="s">
         <v>4388</v>
@@ -101818,7 +101818,7 @@
         <v>3872</v>
       </c>
       <c r="B3875" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="E3875" t="s">
         <v>4454</v>
@@ -101841,7 +101841,7 @@
         <v>3873</v>
       </c>
       <c r="B3876" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="E3876" t="s">
         <v>4454</v>
@@ -101864,7 +101864,7 @@
         <v>3874</v>
       </c>
       <c r="B3877" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="E3877" t="s">
         <v>3276</v>
@@ -101887,7 +101887,7 @@
         <v>3875</v>
       </c>
       <c r="B3878" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="E3878" t="s">
         <v>3365</v>
@@ -101910,7 +101910,7 @@
         <v>3876</v>
       </c>
       <c r="B3879" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="E3879" t="s">
         <v>3282</v>
@@ -101933,7 +101933,7 @@
         <v>3877</v>
       </c>
       <c r="B3880" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="E3880" t="s">
         <v>4388</v>
@@ -101956,7 +101956,7 @@
         <v>3878</v>
       </c>
       <c r="B3881" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="E3881" t="s">
         <v>4773</v>
@@ -101979,7 +101979,7 @@
         <v>3879</v>
       </c>
       <c r="B3882" t="s">
-        <v>2637</v>
+        <v>3364</v>
       </c>
       <c r="E3882" t="s">
         <v>4375</v>
@@ -102002,7 +102002,7 @@
         <v>3880</v>
       </c>
       <c r="B3883" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="E3883" t="s">
         <v>3365</v>
@@ -102022,7 +102022,7 @@
         <v>3881</v>
       </c>
       <c r="B3884" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="E3884" t="s">
         <v>3367</v>
@@ -102042,7 +102042,7 @@
         <v>3882</v>
       </c>
       <c r="B3885" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="E3885" t="s">
         <v>3369</v>
@@ -102062,7 +102062,7 @@
         <v>3883</v>
       </c>
       <c r="B3886" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E3886" t="s">
         <v>3337</v>
@@ -102082,7 +102082,7 @@
         <v>3884</v>
       </c>
       <c r="B3887" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="E3887" t="s">
         <v>3372</v>
@@ -102102,7 +102102,7 @@
         <v>3885</v>
       </c>
       <c r="B3888" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="E3888" t="s">
         <v>3374</v>
@@ -102122,7 +102122,7 @@
         <v>3886</v>
       </c>
       <c r="B3889" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="E3889" t="s">
         <v>3376</v>
@@ -102142,7 +102142,7 @@
         <v>3887</v>
       </c>
       <c r="B3890" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="E3890" t="s">
         <v>3378</v>
@@ -102162,7 +102162,7 @@
         <v>3888</v>
       </c>
       <c r="B3891" t="s">
-        <v>3379</v>
+        <v>3421</v>
       </c>
       <c r="E3891" t="s">
         <v>3380</v>
@@ -102182,7 +102182,7 @@
         <v>3889</v>
       </c>
       <c r="B3892" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="E3892" t="s">
         <v>3422</v>
@@ -102202,7 +102202,7 @@
         <v>3890</v>
       </c>
       <c r="B3893" t="s">
-        <v>3423</v>
+        <v>3806</v>
       </c>
       <c r="E3893" t="s">
         <v>3424</v>
@@ -102222,7 +102222,7 @@
         <v>3891</v>
       </c>
       <c r="B3894" t="s">
-        <v>3806</v>
+        <v>3939</v>
       </c>
       <c r="E3894" t="s">
         <v>3365</v>
@@ -102242,7 +102242,7 @@
         <v>3892</v>
       </c>
       <c r="B3895" t="s">
-        <v>3939</v>
+        <v>4248</v>
       </c>
       <c r="E3895" t="s">
         <v>3337</v>
@@ -102262,7 +102262,7 @@
         <v>3893</v>
       </c>
       <c r="B3896" t="s">
-        <v>4248</v>
+        <v>4254</v>
       </c>
       <c r="E3896" t="s">
         <v>2970</v>
@@ -102282,7 +102282,7 @@
         <v>3894</v>
       </c>
       <c r="B3897" t="s">
-        <v>4254</v>
+        <v>4290</v>
       </c>
       <c r="E3897" t="s">
         <v>4255</v>
@@ -102302,7 +102302,7 @@
         <v>3895</v>
       </c>
       <c r="B3898" t="s">
-        <v>4290</v>
+        <v>5009</v>
       </c>
       <c r="E3898" t="s">
         <v>3355</v>
@@ -102322,7 +102322,7 @@
         <v>3896</v>
       </c>
       <c r="B3899" t="s">
-        <v>5009</v>
+        <v>5088</v>
       </c>
       <c r="E3899" t="s">
         <v>4671</v>
@@ -102342,7 +102342,7 @@
         <v>3897</v>
       </c>
       <c r="B3900" t="s">
-        <v>5088</v>
+        <v>5089</v>
       </c>
       <c r="E3900" t="s">
         <v>5010</v>
@@ -102362,7 +102362,7 @@
         <v>3898</v>
       </c>
       <c r="B3901" t="s">
-        <v>5089</v>
+        <v>5090</v>
       </c>
       <c r="E3901" t="s">
         <v>3148</v>
@@ -102382,7 +102382,7 @@
         <v>3899</v>
       </c>
       <c r="B3902" t="s">
-        <v>5090</v>
+        <v>5091</v>
       </c>
       <c r="E3902" t="s">
         <v>3234</v>
@@ -102402,7 +102402,7 @@
         <v>3900</v>
       </c>
       <c r="B3903" t="s">
-        <v>5091</v>
+        <v>5092</v>
       </c>
       <c r="E3903" t="s">
         <v>3928</v>
@@ -102422,7 +102422,7 @@
         <v>3901</v>
       </c>
       <c r="B3904" t="s">
-        <v>5092</v>
+        <v>5093</v>
       </c>
       <c r="E3904" t="s">
         <v>3396</v>
@@ -102442,7 +102442,7 @@
         <v>3902</v>
       </c>
       <c r="B3905" t="s">
-        <v>5093</v>
+        <v>5094</v>
       </c>
       <c r="E3905" t="s">
         <v>3234</v>
@@ -102462,7 +102462,7 @@
         <v>3903</v>
       </c>
       <c r="B3906" t="s">
-        <v>5094</v>
+        <v>5095</v>
       </c>
       <c r="E3906" t="s">
         <v>5011</v>
@@ -102482,7 +102482,7 @@
         <v>3904</v>
       </c>
       <c r="B3907" t="s">
-        <v>5095</v>
+        <v>5096</v>
       </c>
       <c r="E3907" t="s">
         <v>3396</v>
@@ -102502,7 +102502,7 @@
         <v>3905</v>
       </c>
       <c r="B3908" t="s">
-        <v>5096</v>
+        <v>5097</v>
       </c>
       <c r="E3908" t="s">
         <v>3396</v>
@@ -102522,7 +102522,7 @@
         <v>3906</v>
       </c>
       <c r="B3909" t="s">
-        <v>5097</v>
+        <v>5098</v>
       </c>
       <c r="E3909" t="s">
         <v>3928</v>
@@ -102542,7 +102542,7 @@
         <v>3907</v>
       </c>
       <c r="B3910" t="s">
-        <v>5098</v>
+        <v>5099</v>
       </c>
       <c r="E3910" t="s">
         <v>3346</v>
@@ -102562,7 +102562,7 @@
         <v>3908</v>
       </c>
       <c r="B3911" t="s">
-        <v>5099</v>
+        <v>5100</v>
       </c>
       <c r="E3911" t="s">
         <v>3346</v>
@@ -102582,7 +102582,7 @@
         <v>3909</v>
       </c>
       <c r="B3912" t="s">
-        <v>5100</v>
+        <v>5101</v>
       </c>
       <c r="E3912" t="s">
         <v>3396</v>
@@ -102602,7 +102602,7 @@
         <v>3910</v>
       </c>
       <c r="B3913" t="s">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="E3913" t="s">
         <v>3396</v>
@@ -102622,7 +102622,7 @@
         <v>3911</v>
       </c>
       <c r="B3914" t="s">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="E3914" t="s">
         <v>3396</v>
@@ -102640,9 +102640,6 @@
     <row r="3915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3915">
         <v>3912</v>
-      </c>
-      <c r="B3915" t="s">
-        <v>5103</v>
       </c>
       <c r="E3915" t="s">
         <v>3396</v>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="4894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7912" uniqueCount="4905">
   <si>
     <t>#</t>
   </si>
@@ -14701,6 +14701,39 @@
   </si>
   <si>
     <t>3 en 1</t>
+  </si>
+  <si>
+    <t>SW001</t>
+  </si>
+  <si>
+    <t>SW002</t>
+  </si>
+  <si>
+    <t>SW003</t>
+  </si>
+  <si>
+    <t>SW005</t>
+  </si>
+  <si>
+    <t>SW006</t>
+  </si>
+  <si>
+    <t>SW007</t>
+  </si>
+  <si>
+    <t>SW008</t>
+  </si>
+  <si>
+    <t>SW009</t>
+  </si>
+  <si>
+    <t>SW010</t>
+  </si>
+  <si>
+    <t>SW011</t>
+  </si>
+  <si>
+    <t>SW012</t>
   </si>
 </sst>
 </file>
@@ -15041,7 +15074,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A3:L3942"/>
+  <dimension ref="A3:L3953"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3902" workbookViewId="0">
       <selection activeCell="B3936" sqref="B3936"/>
@@ -52203,670 +52236,670 @@
     </row>
     <row r="3378" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3378" t="s">
-        <v>4852</v>
+        <v>4894</v>
       </c>
       <c r="E3378" t="s">
-        <v>4853</v>
+        <v>4213</v>
       </c>
       <c r="K3378">
-        <v>18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3379" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3379" t="s">
-        <v>4854</v>
+        <v>4895</v>
       </c>
       <c r="E3379" t="s">
-        <v>4855</v>
+        <v>4213</v>
       </c>
       <c r="K3379">
-        <v>22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3380" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3380" t="s">
-        <v>4856</v>
+        <v>4896</v>
       </c>
       <c r="E3380" t="s">
-        <v>4857</v>
+        <v>4213</v>
       </c>
       <c r="K3380">
-        <v>40</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3381" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3381" t="s">
-        <v>4858</v>
+        <v>4897</v>
       </c>
       <c r="E3381" t="s">
-        <v>4859</v>
+        <v>4213</v>
       </c>
       <c r="K3381">
-        <v>50</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3382" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3382" t="s">
-        <v>4860</v>
+        <v>4898</v>
       </c>
       <c r="E3382" t="s">
-        <v>3379</v>
+        <v>4213</v>
       </c>
       <c r="K3382">
-        <v>65</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3383" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3383" t="s">
-        <v>4861</v>
+        <v>4899</v>
       </c>
       <c r="E3383" t="s">
-        <v>4862</v>
+        <v>4213</v>
       </c>
       <c r="K3383">
-        <v>55</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3384" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3384" t="s">
-        <v>4863</v>
+        <v>4900</v>
       </c>
       <c r="E3384" t="s">
-        <v>4864</v>
+        <v>4252</v>
       </c>
       <c r="K3384">
-        <v>150</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3385" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3385" t="s">
-        <v>4865</v>
+        <v>4901</v>
       </c>
       <c r="E3385" t="s">
-        <v>170</v>
+        <v>4252</v>
       </c>
       <c r="K3385">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3386" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3386" t="s">
-        <v>4866</v>
+        <v>4902</v>
       </c>
       <c r="E3386" t="s">
-        <v>1177</v>
+        <v>4252</v>
       </c>
       <c r="K3386">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3387" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3387" t="s">
-        <v>4867</v>
+        <v>4903</v>
       </c>
       <c r="E3387" t="s">
-        <v>1177</v>
+        <v>4252</v>
       </c>
       <c r="K3387">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3388" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3388" t="s">
-        <v>3635</v>
+        <v>4904</v>
       </c>
       <c r="E3388" t="s">
-        <v>1596</v>
+        <v>1181</v>
       </c>
       <c r="K3388">
-        <v>4.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3389" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3389" t="s">
-        <v>4868</v>
+        <v>4852</v>
       </c>
       <c r="E3389" t="s">
-        <v>4869</v>
+        <v>4853</v>
       </c>
       <c r="K3389">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3390" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3390" t="s">
-        <v>4870</v>
+        <v>4854</v>
       </c>
       <c r="E3390" t="s">
-        <v>1645</v>
+        <v>4855</v>
       </c>
       <c r="K3390">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3391" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3391" t="s">
-        <v>3636</v>
+        <v>4856</v>
       </c>
       <c r="E3391" t="s">
-        <v>3306</v>
+        <v>4857</v>
       </c>
       <c r="K3391">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3392" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3392" t="s">
-        <v>3637</v>
+        <v>4858</v>
       </c>
       <c r="E3392" t="s">
-        <v>3482</v>
+        <v>4859</v>
       </c>
       <c r="K3392">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3393" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3393" t="s">
-        <v>3638</v>
+        <v>4860</v>
       </c>
       <c r="E3393" t="s">
-        <v>3482</v>
+        <v>3379</v>
       </c>
       <c r="K3393">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3394" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3394" t="s">
-        <v>3639</v>
+        <v>4861</v>
       </c>
       <c r="E3394" t="s">
-        <v>1152</v>
+        <v>4862</v>
       </c>
       <c r="K3394">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3395" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3395" t="s">
-        <v>3640</v>
+        <v>4863</v>
       </c>
       <c r="E3395" t="s">
-        <v>3482</v>
+        <v>4864</v>
       </c>
       <c r="K3395">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3396" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3396" t="s">
-        <v>3641</v>
+        <v>4865</v>
       </c>
       <c r="E3396" t="s">
-        <v>3642</v>
+        <v>170</v>
       </c>
       <c r="K3396">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3397" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3397" t="s">
-        <v>3643</v>
+        <v>4866</v>
       </c>
       <c r="E3397" t="s">
-        <v>1077</v>
+        <v>1177</v>
       </c>
       <c r="K3397">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3398" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3398" t="s">
-        <v>3644</v>
+        <v>4867</v>
       </c>
       <c r="E3398" t="s">
-        <v>639</v>
+        <v>1177</v>
       </c>
       <c r="K3398">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3399" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3399" t="s">
-        <v>3645</v>
+        <v>3635</v>
       </c>
       <c r="E3399" t="s">
-        <v>2275</v>
+        <v>1596</v>
       </c>
       <c r="K3399">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3400" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3400" t="s">
-        <v>3646</v>
+        <v>4868</v>
       </c>
       <c r="E3400" t="s">
-        <v>620</v>
+        <v>4869</v>
       </c>
       <c r="K3400">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3401" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3401" t="s">
-        <v>3647</v>
+        <v>4870</v>
       </c>
       <c r="E3401" t="s">
-        <v>90</v>
+        <v>1645</v>
       </c>
       <c r="K3401">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3402" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3402" t="s">
-        <v>3648</v>
+        <v>3636</v>
       </c>
       <c r="E3402" t="s">
-        <v>3649</v>
+        <v>3306</v>
       </c>
       <c r="K3402">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3403" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3403" t="s">
-        <v>3650</v>
+        <v>3637</v>
       </c>
       <c r="E3403" t="s">
-        <v>3651</v>
+        <v>3482</v>
       </c>
       <c r="K3403">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3404" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3404" t="s">
-        <v>3652</v>
+        <v>3638</v>
       </c>
       <c r="E3404" t="s">
-        <v>3651</v>
+        <v>3482</v>
       </c>
       <c r="K3404">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3405" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3405" t="s">
-        <v>3653</v>
+        <v>3639</v>
       </c>
       <c r="E3405" t="s">
-        <v>1075</v>
+        <v>1152</v>
       </c>
       <c r="K3405">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3406" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3406" t="s">
-        <v>3654</v>
+        <v>3640</v>
       </c>
       <c r="E3406" t="s">
-        <v>275</v>
+        <v>3482</v>
       </c>
       <c r="K3406">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3407" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3407" t="s">
-        <v>3655</v>
+        <v>3641</v>
       </c>
       <c r="E3407" t="s">
-        <v>275</v>
+        <v>3642</v>
       </c>
       <c r="K3407">
-        <v>20</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3408" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3408" t="s">
-        <v>3656</v>
+        <v>3643</v>
       </c>
       <c r="E3408" t="s">
-        <v>275</v>
+        <v>1077</v>
       </c>
       <c r="K3408">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3409" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3409" t="s">
-        <v>3657</v>
+        <v>3644</v>
       </c>
       <c r="E3409" t="s">
-        <v>2371</v>
+        <v>639</v>
       </c>
       <c r="K3409">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3410" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3410" t="s">
-        <v>3658</v>
+        <v>3645</v>
       </c>
       <c r="E3410" t="s">
-        <v>3049</v>
+        <v>2275</v>
       </c>
       <c r="K3410">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3411" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3411" t="s">
-        <v>3659</v>
+        <v>3646</v>
       </c>
       <c r="E3411" t="s">
-        <v>3275</v>
+        <v>620</v>
       </c>
       <c r="K3411">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3412" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3412" t="s">
-        <v>3660</v>
+        <v>3647</v>
       </c>
       <c r="E3412" t="s">
-        <v>3557</v>
+        <v>90</v>
       </c>
       <c r="K3412">
-        <v>2.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3413" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3413" t="s">
-        <v>3661</v>
+        <v>3648</v>
       </c>
       <c r="E3413" t="s">
-        <v>3662</v>
+        <v>3649</v>
       </c>
       <c r="K3413">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3414" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3414" t="s">
-        <v>3663</v>
+        <v>3650</v>
       </c>
       <c r="E3414" t="s">
-        <v>456</v>
+        <v>3651</v>
       </c>
       <c r="K3414">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3415" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3415" t="s">
-        <v>3664</v>
+        <v>3652</v>
       </c>
       <c r="E3415" t="s">
-        <v>3665</v>
+        <v>3651</v>
       </c>
       <c r="K3415">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3416" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3416" t="s">
-        <v>3666</v>
+        <v>3653</v>
       </c>
       <c r="E3416" t="s">
-        <v>1167</v>
+        <v>1075</v>
       </c>
       <c r="K3416">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3417" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3417" t="s">
-        <v>3667</v>
+        <v>3654</v>
       </c>
       <c r="E3417" t="s">
-        <v>3480</v>
+        <v>275</v>
       </c>
       <c r="K3417">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3418" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3418" t="s">
-        <v>3668</v>
+        <v>3655</v>
       </c>
       <c r="E3418" t="s">
-        <v>3480</v>
+        <v>275</v>
       </c>
       <c r="K3418">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3419" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3419" t="s">
-        <v>3669</v>
+        <v>3656</v>
       </c>
       <c r="E3419" t="s">
-        <v>3480</v>
+        <v>275</v>
       </c>
       <c r="K3419">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3420" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3420" t="s">
-        <v>3670</v>
+        <v>3657</v>
       </c>
       <c r="E3420" t="s">
-        <v>1170</v>
+        <v>2371</v>
       </c>
       <c r="K3420">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3421" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3421" t="s">
-        <v>3671</v>
+        <v>3658</v>
       </c>
       <c r="E3421" t="s">
-        <v>1934</v>
+        <v>3049</v>
       </c>
       <c r="K3421">
-        <v>180</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3422" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3422" t="s">
-        <v>3672</v>
+        <v>3659</v>
       </c>
       <c r="E3422" t="s">
-        <v>1174</v>
+        <v>3275</v>
       </c>
       <c r="K3422">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3423" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3423" t="s">
-        <v>3673</v>
+        <v>3660</v>
       </c>
       <c r="E3423" t="s">
-        <v>1193</v>
+        <v>3557</v>
       </c>
       <c r="K3423">
-        <v>12</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3424" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3424" t="s">
-        <v>3674</v>
+        <v>3661</v>
       </c>
       <c r="E3424" t="s">
-        <v>3675</v>
+        <v>3662</v>
       </c>
       <c r="K3424">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3425" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3425" t="s">
-        <v>3676</v>
+        <v>3663</v>
       </c>
       <c r="E3425" t="s">
-        <v>3675</v>
+        <v>456</v>
       </c>
       <c r="K3425">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3426" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3426" t="s">
-        <v>3677</v>
+        <v>3664</v>
       </c>
       <c r="E3426" t="s">
-        <v>1167</v>
+        <v>3665</v>
       </c>
       <c r="K3426">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3427" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3427" t="s">
-        <v>3678</v>
+        <v>3666</v>
       </c>
       <c r="E3427" t="s">
-        <v>3679</v>
+        <v>1167</v>
       </c>
       <c r="K3427">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3428" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3428" t="s">
-        <v>3680</v>
+        <v>3667</v>
       </c>
       <c r="E3428" t="s">
-        <v>3679</v>
+        <v>3480</v>
       </c>
       <c r="K3428">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3429" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3429" t="s">
-        <v>3681</v>
+        <v>3668</v>
       </c>
       <c r="E3429" t="s">
-        <v>3679</v>
+        <v>3480</v>
       </c>
       <c r="K3429">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3430" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3430" t="s">
-        <v>3682</v>
+        <v>3669</v>
       </c>
       <c r="E3430" t="s">
-        <v>3679</v>
+        <v>3480</v>
       </c>
       <c r="K3430">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3431" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3431" t="s">
-        <v>3683</v>
+        <v>3670</v>
       </c>
       <c r="E3431" t="s">
-        <v>3679</v>
+        <v>1170</v>
       </c>
       <c r="K3431">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3432" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3432" t="s">
-        <v>3684</v>
+        <v>3671</v>
       </c>
       <c r="E3432" t="s">
-        <v>452</v>
+        <v>1934</v>
       </c>
       <c r="K3432">
-        <v>2</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3433" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3433" t="s">
-        <v>3685</v>
+        <v>3672</v>
       </c>
       <c r="E3433" t="s">
-        <v>3686</v>
+        <v>1174</v>
       </c>
       <c r="K3433">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3434" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3434" t="s">
-        <v>3687</v>
+        <v>3673</v>
       </c>
       <c r="E3434" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="K3434">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3435" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3435" t="s">
-        <v>3688</v>
+        <v>3674</v>
       </c>
       <c r="E3435" t="s">
-        <v>850</v>
+        <v>3675</v>
       </c>
       <c r="K3435">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3436" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3436" t="s">
-        <v>3689</v>
+        <v>3676</v>
       </c>
       <c r="E3436" t="s">
-        <v>2265</v>
+        <v>3675</v>
       </c>
       <c r="K3436">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3437" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3437" t="s">
-        <v>3690</v>
+        <v>3677</v>
       </c>
       <c r="E3437" t="s">
-        <v>1934</v>
+        <v>1167</v>
       </c>
       <c r="K3437">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3438" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3438" t="s">
-        <v>3691</v>
+        <v>3678</v>
       </c>
       <c r="E3438" t="s">
-        <v>1934</v>
+        <v>3679</v>
       </c>
       <c r="K3438">
         <v>5</v>
@@ -52874,208 +52907,208 @@
     </row>
     <row r="3439" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3439" t="s">
-        <v>3692</v>
+        <v>3680</v>
       </c>
       <c r="E3439" t="s">
-        <v>2090</v>
+        <v>3679</v>
       </c>
       <c r="K3439">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3440" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3440" t="s">
-        <v>3693</v>
+        <v>3681</v>
       </c>
       <c r="E3440" t="s">
-        <v>2402</v>
+        <v>3679</v>
       </c>
       <c r="K3440">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3441" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3441" t="s">
-        <v>3694</v>
+        <v>3682</v>
       </c>
       <c r="E3441" t="s">
-        <v>990</v>
+        <v>3679</v>
       </c>
       <c r="K3441">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3442" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3442" t="s">
-        <v>3695</v>
+        <v>3683</v>
       </c>
       <c r="E3442" t="s">
-        <v>2375</v>
+        <v>3679</v>
       </c>
       <c r="K3442">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3443" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3443" t="s">
-        <v>3696</v>
+        <v>3684</v>
       </c>
       <c r="E3443" t="s">
-        <v>3697</v>
+        <v>452</v>
       </c>
       <c r="K3443">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3444" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3444" t="s">
-        <v>3698</v>
+        <v>3685</v>
       </c>
       <c r="E3444" t="s">
-        <v>24</v>
+        <v>3686</v>
       </c>
       <c r="K3444">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3445" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3445" t="s">
-        <v>3699</v>
+        <v>3687</v>
       </c>
       <c r="E3445" t="s">
-        <v>3700</v>
+        <v>1218</v>
       </c>
       <c r="K3445">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3446" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3446" t="s">
-        <v>3701</v>
+        <v>3688</v>
       </c>
       <c r="E3446" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="K3446">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3447" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3447" t="s">
-        <v>3702</v>
+        <v>3689</v>
       </c>
       <c r="E3447" t="s">
-        <v>2371</v>
+        <v>2265</v>
       </c>
       <c r="K3447">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3448" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3448" t="s">
-        <v>3703</v>
+        <v>3690</v>
       </c>
       <c r="E3448" t="s">
-        <v>2371</v>
+        <v>1934</v>
       </c>
       <c r="K3448">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3449" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3449" t="s">
-        <v>3704</v>
+        <v>3691</v>
       </c>
       <c r="E3449" t="s">
-        <v>2205</v>
+        <v>1934</v>
       </c>
       <c r="K3449">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3450" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3450" t="s">
-        <v>3705</v>
+        <v>3692</v>
       </c>
       <c r="E3450" t="s">
-        <v>3706</v>
+        <v>2090</v>
       </c>
       <c r="K3450">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3451" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3451" t="s">
-        <v>3707</v>
+        <v>3693</v>
       </c>
       <c r="E3451" t="s">
-        <v>667</v>
+        <v>2402</v>
       </c>
       <c r="K3451">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3452" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3452" t="s">
-        <v>3711</v>
+        <v>3694</v>
       </c>
       <c r="E3452" t="s">
-        <v>3712</v>
+        <v>990</v>
       </c>
       <c r="K3452">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3453" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3453" t="s">
-        <v>3714</v>
+        <v>3695</v>
       </c>
       <c r="E3453" t="s">
-        <v>1934</v>
+        <v>2375</v>
       </c>
       <c r="K3453">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3454" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3454" t="s">
-        <v>3713</v>
+        <v>3696</v>
       </c>
       <c r="E3454" t="s">
-        <v>1934</v>
+        <v>3697</v>
       </c>
       <c r="K3454">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3455" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3455" t="s">
-        <v>3715</v>
+        <v>3698</v>
       </c>
       <c r="E3455" t="s">
-        <v>707</v>
+        <v>24</v>
       </c>
       <c r="K3455">
-        <v>3.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3456" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3456" t="s">
-        <v>3716</v>
+        <v>3699</v>
       </c>
       <c r="E3456" t="s">
-        <v>707</v>
+        <v>3700</v>
       </c>
       <c r="K3456">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3457" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3457" t="s">
-        <v>3717</v>
+        <v>3701</v>
       </c>
       <c r="E3457" t="s">
-        <v>3480</v>
+        <v>865</v>
       </c>
       <c r="K3457">
         <v>8</v>
@@ -53083,197 +53116,197 @@
     </row>
     <row r="3458" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3458" t="s">
-        <v>3718</v>
+        <v>3702</v>
       </c>
       <c r="E3458" t="s">
-        <v>3719</v>
+        <v>2371</v>
       </c>
       <c r="K3458">
-        <v>2.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3459" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3459" t="s">
-        <v>3720</v>
+        <v>3703</v>
       </c>
       <c r="E3459" t="s">
-        <v>80</v>
+        <v>2371</v>
       </c>
       <c r="K3459">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3460" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3460" t="s">
-        <v>3721</v>
+        <v>3704</v>
       </c>
       <c r="E3460" t="s">
-        <v>1596</v>
+        <v>2205</v>
       </c>
       <c r="K3460">
-        <v>18</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3461" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3461" t="s">
-        <v>3722</v>
+        <v>3705</v>
       </c>
       <c r="E3461" t="s">
-        <v>3723</v>
+        <v>3706</v>
       </c>
       <c r="K3461">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3462" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3462" t="s">
-        <v>3724</v>
+        <v>3707</v>
       </c>
       <c r="E3462" t="s">
-        <v>3725</v>
+        <v>667</v>
       </c>
       <c r="K3462">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3463" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3463" t="s">
-        <v>3726</v>
+        <v>3711</v>
       </c>
       <c r="E3463" t="s">
-        <v>3206</v>
+        <v>3712</v>
       </c>
       <c r="K3463">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3464" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3464" t="s">
-        <v>3727</v>
+        <v>3714</v>
       </c>
       <c r="E3464" t="s">
-        <v>3728</v>
+        <v>1934</v>
       </c>
       <c r="K3464">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3465" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3465" t="s">
-        <v>3729</v>
+        <v>3713</v>
       </c>
       <c r="E3465" t="s">
-        <v>3730</v>
+        <v>1934</v>
       </c>
       <c r="K3465">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3466" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3466" t="s">
-        <v>3731</v>
+        <v>3715</v>
       </c>
       <c r="E3466" t="s">
-        <v>232</v>
+        <v>707</v>
       </c>
       <c r="K3466">
-        <v>10</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3467" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3467" t="s">
-        <v>3732</v>
+        <v>3716</v>
       </c>
       <c r="E3467" t="s">
-        <v>3733</v>
+        <v>707</v>
       </c>
       <c r="K3467">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3468" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3468" t="s">
-        <v>3734</v>
+        <v>3717</v>
       </c>
       <c r="E3468" t="s">
-        <v>346</v>
+        <v>3480</v>
       </c>
       <c r="K3468">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3469" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3469" t="s">
-        <v>3735</v>
+        <v>3718</v>
       </c>
       <c r="E3469" t="s">
-        <v>346</v>
+        <v>3719</v>
       </c>
       <c r="K3469">
-        <v>47</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3470" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3470" t="s">
-        <v>3736</v>
+        <v>3720</v>
       </c>
       <c r="E3470" t="s">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="K3470">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3471" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3471" t="s">
-        <v>3737</v>
+        <v>3721</v>
       </c>
       <c r="E3471" t="s">
-        <v>802</v>
+        <v>1596</v>
       </c>
       <c r="K3471">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3472" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3472" t="s">
-        <v>3738</v>
+        <v>3722</v>
       </c>
       <c r="E3472" t="s">
-        <v>541</v>
+        <v>3723</v>
       </c>
       <c r="K3472">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3473" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3473" t="s">
-        <v>3739</v>
+        <v>3724</v>
       </c>
       <c r="E3473" t="s">
-        <v>3740</v>
+        <v>3725</v>
       </c>
       <c r="K3473">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3474" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3474" t="s">
-        <v>3741</v>
+        <v>3726</v>
       </c>
       <c r="E3474" t="s">
-        <v>3742</v>
+        <v>3206</v>
       </c>
       <c r="K3474">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3475" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3475" t="s">
-        <v>3743</v>
+        <v>3727</v>
       </c>
       <c r="E3475" t="s">
-        <v>3742</v>
+        <v>3728</v>
       </c>
       <c r="K3475">
         <v>3</v>
@@ -53281,593 +53314,593 @@
     </row>
     <row r="3476" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3476" t="s">
-        <v>3744</v>
+        <v>3729</v>
       </c>
       <c r="E3476" t="s">
-        <v>2105</v>
+        <v>3730</v>
       </c>
       <c r="K3476">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3477" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3477" t="s">
-        <v>3745</v>
+        <v>3731</v>
       </c>
       <c r="E3477" t="s">
-        <v>521</v>
+        <v>232</v>
       </c>
       <c r="K3477">
-        <v>4.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3478" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3478" t="s">
-        <v>3746</v>
+        <v>3732</v>
       </c>
       <c r="E3478" t="s">
-        <v>521</v>
+        <v>3733</v>
       </c>
       <c r="K3478">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3479" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3479" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="E3479" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="K3479">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3480" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3480" t="s">
-        <v>3748</v>
+        <v>3735</v>
       </c>
       <c r="E3480" t="s">
-        <v>2447</v>
+        <v>346</v>
       </c>
       <c r="K3480">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3481" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3481" t="s">
-        <v>3749</v>
+        <v>3736</v>
       </c>
       <c r="E3481" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="K3481">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3482" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3482" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="E3482" t="s">
-        <v>3164</v>
+        <v>802</v>
       </c>
       <c r="K3482">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3483" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3483" t="s">
-        <v>3761</v>
+        <v>3738</v>
       </c>
       <c r="E3483" t="s">
-        <v>2568</v>
+        <v>541</v>
       </c>
       <c r="K3483">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3484" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3484" t="s">
-        <v>3799</v>
+        <v>3739</v>
       </c>
       <c r="E3484" t="s">
-        <v>3117</v>
+        <v>3740</v>
       </c>
       <c r="K3484">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3485" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3485" t="s">
-        <v>3800</v>
+        <v>3741</v>
       </c>
       <c r="E3485" t="s">
-        <v>3117</v>
+        <v>3742</v>
       </c>
       <c r="K3485">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3486" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3486" t="s">
-        <v>3801</v>
+        <v>3743</v>
       </c>
       <c r="E3486" t="s">
-        <v>3802</v>
+        <v>3742</v>
       </c>
       <c r="K3486">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3487" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3487" t="s">
-        <v>3803</v>
+        <v>3744</v>
       </c>
       <c r="E3487" t="s">
-        <v>3804</v>
+        <v>2105</v>
       </c>
       <c r="K3487">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3488" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3488" t="s">
-        <v>3807</v>
+        <v>3745</v>
       </c>
       <c r="E3488" t="s">
-        <v>2120</v>
+        <v>521</v>
       </c>
       <c r="K3488">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3489" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3489" t="s">
-        <v>3813</v>
+        <v>3746</v>
       </c>
       <c r="E3489" t="s">
-        <v>2114</v>
+        <v>521</v>
       </c>
       <c r="K3489">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3490" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3490" t="s">
-        <v>3823</v>
+        <v>3747</v>
       </c>
       <c r="E3490" t="s">
-        <v>410</v>
+        <v>177</v>
       </c>
       <c r="K3490">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3491" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3491" t="s">
-        <v>3852</v>
+        <v>3748</v>
       </c>
       <c r="E3491" t="s">
-        <v>3651</v>
+        <v>2447</v>
       </c>
       <c r="K3491">
-        <v>4.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3492" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3492" t="s">
-        <v>3853</v>
+        <v>3749</v>
       </c>
       <c r="E3492" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K3492">
-        <v>3.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3493" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3493" t="s">
-        <v>3854</v>
+        <v>3750</v>
       </c>
       <c r="E3493" t="s">
-        <v>1362</v>
+        <v>3164</v>
       </c>
       <c r="K3493">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3494" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3494" t="s">
-        <v>3855</v>
+        <v>3761</v>
       </c>
       <c r="E3494" t="s">
-        <v>346</v>
+        <v>2568</v>
       </c>
       <c r="K3494">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3495" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3495" t="s">
-        <v>3957</v>
+        <v>3799</v>
       </c>
       <c r="E3495" t="s">
-        <v>1177</v>
+        <v>3117</v>
       </c>
       <c r="K3495">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3496" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3496" t="s">
-        <v>3970</v>
+        <v>3800</v>
       </c>
       <c r="E3496" t="s">
-        <v>3971</v>
+        <v>3117</v>
       </c>
       <c r="K3496">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3497" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3497" t="s">
-        <v>4022</v>
+        <v>3801</v>
       </c>
       <c r="E3497" t="s">
-        <v>2105</v>
+        <v>3802</v>
       </c>
       <c r="K3497">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3498" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3498" t="s">
-        <v>4023</v>
+        <v>3803</v>
       </c>
       <c r="E3498" t="s">
-        <v>3250</v>
+        <v>3804</v>
       </c>
       <c r="K3498">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3499" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3499" t="s">
-        <v>4024</v>
+        <v>3807</v>
       </c>
       <c r="E3499" t="s">
-        <v>4025</v>
+        <v>2120</v>
       </c>
       <c r="K3499">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3500" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3500" t="s">
-        <v>4026</v>
+        <v>3813</v>
       </c>
       <c r="E3500" t="s">
-        <v>4027</v>
+        <v>2114</v>
       </c>
       <c r="K3500">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3501" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3501" t="s">
-        <v>4030</v>
+        <v>3823</v>
       </c>
       <c r="E3501" t="s">
-        <v>1362</v>
+        <v>410</v>
       </c>
       <c r="K3501">
-        <v>10</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3502" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3502" t="s">
-        <v>4033</v>
+        <v>3852</v>
       </c>
       <c r="E3502" t="s">
-        <v>4034</v>
+        <v>3651</v>
       </c>
       <c r="K3502">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3503" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3503" t="s">
-        <v>4036</v>
+        <v>3853</v>
       </c>
       <c r="E3503" t="s">
-        <v>4037</v>
+        <v>450</v>
       </c>
       <c r="K3503">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3504" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3504" t="s">
-        <v>4038</v>
+        <v>3854</v>
       </c>
       <c r="E3504" t="s">
-        <v>2424</v>
+        <v>1362</v>
       </c>
       <c r="K3504">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3505" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3505" t="s">
-        <v>4035</v>
+        <v>3855</v>
       </c>
       <c r="E3505" t="s">
-        <v>1181</v>
+        <v>346</v>
       </c>
       <c r="K3505">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3506" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3506" t="s">
-        <v>4077</v>
+        <v>3957</v>
       </c>
       <c r="E3506" t="s">
-        <v>639</v>
+        <v>1177</v>
       </c>
       <c r="K3506">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3507" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3507" t="s">
-        <v>4078</v>
+        <v>3970</v>
       </c>
       <c r="E3507" t="s">
-        <v>639</v>
+        <v>3971</v>
       </c>
       <c r="K3507">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3508" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3508" t="s">
-        <v>4871</v>
+        <v>4022</v>
       </c>
       <c r="E3508" t="s">
-        <v>2371</v>
+        <v>2105</v>
       </c>
       <c r="K3508">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3509" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3509" t="s">
-        <v>4090</v>
+        <v>4023</v>
       </c>
       <c r="E3509" t="s">
-        <v>3480</v>
+        <v>3250</v>
       </c>
       <c r="K3509">
-        <v>8.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3510" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3510" t="s">
-        <v>4116</v>
+        <v>4024</v>
       </c>
       <c r="E3510" t="s">
-        <v>1362</v>
+        <v>4025</v>
       </c>
       <c r="K3510">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3511" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3511" t="s">
-        <v>4118</v>
+        <v>4026</v>
       </c>
       <c r="E3511" t="s">
-        <v>1596</v>
+        <v>4027</v>
       </c>
       <c r="K3511">
-        <v>5.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3512" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3512" t="s">
-        <v>4151</v>
+        <v>4030</v>
       </c>
       <c r="E3512" t="s">
-        <v>2568</v>
+        <v>1362</v>
       </c>
       <c r="K3512">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3513" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3513" t="s">
-        <v>4205</v>
+        <v>4033</v>
       </c>
       <c r="E3513" t="s">
-        <v>4206</v>
+        <v>4034</v>
       </c>
       <c r="K3513">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3514" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3514" t="s">
-        <v>4207</v>
+        <v>4036</v>
       </c>
       <c r="E3514" t="s">
-        <v>4201</v>
+        <v>4037</v>
       </c>
       <c r="K3514">
-        <v>12.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3515" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3515" t="s">
-        <v>4220</v>
+        <v>4038</v>
       </c>
       <c r="E3515" t="s">
-        <v>1174</v>
+        <v>2424</v>
       </c>
       <c r="K3515">
-        <v>24.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3516" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3516" t="s">
-        <v>4255</v>
+        <v>4035</v>
       </c>
       <c r="E3516" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="K3516">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3517" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3517" t="s">
-        <v>4256</v>
+        <v>4077</v>
       </c>
       <c r="E3517" t="s">
-        <v>1174</v>
+        <v>639</v>
       </c>
       <c r="K3517">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3518" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3518" t="s">
-        <v>4257</v>
+        <v>4078</v>
       </c>
       <c r="E3518" t="s">
-        <v>3170</v>
+        <v>639</v>
       </c>
       <c r="K3518">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3519" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3519" t="s">
-        <v>4282</v>
+        <v>4871</v>
       </c>
       <c r="E3519" t="s">
-        <v>112</v>
+        <v>2371</v>
       </c>
       <c r="K3519">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3520" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3520" t="s">
-        <v>4292</v>
+        <v>4090</v>
       </c>
       <c r="E3520" t="s">
-        <v>3651</v>
+        <v>3480</v>
       </c>
       <c r="K3520">
-        <v>50</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="3521" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3521" t="s">
-        <v>4395</v>
+        <v>4116</v>
       </c>
       <c r="E3521" t="s">
-        <v>3679</v>
+        <v>1362</v>
       </c>
       <c r="K3521">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3522" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3522" t="s">
-        <v>4406</v>
+        <v>4118</v>
       </c>
       <c r="E3522" t="s">
-        <v>4201</v>
+        <v>1596</v>
       </c>
       <c r="K3522">
-        <v>15</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3523" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3523" t="s">
-        <v>4407</v>
+        <v>4151</v>
       </c>
       <c r="E3523" t="s">
-        <v>4201</v>
+        <v>2568</v>
       </c>
       <c r="K3523">
-        <v>30</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3524" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3524" t="s">
-        <v>4408</v>
+        <v>4205</v>
       </c>
       <c r="E3524" t="s">
-        <v>4201</v>
+        <v>4206</v>
       </c>
       <c r="K3524">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3525" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3525" t="s">
-        <v>4409</v>
+        <v>4207</v>
       </c>
       <c r="E3525" t="s">
         <v>4201</v>
       </c>
       <c r="K3525">
-        <v>16</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3526" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3526" t="s">
-        <v>4426</v>
+        <v>4220</v>
       </c>
       <c r="E3526" t="s">
-        <v>1596</v>
+        <v>1174</v>
       </c>
       <c r="K3526">
-        <v>10</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="3527" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3527" t="s">
-        <v>4429</v>
+        <v>4255</v>
       </c>
       <c r="E3527" t="s">
-        <v>4430</v>
+        <v>1174</v>
       </c>
       <c r="K3527">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3528" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3528" t="s">
-        <v>4451</v>
+        <v>4256</v>
       </c>
       <c r="E3528" t="s">
-        <v>1772</v>
+        <v>1174</v>
       </c>
       <c r="K3528">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3529" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3529" t="s">
-        <v>4452</v>
+        <v>4257</v>
       </c>
       <c r="E3529" t="s">
-        <v>707</v>
+        <v>3170</v>
       </c>
       <c r="K3529">
         <v>8</v>
@@ -53875,197 +53908,197 @@
     </row>
     <row r="3530" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3530" t="s">
-        <v>4453</v>
+        <v>4282</v>
       </c>
       <c r="E3530" t="s">
-        <v>3723</v>
+        <v>112</v>
       </c>
       <c r="K3530">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3531" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3531" t="s">
-        <v>4466</v>
+        <v>4292</v>
       </c>
       <c r="E3531" t="s">
-        <v>3170</v>
+        <v>3651</v>
       </c>
       <c r="K3531">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3532" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3532" t="s">
-        <v>4468</v>
+        <v>4395</v>
       </c>
       <c r="E3532" t="s">
-        <v>187</v>
+        <v>3679</v>
       </c>
       <c r="K3532">
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3533" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3533" t="s">
-        <v>4471</v>
+        <v>4406</v>
       </c>
       <c r="E3533" t="s">
-        <v>2120</v>
+        <v>4201</v>
       </c>
       <c r="K3533">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3534" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3534" t="s">
-        <v>4524</v>
+        <v>4407</v>
       </c>
       <c r="E3534" t="s">
-        <v>117</v>
+        <v>4201</v>
       </c>
       <c r="K3534">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3535" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3535" t="s">
-        <v>4529</v>
+        <v>4408</v>
       </c>
       <c r="E3535" t="s">
-        <v>1772</v>
+        <v>4201</v>
       </c>
       <c r="K3535">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3536" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3536" t="s">
-        <v>4534</v>
+        <v>4409</v>
       </c>
       <c r="E3536" t="s">
-        <v>1596</v>
+        <v>4201</v>
       </c>
       <c r="K3536">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3537" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3537" t="s">
-        <v>4548</v>
+        <v>4426</v>
       </c>
       <c r="E3537" t="s">
-        <v>187</v>
+        <v>1596</v>
       </c>
       <c r="K3537">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3538" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3538" t="s">
-        <v>4552</v>
+        <v>4429</v>
       </c>
       <c r="E3538" t="s">
-        <v>3651</v>
+        <v>4430</v>
       </c>
       <c r="K3538">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3539" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3539" t="s">
-        <v>4561</v>
+        <v>4451</v>
       </c>
       <c r="E3539" t="s">
-        <v>1193</v>
+        <v>1772</v>
       </c>
       <c r="K3539">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3540" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3540" t="s">
-        <v>4574</v>
+        <v>4452</v>
       </c>
       <c r="E3540" t="s">
-        <v>1181</v>
+        <v>707</v>
       </c>
       <c r="K3540">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3541" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3541" t="s">
-        <v>4575</v>
+        <v>4453</v>
       </c>
       <c r="E3541" t="s">
-        <v>1181</v>
+        <v>3723</v>
       </c>
       <c r="K3541">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3542" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3542" t="s">
-        <v>4577</v>
+        <v>4466</v>
       </c>
       <c r="E3542" t="s">
-        <v>850</v>
+        <v>3170</v>
       </c>
       <c r="K3542">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3543" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3543" t="s">
-        <v>4583</v>
+        <v>4468</v>
       </c>
       <c r="E3543" t="s">
-        <v>521</v>
+        <v>187</v>
       </c>
       <c r="K3543">
-        <v>5.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3544" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3544" t="s">
-        <v>4640</v>
+        <v>4471</v>
       </c>
       <c r="E3544" t="s">
-        <v>541</v>
+        <v>2120</v>
       </c>
       <c r="K3544">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3545" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3545" t="s">
-        <v>4645</v>
+        <v>4524</v>
       </c>
       <c r="E3545" t="s">
-        <v>541</v>
+        <v>117</v>
       </c>
       <c r="K3545">
-        <v>1.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3546" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3546" t="s">
-        <v>4670</v>
+        <v>4529</v>
       </c>
       <c r="E3546" t="s">
-        <v>4671</v>
+        <v>1772</v>
       </c>
       <c r="K3546">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3547" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3547" t="s">
-        <v>4674</v>
+        <v>4534</v>
       </c>
       <c r="E3547" t="s">
-        <v>1362</v>
+        <v>1596</v>
       </c>
       <c r="K3547">
         <v>15</v>
@@ -54073,186 +54106,186 @@
     </row>
     <row r="3548" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3548" t="s">
-        <v>4675</v>
+        <v>4548</v>
       </c>
       <c r="E3548" t="s">
-        <v>1362</v>
+        <v>187</v>
       </c>
       <c r="K3548">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3549" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3549" t="s">
-        <v>4679</v>
+        <v>4552</v>
       </c>
       <c r="E3549" t="s">
-        <v>850</v>
+        <v>3651</v>
       </c>
       <c r="K3549">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3550" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3550" t="s">
-        <v>4680</v>
+        <v>4561</v>
       </c>
       <c r="E3550" t="s">
-        <v>865</v>
+        <v>1193</v>
       </c>
       <c r="K3550">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3551" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3551" t="s">
-        <v>4705</v>
+        <v>4574</v>
       </c>
       <c r="E3551" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="K3551">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3552" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3552" t="s">
-        <v>4729</v>
+        <v>4575</v>
       </c>
       <c r="E3552" t="s">
-        <v>3651</v>
+        <v>1181</v>
       </c>
       <c r="K3552">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3553" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3553" t="s">
-        <v>4778</v>
+        <v>4577</v>
       </c>
       <c r="E3553" t="s">
-        <v>232</v>
+        <v>850</v>
       </c>
       <c r="K3553">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3554" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3554" t="s">
-        <v>4780</v>
+        <v>4583</v>
       </c>
       <c r="E3554" t="s">
-        <v>115</v>
+        <v>521</v>
       </c>
       <c r="K3554">
-        <v>10</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3555" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3555" t="s">
-        <v>4793</v>
+        <v>4640</v>
       </c>
       <c r="E3555" t="s">
-        <v>4201</v>
+        <v>541</v>
       </c>
       <c r="K3555">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3556" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3556" t="s">
-        <v>4803</v>
+        <v>4645</v>
       </c>
       <c r="E3556" t="s">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="K3556">
-        <v>9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3557" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3557" t="s">
-        <v>4825</v>
+        <v>4670</v>
       </c>
       <c r="E3557" t="s">
-        <v>850</v>
+        <v>4671</v>
       </c>
       <c r="K3557">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3558" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3558" t="s">
-        <v>4874</v>
+        <v>4674</v>
       </c>
       <c r="E3558" t="s">
-        <v>541</v>
+        <v>1362</v>
       </c>
       <c r="K3558">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3559" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3559" t="s">
-        <v>4876</v>
+        <v>4675</v>
       </c>
       <c r="E3559" t="s">
-        <v>4877</v>
+        <v>1362</v>
       </c>
       <c r="K3559">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3560" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3560" t="s">
-        <v>4881</v>
+        <v>4679</v>
       </c>
       <c r="E3560" t="s">
-        <v>1174</v>
+        <v>850</v>
       </c>
       <c r="K3560">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3561" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3561" t="s">
-        <v>3285</v>
+        <v>4680</v>
       </c>
       <c r="E3561" t="s">
-        <v>1131</v>
+        <v>865</v>
       </c>
       <c r="K3561">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3562" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3562" t="s">
-        <v>3286</v>
+        <v>4705</v>
       </c>
       <c r="E3562" t="s">
-        <v>1131</v>
+        <v>1177</v>
       </c>
       <c r="K3562">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3563" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3563" t="s">
-        <v>3287</v>
+        <v>4729</v>
       </c>
       <c r="E3563" t="s">
-        <v>1131</v>
+        <v>3651</v>
       </c>
       <c r="K3563">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3564" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3564" t="s">
-        <v>3288</v>
+        <v>4778</v>
       </c>
       <c r="E3564" t="s">
-        <v>1131</v>
+        <v>232</v>
       </c>
       <c r="K3564">
         <v>7</v>
@@ -54260,183 +54293,183 @@
     </row>
     <row r="3565" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3565" t="s">
-        <v>3289</v>
+        <v>4780</v>
       </c>
       <c r="E3565" t="s">
-        <v>1104</v>
+        <v>115</v>
       </c>
       <c r="K3565">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3566" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3566" t="s">
-        <v>3290</v>
+        <v>4793</v>
       </c>
       <c r="E3566" t="s">
-        <v>1115</v>
+        <v>4201</v>
       </c>
       <c r="K3566">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3567" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3567" t="s">
-        <v>3291</v>
+        <v>4803</v>
       </c>
       <c r="E3567" t="s">
-        <v>2193</v>
+        <v>117</v>
       </c>
       <c r="K3567">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3568" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3568" t="s">
-        <v>3292</v>
+        <v>4825</v>
       </c>
       <c r="E3568" t="s">
-        <v>1995</v>
+        <v>850</v>
       </c>
       <c r="K3568">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3569" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3569" t="s">
-        <v>3293</v>
+        <v>4874</v>
       </c>
       <c r="E3569" t="s">
-        <v>2442</v>
+        <v>541</v>
       </c>
       <c r="K3569">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3570" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3570" t="s">
-        <v>3294</v>
+        <v>4876</v>
       </c>
       <c r="E3570" t="s">
-        <v>2442</v>
+        <v>4877</v>
       </c>
       <c r="K3570">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3571" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3571" t="s">
-        <v>3295</v>
+        <v>4881</v>
       </c>
       <c r="E3571" t="s">
-        <v>2442</v>
+        <v>1174</v>
       </c>
       <c r="K3571">
-        <v>2.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3572" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3572" t="s">
-        <v>3296</v>
+        <v>3285</v>
       </c>
       <c r="E3572" t="s">
-        <v>2442</v>
+        <v>1131</v>
       </c>
       <c r="K3572">
-        <v>2.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3573" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3573" t="s">
-        <v>3297</v>
+        <v>3286</v>
       </c>
       <c r="E3573" t="s">
-        <v>1209</v>
+        <v>1131</v>
       </c>
       <c r="K3573">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3574" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3574" t="s">
-        <v>3298</v>
+        <v>3287</v>
       </c>
       <c r="E3574" t="s">
         <v>1131</v>
       </c>
       <c r="K3574">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3575" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3575" t="s">
-        <v>3299</v>
+        <v>3288</v>
       </c>
       <c r="E3575" t="s">
-        <v>3300</v>
+        <v>1131</v>
       </c>
       <c r="K3575">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3576" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3576" t="s">
-        <v>3301</v>
+        <v>3289</v>
       </c>
       <c r="E3576" t="s">
-        <v>767</v>
+        <v>1104</v>
       </c>
       <c r="K3576">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3577" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3577" t="s">
-        <v>3302</v>
+        <v>3290</v>
       </c>
       <c r="E3577" t="s">
-        <v>2442</v>
+        <v>1115</v>
       </c>
       <c r="K3577">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3578" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3578" t="s">
-        <v>3303</v>
+        <v>3291</v>
       </c>
       <c r="E3578" t="s">
-        <v>3304</v>
+        <v>2193</v>
       </c>
       <c r="K3578">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3579" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3579" t="s">
-        <v>3305</v>
+        <v>3292</v>
       </c>
       <c r="E3579" t="s">
-        <v>3306</v>
+        <v>1995</v>
       </c>
       <c r="K3579">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3580" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3580" t="s">
-        <v>3307</v>
+        <v>3293</v>
       </c>
       <c r="E3580" t="s">
-        <v>20</v>
+        <v>2442</v>
       </c>
       <c r="K3580">
-        <v>12</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3581" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3581" t="s">
-        <v>3308</v>
+        <v>3294</v>
       </c>
       <c r="E3581" t="s">
         <v>2442</v>
@@ -54447,538 +54480,538 @@
     </row>
     <row r="3582" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3582" t="s">
-        <v>3309</v>
+        <v>3295</v>
       </c>
       <c r="E3582" t="s">
-        <v>3107</v>
+        <v>2442</v>
       </c>
       <c r="K3582">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3583" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3583" t="s">
-        <v>3310</v>
+        <v>3296</v>
       </c>
       <c r="E3583" t="s">
-        <v>3107</v>
+        <v>2442</v>
       </c>
       <c r="K3583">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3584" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3584" t="s">
-        <v>3311</v>
+        <v>3297</v>
       </c>
       <c r="E3584" t="s">
-        <v>20</v>
+        <v>1209</v>
       </c>
       <c r="K3584">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3585" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3585" t="s">
-        <v>3312</v>
+        <v>3298</v>
       </c>
       <c r="E3585" t="s">
-        <v>20</v>
+        <v>1131</v>
       </c>
       <c r="K3585">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3586" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3586" t="s">
-        <v>3313</v>
+        <v>3299</v>
       </c>
       <c r="E3586" t="s">
-        <v>2442</v>
+        <v>3300</v>
       </c>
       <c r="K3586">
-        <v>1.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3587" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3587" t="s">
-        <v>3314</v>
+        <v>3301</v>
       </c>
       <c r="E3587" t="s">
-        <v>20</v>
+        <v>767</v>
       </c>
       <c r="K3587">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3588" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3588" t="s">
-        <v>3315</v>
+        <v>3302</v>
       </c>
       <c r="E3588" t="s">
-        <v>3316</v>
+        <v>2442</v>
       </c>
       <c r="K3588">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3589" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3589" t="s">
-        <v>3317</v>
+        <v>3303</v>
       </c>
       <c r="E3589" t="s">
-        <v>1181</v>
+        <v>3304</v>
       </c>
       <c r="K3589">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3590" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3590" t="s">
-        <v>3318</v>
+        <v>3305</v>
       </c>
       <c r="E3590" t="s">
-        <v>990</v>
+        <v>3306</v>
       </c>
       <c r="K3590">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3591" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3591" t="s">
-        <v>3319</v>
+        <v>3307</v>
       </c>
       <c r="E3591" t="s">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="K3591">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3592" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3592" t="s">
-        <v>3320</v>
+        <v>3308</v>
       </c>
       <c r="E3592" t="s">
-        <v>990</v>
+        <v>2442</v>
       </c>
       <c r="K3592">
-        <v>15</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3593" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3593" t="s">
-        <v>3321</v>
+        <v>3309</v>
       </c>
       <c r="E3593" t="s">
-        <v>3322</v>
+        <v>3107</v>
       </c>
       <c r="K3593">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3594" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3594" t="s">
-        <v>3323</v>
+        <v>3310</v>
       </c>
       <c r="E3594" t="s">
-        <v>2120</v>
+        <v>3107</v>
       </c>
       <c r="K3594">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3595" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3595" t="s">
-        <v>3324</v>
+        <v>3311</v>
       </c>
       <c r="E3595" t="s">
-        <v>2205</v>
+        <v>20</v>
       </c>
       <c r="K3595">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3596" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3596" t="s">
-        <v>3325</v>
+        <v>3312</v>
       </c>
       <c r="E3596" t="s">
-        <v>3326</v>
+        <v>20</v>
       </c>
       <c r="K3596">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3597" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3597" t="s">
-        <v>3327</v>
+        <v>3313</v>
       </c>
       <c r="E3597" t="s">
         <v>2442</v>
       </c>
       <c r="K3597">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3598" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3598" t="s">
-        <v>3328</v>
+        <v>3314</v>
       </c>
       <c r="E3598" t="s">
-        <v>3329</v>
+        <v>20</v>
       </c>
       <c r="K3598">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3599" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3599" t="s">
-        <v>3330</v>
+        <v>3315</v>
       </c>
       <c r="E3599" t="s">
-        <v>3331</v>
+        <v>3316</v>
       </c>
       <c r="K3599">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3600" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3600" t="s">
-        <v>3332</v>
+        <v>3317</v>
       </c>
       <c r="E3600" t="s">
-        <v>3333</v>
+        <v>1181</v>
       </c>
       <c r="K3600">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3601" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3601" t="s">
-        <v>3334</v>
+        <v>3318</v>
       </c>
       <c r="E3601" t="s">
-        <v>2442</v>
+        <v>990</v>
       </c>
       <c r="K3601">
-        <v>2.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3602" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3602" t="s">
-        <v>3335</v>
+        <v>3319</v>
       </c>
       <c r="E3602" t="s">
-        <v>3336</v>
+        <v>990</v>
       </c>
       <c r="K3602">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3603" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3603" t="s">
-        <v>3337</v>
+        <v>3320</v>
       </c>
       <c r="E3603" t="s">
-        <v>3338</v>
+        <v>990</v>
       </c>
       <c r="K3603">
-        <v>3.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3604" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3604" t="s">
-        <v>3339</v>
+        <v>3321</v>
       </c>
       <c r="E3604" t="s">
-        <v>3329</v>
+        <v>3322</v>
       </c>
       <c r="K3604">
-        <v>2.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3605" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3605" t="s">
-        <v>3340</v>
+        <v>3323</v>
       </c>
       <c r="E3605" t="s">
-        <v>2442</v>
+        <v>2120</v>
       </c>
       <c r="K3605">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3606" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3606" t="s">
-        <v>3341</v>
+        <v>3324</v>
       </c>
       <c r="E3606" t="s">
-        <v>2442</v>
+        <v>2205</v>
       </c>
       <c r="K3606">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3607" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3607" t="s">
-        <v>3342</v>
+        <v>3325</v>
       </c>
       <c r="E3607" t="s">
-        <v>3343</v>
+        <v>3326</v>
       </c>
       <c r="K3607">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3608" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3608" t="s">
-        <v>3344</v>
+        <v>3327</v>
       </c>
       <c r="E3608" t="s">
-        <v>3345</v>
+        <v>2442</v>
       </c>
       <c r="K3608">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3609" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3609" t="s">
-        <v>3346</v>
+        <v>3328</v>
       </c>
       <c r="E3609" t="s">
-        <v>892</v>
+        <v>3329</v>
       </c>
       <c r="K3609">
-        <v>25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3610" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3610" t="s">
-        <v>3347</v>
+        <v>3330</v>
       </c>
       <c r="E3610" t="s">
-        <v>892</v>
+        <v>3331</v>
       </c>
       <c r="K3610">
-        <v>23</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3611" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3611" t="s">
-        <v>3348</v>
+        <v>3332</v>
       </c>
       <c r="E3611" t="s">
-        <v>3349</v>
+        <v>3333</v>
       </c>
       <c r="K3611">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3612" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3612" t="s">
-        <v>3350</v>
+        <v>3334</v>
       </c>
       <c r="E3612" t="s">
-        <v>767</v>
+        <v>2442</v>
       </c>
       <c r="K3612">
-        <v>15</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3613" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3613" t="s">
-        <v>3351</v>
+        <v>3335</v>
       </c>
       <c r="E3613" t="s">
-        <v>767</v>
+        <v>3336</v>
       </c>
       <c r="K3613">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3614" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3614" t="s">
-        <v>3352</v>
+        <v>3337</v>
       </c>
       <c r="E3614" t="s">
-        <v>767</v>
+        <v>3338</v>
       </c>
       <c r="K3614">
-        <v>20</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3615" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3615" t="s">
-        <v>3353</v>
+        <v>3339</v>
       </c>
       <c r="E3615" t="s">
-        <v>1577</v>
+        <v>3329</v>
       </c>
       <c r="K3615">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3616" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3616" t="s">
-        <v>3354</v>
+        <v>3340</v>
       </c>
       <c r="E3616" t="s">
-        <v>1577</v>
+        <v>2442</v>
       </c>
       <c r="K3616">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3617" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3617" t="s">
-        <v>3361</v>
+        <v>3341</v>
       </c>
       <c r="E3617" t="s">
-        <v>2205</v>
+        <v>2442</v>
       </c>
       <c r="K3617">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3618" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3618" t="s">
-        <v>3362</v>
+        <v>3342</v>
       </c>
       <c r="E3618" t="s">
-        <v>3363</v>
+        <v>3343</v>
       </c>
       <c r="K3618">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3619" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3619" t="s">
-        <v>3364</v>
+        <v>3344</v>
       </c>
       <c r="E3619" t="s">
-        <v>3365</v>
+        <v>3345</v>
       </c>
       <c r="K3619">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3620" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3620" t="s">
-        <v>3366</v>
+        <v>3346</v>
       </c>
       <c r="E3620" t="s">
-        <v>3367</v>
+        <v>892</v>
       </c>
       <c r="K3620">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3621" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3621" t="s">
-        <v>3368</v>
+        <v>3347</v>
       </c>
       <c r="E3621" t="s">
-        <v>3369</v>
+        <v>892</v>
       </c>
       <c r="K3621">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3622" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3622" t="s">
-        <v>3370</v>
+        <v>3348</v>
       </c>
       <c r="E3622" t="s">
-        <v>1104</v>
+        <v>3349</v>
       </c>
       <c r="K3622">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3623" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3623" t="s">
-        <v>3371</v>
+        <v>3350</v>
       </c>
       <c r="E3623" t="s">
-        <v>3372</v>
+        <v>767</v>
       </c>
       <c r="K3623">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3624" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3624" t="s">
-        <v>3373</v>
+        <v>3351</v>
       </c>
       <c r="E3624" t="s">
-        <v>3374</v>
+        <v>767</v>
       </c>
       <c r="K3624">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3625" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3625" t="s">
-        <v>3377</v>
+        <v>3352</v>
       </c>
       <c r="E3625" t="s">
-        <v>2371</v>
+        <v>767</v>
       </c>
       <c r="K3625">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3626" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3626" t="s">
-        <v>3378</v>
+        <v>3353</v>
       </c>
       <c r="E3626" t="s">
-        <v>3379</v>
+        <v>1577</v>
       </c>
       <c r="K3626">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3627" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3627" t="s">
-        <v>3380</v>
+        <v>3354</v>
       </c>
       <c r="E3627" t="s">
-        <v>1934</v>
+        <v>1577</v>
       </c>
       <c r="K3627">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3628" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3628" t="s">
-        <v>3381</v>
+        <v>3361</v>
       </c>
       <c r="E3628" t="s">
-        <v>3382</v>
+        <v>2205</v>
       </c>
       <c r="K3628">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3629" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3629" t="s">
-        <v>3383</v>
+        <v>3362</v>
       </c>
       <c r="E3629" t="s">
-        <v>1174</v>
+        <v>3363</v>
       </c>
       <c r="K3629">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3630" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3630" t="s">
-        <v>3384</v>
+        <v>3364</v>
       </c>
       <c r="E3630" t="s">
-        <v>2331</v>
+        <v>3365</v>
       </c>
       <c r="K3630">
         <v>15</v>
@@ -54986,318 +55019,318 @@
     </row>
     <row r="3631" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3631" t="s">
-        <v>3386</v>
+        <v>3366</v>
       </c>
       <c r="E3631" t="s">
-        <v>3387</v>
+        <v>3367</v>
       </c>
       <c r="K3631">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3632" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3632" t="s">
-        <v>3398</v>
+        <v>3368</v>
       </c>
       <c r="E3632" t="s">
-        <v>3399</v>
+        <v>3369</v>
       </c>
       <c r="K3632">
-        <v>3.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3633" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3633" t="s">
-        <v>3400</v>
+        <v>3370</v>
       </c>
       <c r="E3633" t="s">
-        <v>2331</v>
+        <v>1104</v>
       </c>
       <c r="K3633">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3634" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3634" t="s">
-        <v>3401</v>
+        <v>3371</v>
       </c>
       <c r="E3634" t="s">
-        <v>2532</v>
+        <v>3372</v>
       </c>
       <c r="K3634">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3635" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3635" t="s">
-        <v>3402</v>
+        <v>3373</v>
       </c>
       <c r="E3635" t="s">
-        <v>2532</v>
+        <v>3374</v>
       </c>
       <c r="K3635">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3636" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3636" t="s">
-        <v>3403</v>
+        <v>3377</v>
       </c>
       <c r="E3636" t="s">
-        <v>3404</v>
+        <v>2371</v>
       </c>
       <c r="K3636">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3637" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3637" t="s">
-        <v>3409</v>
+        <v>3378</v>
       </c>
       <c r="E3637" t="s">
-        <v>273</v>
+        <v>3379</v>
       </c>
       <c r="K3637">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3638" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3638" t="s">
-        <v>3410</v>
+        <v>3380</v>
       </c>
       <c r="E3638" t="s">
-        <v>273</v>
+        <v>1934</v>
       </c>
       <c r="K3638">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3639" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3639" t="s">
-        <v>3411</v>
+        <v>3381</v>
       </c>
       <c r="E3639" t="s">
-        <v>1167</v>
+        <v>3382</v>
       </c>
       <c r="K3639">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3640" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3640" t="s">
-        <v>3412</v>
+        <v>3383</v>
       </c>
       <c r="E3640" t="s">
-        <v>3413</v>
+        <v>1174</v>
       </c>
       <c r="K3640">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3641" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3641" t="s">
-        <v>3414</v>
+        <v>3384</v>
       </c>
       <c r="E3641" t="s">
-        <v>3415</v>
+        <v>2331</v>
       </c>
       <c r="K3641">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3642" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3642" t="s">
-        <v>3416</v>
+        <v>3386</v>
       </c>
       <c r="E3642" t="s">
-        <v>3123</v>
+        <v>3387</v>
       </c>
       <c r="K3642">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3643" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3643" t="s">
-        <v>3426</v>
+        <v>3398</v>
       </c>
       <c r="E3643" t="s">
-        <v>1167</v>
+        <v>3399</v>
       </c>
       <c r="K3643">
-        <v>38</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3644" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3644" t="s">
-        <v>3427</v>
+        <v>3400</v>
       </c>
       <c r="E3644" t="s">
-        <v>1167</v>
+        <v>2331</v>
       </c>
       <c r="K3644">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3645" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3645" t="s">
-        <v>3428</v>
+        <v>3401</v>
       </c>
       <c r="E3645" t="s">
-        <v>2179</v>
+        <v>2532</v>
       </c>
       <c r="K3645">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3646" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3646" t="s">
-        <v>3430</v>
+        <v>3402</v>
       </c>
       <c r="E3646" t="s">
-        <v>3431</v>
+        <v>2532</v>
       </c>
       <c r="K3646">
-        <v>1.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3647" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3647" t="s">
-        <v>3432</v>
+        <v>3403</v>
       </c>
       <c r="E3647" t="s">
-        <v>3431</v>
+        <v>3404</v>
       </c>
       <c r="K3647">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3648" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3648" t="s">
-        <v>3489</v>
+        <v>3409</v>
       </c>
       <c r="E3648" t="s">
-        <v>990</v>
+        <v>273</v>
       </c>
       <c r="K3648">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3649" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3649" t="s">
-        <v>3490</v>
+        <v>3410</v>
       </c>
       <c r="E3649" t="s">
-        <v>3491</v>
+        <v>273</v>
       </c>
       <c r="K3649">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3650" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3650" t="s">
-        <v>3492</v>
+        <v>3411</v>
       </c>
       <c r="E3650" t="s">
-        <v>3493</v>
+        <v>1167</v>
       </c>
       <c r="K3650">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3651" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3651" t="s">
-        <v>3494</v>
+        <v>3412</v>
       </c>
       <c r="E3651" t="s">
-        <v>3495</v>
+        <v>3413</v>
       </c>
       <c r="K3651">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3652" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3652" t="s">
-        <v>3496</v>
+        <v>3414</v>
       </c>
       <c r="E3652" t="s">
-        <v>3447</v>
+        <v>3415</v>
       </c>
       <c r="K3652">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3653" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3653" t="s">
-        <v>3501</v>
+        <v>3416</v>
       </c>
       <c r="E3653" t="s">
-        <v>1075</v>
+        <v>3123</v>
       </c>
       <c r="K3653">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3654" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3654" t="s">
-        <v>3502</v>
+        <v>3426</v>
       </c>
       <c r="E3654" t="s">
-        <v>1075</v>
+        <v>1167</v>
       </c>
       <c r="K3654">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3655" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3655" t="s">
-        <v>3516</v>
+        <v>3427</v>
       </c>
       <c r="E3655" t="s">
-        <v>3316</v>
+        <v>1167</v>
       </c>
       <c r="K3655">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3656" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3656" t="s">
-        <v>3517</v>
+        <v>3428</v>
       </c>
       <c r="E3656" t="s">
-        <v>3518</v>
+        <v>2179</v>
       </c>
       <c r="K3656">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3657" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3657" t="s">
-        <v>3539</v>
+        <v>3430</v>
       </c>
       <c r="E3657" t="s">
-        <v>2442</v>
+        <v>3431</v>
       </c>
       <c r="K3657">
-        <v>35</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3658" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3658" t="s">
-        <v>3556</v>
+        <v>3432</v>
       </c>
       <c r="E3658" t="s">
-        <v>3557</v>
+        <v>3431</v>
       </c>
       <c r="K3658">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3659" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3659" t="s">
-        <v>3558</v>
+        <v>3489</v>
       </c>
       <c r="E3659" t="s">
-        <v>3557</v>
+        <v>990</v>
       </c>
       <c r="K3659">
         <v>3</v>
@@ -55305,381 +55338,381 @@
     </row>
     <row r="3660" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3660" t="s">
-        <v>3559</v>
+        <v>3490</v>
       </c>
       <c r="E3660" t="s">
-        <v>1995</v>
+        <v>3491</v>
       </c>
       <c r="K3660">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3661" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3661" t="s">
-        <v>3588</v>
+        <v>3492</v>
       </c>
       <c r="E3661" t="s">
-        <v>3338</v>
+        <v>3493</v>
       </c>
       <c r="K3661">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3662" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3662" t="s">
-        <v>3591</v>
+        <v>3494</v>
       </c>
       <c r="E3662" t="s">
-        <v>3592</v>
+        <v>3495</v>
       </c>
       <c r="K3662">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3663" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3663" t="s">
-        <v>3593</v>
+        <v>3496</v>
       </c>
       <c r="E3663" t="s">
-        <v>3338</v>
+        <v>3447</v>
       </c>
       <c r="K3663">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3664" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3664" t="s">
-        <v>3594</v>
+        <v>3501</v>
       </c>
       <c r="E3664" t="s">
-        <v>2141</v>
+        <v>1075</v>
       </c>
       <c r="K3664">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3665" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3665" t="s">
-        <v>3605</v>
+        <v>3502</v>
       </c>
       <c r="E3665" t="s">
-        <v>20</v>
+        <v>1075</v>
       </c>
       <c r="K3665">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3666" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3666" t="s">
-        <v>3948</v>
+        <v>3516</v>
       </c>
       <c r="E3666" t="s">
-        <v>3306</v>
+        <v>3316</v>
       </c>
       <c r="K3666">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3667" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3667" t="s">
-        <v>3947</v>
+        <v>3517</v>
       </c>
       <c r="E3667" t="s">
-        <v>1104</v>
+        <v>3518</v>
       </c>
       <c r="K3667">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3668" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3668" t="s">
-        <v>3945</v>
+        <v>3539</v>
       </c>
       <c r="E3668" t="s">
-        <v>3946</v>
+        <v>2442</v>
       </c>
       <c r="K3668">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3669" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3669" t="s">
-        <v>4031</v>
+        <v>3556</v>
       </c>
       <c r="E3669" t="s">
-        <v>3123</v>
+        <v>3557</v>
       </c>
       <c r="K3669">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3670" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3670" t="s">
-        <v>4032</v>
+        <v>3558</v>
       </c>
       <c r="E3670" t="s">
-        <v>2227</v>
+        <v>3557</v>
       </c>
       <c r="K3670">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3671" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3671" t="s">
-        <v>4040</v>
+        <v>3559</v>
       </c>
       <c r="E3671" t="s">
-        <v>1075</v>
+        <v>1995</v>
       </c>
       <c r="K3671">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3672" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3672" t="s">
-        <v>4063</v>
+        <v>3588</v>
       </c>
       <c r="E3672" t="s">
-        <v>1167</v>
+        <v>3338</v>
       </c>
       <c r="K3672">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3673" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3673" t="s">
-        <v>4064</v>
+        <v>3591</v>
       </c>
       <c r="E3673" t="s">
-        <v>626</v>
+        <v>3592</v>
       </c>
       <c r="K3673">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3674" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3674" t="s">
-        <v>4065</v>
+        <v>3593</v>
       </c>
       <c r="E3674" t="s">
-        <v>365</v>
+        <v>3338</v>
       </c>
       <c r="K3674">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3675" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3675" t="s">
-        <v>4073</v>
+        <v>3594</v>
       </c>
       <c r="E3675" t="s">
-        <v>3978</v>
+        <v>2141</v>
       </c>
       <c r="K3675">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3676" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3676" t="s">
-        <v>4072</v>
+        <v>3605</v>
       </c>
       <c r="E3676" t="s">
-        <v>1174</v>
+        <v>20</v>
       </c>
       <c r="K3676">
-        <v>11</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3677" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3677" t="s">
-        <v>4103</v>
+        <v>3948</v>
       </c>
       <c r="E3677" t="s">
-        <v>1934</v>
+        <v>3306</v>
       </c>
       <c r="K3677">
-        <v>10.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3678" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3678" t="s">
-        <v>4105</v>
+        <v>3947</v>
       </c>
       <c r="E3678" t="s">
-        <v>20</v>
+        <v>1104</v>
       </c>
       <c r="K3678">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3679" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3679" t="s">
-        <v>4106</v>
+        <v>3945</v>
       </c>
       <c r="E3679" t="s">
-        <v>1995</v>
+        <v>3946</v>
       </c>
       <c r="K3679">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3680" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3680" t="s">
-        <v>4107</v>
+        <v>4031</v>
       </c>
       <c r="E3680" t="s">
-        <v>1995</v>
+        <v>3123</v>
       </c>
       <c r="K3680">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3681" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3681" t="s">
-        <v>4108</v>
+        <v>4032</v>
       </c>
       <c r="E3681" t="s">
-        <v>1995</v>
+        <v>2227</v>
       </c>
       <c r="K3681">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3682" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3682" t="s">
-        <v>4125</v>
+        <v>4040</v>
       </c>
       <c r="E3682" t="s">
-        <v>1167</v>
+        <v>1075</v>
       </c>
       <c r="K3682">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3683" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3683" t="s">
-        <v>4127</v>
+        <v>4063</v>
       </c>
       <c r="E3683" t="s">
-        <v>20</v>
+        <v>1167</v>
       </c>
       <c r="K3683">
-        <v>6.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3684" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3684" t="s">
-        <v>4202</v>
+        <v>4064</v>
       </c>
       <c r="E3684" t="s">
-        <v>273</v>
+        <v>626</v>
       </c>
       <c r="K3684">
-        <v>7.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3685" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3685" t="s">
-        <v>4210</v>
+        <v>4065</v>
       </c>
       <c r="E3685" t="s">
-        <v>4211</v>
+        <v>365</v>
       </c>
       <c r="K3685">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3686" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3686" t="s">
-        <v>4212</v>
+        <v>4073</v>
       </c>
       <c r="E3686" t="s">
-        <v>4213</v>
+        <v>3978</v>
       </c>
       <c r="K3686">
-        <v>1.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3687" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3687" t="s">
-        <v>4217</v>
+        <v>4072</v>
       </c>
       <c r="E3687" t="s">
-        <v>1934</v>
+        <v>1174</v>
       </c>
       <c r="K3687">
-        <v>3.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3688" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3688" t="s">
-        <v>4218</v>
+        <v>4103</v>
       </c>
       <c r="E3688" t="s">
-        <v>1174</v>
+        <v>1934</v>
       </c>
       <c r="K3688">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3689" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3689" t="s">
-        <v>4219</v>
+        <v>4105</v>
       </c>
       <c r="E3689" t="s">
-        <v>3946</v>
+        <v>20</v>
       </c>
       <c r="K3689">
-        <v>19.899999999999999</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3690" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3690" t="s">
-        <v>4233</v>
+        <v>4106</v>
       </c>
       <c r="E3690" t="s">
-        <v>4234</v>
+        <v>1995</v>
       </c>
       <c r="K3690">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3691" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3691" t="s">
-        <v>4235</v>
+        <v>4107</v>
       </c>
       <c r="E3691" t="s">
-        <v>4230</v>
+        <v>1995</v>
       </c>
       <c r="K3691">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3692" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3692" t="s">
-        <v>4236</v>
+        <v>4108</v>
       </c>
       <c r="E3692" t="s">
-        <v>4230</v>
+        <v>1995</v>
       </c>
       <c r="K3692">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3693" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3693" t="s">
-        <v>4237</v>
+        <v>4125</v>
       </c>
       <c r="E3693" t="s">
-        <v>20</v>
+        <v>1167</v>
       </c>
       <c r="K3693">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3694" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3694" t="s">
-        <v>4238</v>
+        <v>4127</v>
       </c>
       <c r="E3694" t="s">
         <v>20</v>
@@ -55690,329 +55723,329 @@
     </row>
     <row r="3695" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3695" t="s">
-        <v>4239</v>
+        <v>4202</v>
       </c>
       <c r="E3695" t="s">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="K3695">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3696" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3696" t="s">
-        <v>4240</v>
+        <v>4210</v>
       </c>
       <c r="E3696" t="s">
-        <v>4241</v>
+        <v>4211</v>
       </c>
       <c r="K3696">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3697" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3697" t="s">
-        <v>4242</v>
+        <v>4212</v>
       </c>
       <c r="E3697" t="s">
-        <v>2481</v>
+        <v>4213</v>
       </c>
       <c r="K3697">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3698" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3698" t="s">
-        <v>4243</v>
+        <v>4217</v>
       </c>
       <c r="E3698" t="s">
-        <v>2481</v>
+        <v>1934</v>
       </c>
       <c r="K3698">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3699" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3699" t="s">
-        <v>4244</v>
+        <v>4218</v>
       </c>
       <c r="E3699" t="s">
-        <v>2515</v>
+        <v>1174</v>
       </c>
       <c r="K3699">
-        <v>12</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3700" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3700" t="s">
-        <v>4245</v>
+        <v>4219</v>
       </c>
       <c r="E3700" t="s">
-        <v>2515</v>
+        <v>3946</v>
       </c>
       <c r="K3700">
-        <v>18</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="3701" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3701" t="s">
-        <v>4246</v>
+        <v>4233</v>
       </c>
       <c r="E3701" t="s">
-        <v>4247</v>
+        <v>4234</v>
       </c>
       <c r="K3701">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3702" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3702" t="s">
-        <v>4248</v>
+        <v>4235</v>
       </c>
       <c r="E3702" t="s">
-        <v>365</v>
+        <v>4230</v>
       </c>
       <c r="K3702">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3703" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3703" t="s">
-        <v>4249</v>
+        <v>4236</v>
       </c>
       <c r="E3703" t="s">
-        <v>4250</v>
+        <v>4230</v>
       </c>
       <c r="K3703">
-        <v>8.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3704" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3704" t="s">
-        <v>4251</v>
+        <v>4237</v>
       </c>
       <c r="E3704" t="s">
-        <v>4252</v>
+        <v>20</v>
       </c>
       <c r="K3704">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3705" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3705" t="s">
-        <v>4253</v>
+        <v>4238</v>
       </c>
       <c r="E3705" t="s">
-        <v>2447</v>
+        <v>20</v>
       </c>
       <c r="K3705">
-        <v>32</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3706" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3706" t="s">
-        <v>4254</v>
+        <v>4239</v>
       </c>
       <c r="E3706" t="s">
-        <v>2447</v>
+        <v>20</v>
       </c>
       <c r="K3706">
-        <v>32</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3707" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3707" t="s">
-        <v>4264</v>
+        <v>4240</v>
       </c>
       <c r="E3707" t="s">
-        <v>3123</v>
+        <v>4241</v>
       </c>
       <c r="K3707">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3708" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3708" t="s">
-        <v>4387</v>
+        <v>4242</v>
       </c>
       <c r="E3708" t="s">
-        <v>2179</v>
+        <v>2481</v>
       </c>
       <c r="K3708">
-        <v>50</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3709" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3709" t="s">
-        <v>4393</v>
+        <v>4243</v>
       </c>
       <c r="E3709" t="s">
-        <v>2179</v>
+        <v>2481</v>
       </c>
       <c r="K3709">
-        <v>70</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3710" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3710" t="s">
-        <v>4399</v>
+        <v>4244</v>
       </c>
       <c r="E3710" t="s">
-        <v>3349</v>
+        <v>2515</v>
       </c>
       <c r="K3710">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3711" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3711" t="s">
-        <v>4412</v>
+        <v>4245</v>
       </c>
       <c r="E3711" t="s">
-        <v>1102</v>
+        <v>2515</v>
       </c>
       <c r="K3711">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3712" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3712" t="s">
-        <v>4463</v>
+        <v>4246</v>
       </c>
       <c r="E3712" t="s">
-        <v>2515</v>
+        <v>4247</v>
       </c>
       <c r="K3712">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3713" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3713" t="s">
-        <v>4469</v>
+        <v>4248</v>
       </c>
       <c r="E3713" t="s">
-        <v>626</v>
+        <v>365</v>
       </c>
       <c r="K3713">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3714" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3714" t="s">
-        <v>4475</v>
+        <v>4249</v>
       </c>
       <c r="E3714" t="s">
-        <v>4476</v>
+        <v>4250</v>
       </c>
       <c r="K3714">
-        <v>4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3715" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3715" t="s">
-        <v>4477</v>
+        <v>4251</v>
       </c>
       <c r="E3715" t="s">
-        <v>1577</v>
+        <v>4252</v>
       </c>
       <c r="K3715">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3716" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3716" t="s">
-        <v>4482</v>
+        <v>4253</v>
       </c>
       <c r="E3716" t="s">
-        <v>2120</v>
+        <v>2447</v>
       </c>
       <c r="K3716">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3717" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3717" t="s">
-        <v>4483</v>
+        <v>4254</v>
       </c>
       <c r="E3717" t="s">
         <v>2447</v>
       </c>
       <c r="K3717">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3718" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3718" t="s">
-        <v>4484</v>
+        <v>4264</v>
       </c>
       <c r="E3718" t="s">
-        <v>1075</v>
+        <v>3123</v>
       </c>
       <c r="K3718">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3719" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3719" t="s">
-        <v>4486</v>
+        <v>4387</v>
       </c>
       <c r="E3719" t="s">
-        <v>4487</v>
+        <v>2179</v>
       </c>
       <c r="K3719">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3720" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3720" t="s">
-        <v>4489</v>
+        <v>4393</v>
       </c>
       <c r="E3720" t="s">
-        <v>20</v>
+        <v>2179</v>
       </c>
       <c r="K3720">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3721" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3721" t="s">
-        <v>4491</v>
+        <v>4399</v>
       </c>
       <c r="E3721" t="s">
-        <v>4492</v>
+        <v>3349</v>
       </c>
       <c r="K3721">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3722" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3722" t="s">
-        <v>4496</v>
+        <v>4412</v>
       </c>
       <c r="E3722" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="K3722">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3723" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3723" t="s">
-        <v>4497</v>
+        <v>4463</v>
       </c>
       <c r="E3723" t="s">
-        <v>4211</v>
+        <v>2515</v>
       </c>
       <c r="K3723">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3724" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3724" t="s">
-        <v>4498</v>
+        <v>4469</v>
       </c>
       <c r="E3724" t="s">
-        <v>4499</v>
+        <v>626</v>
       </c>
       <c r="K3724">
         <v>35</v>
@@ -56020,241 +56053,241 @@
     </row>
     <row r="3725" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3725" t="s">
-        <v>4500</v>
+        <v>4475</v>
       </c>
       <c r="E3725" t="s">
-        <v>1934</v>
+        <v>4476</v>
       </c>
       <c r="K3725">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3726" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3726" t="s">
-        <v>4501</v>
+        <v>4477</v>
       </c>
       <c r="E3726" t="s">
-        <v>1934</v>
+        <v>1577</v>
       </c>
       <c r="K3726">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3727" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3727" t="s">
-        <v>4502</v>
+        <v>4482</v>
       </c>
       <c r="E3727" t="s">
-        <v>4503</v>
+        <v>2120</v>
       </c>
       <c r="K3727">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3728" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3728" t="s">
-        <v>4504</v>
+        <v>4483</v>
       </c>
       <c r="E3728" t="s">
-        <v>365</v>
+        <v>2447</v>
       </c>
       <c r="K3728">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3729" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3729" t="s">
-        <v>4505</v>
+        <v>4484</v>
       </c>
       <c r="E3729" t="s">
-        <v>626</v>
+        <v>1075</v>
       </c>
       <c r="K3729">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3730" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3730" t="s">
-        <v>4506</v>
+        <v>4486</v>
       </c>
       <c r="E3730" t="s">
-        <v>1102</v>
+        <v>4487</v>
       </c>
       <c r="K3730">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3731" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3731" t="s">
-        <v>4511</v>
+        <v>4489</v>
       </c>
       <c r="E3731" t="s">
-        <v>4211</v>
+        <v>20</v>
       </c>
       <c r="K3731">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3732" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3732" t="s">
-        <v>4545</v>
+        <v>4491</v>
       </c>
       <c r="E3732" t="s">
-        <v>1167</v>
+        <v>4492</v>
       </c>
       <c r="K3732">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3733" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3733" t="s">
-        <v>4553</v>
+        <v>4496</v>
       </c>
       <c r="E3733" t="s">
-        <v>3946</v>
+        <v>1115</v>
       </c>
       <c r="K3733">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3734" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3734" t="s">
-        <v>4554</v>
+        <v>4497</v>
       </c>
       <c r="E3734" t="s">
-        <v>1934</v>
+        <v>4211</v>
       </c>
       <c r="K3734">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3735" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3735" t="s">
-        <v>4555</v>
+        <v>4498</v>
       </c>
       <c r="E3735" t="s">
-        <v>626</v>
+        <v>4499</v>
       </c>
       <c r="K3735">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3736" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3736" t="s">
-        <v>4556</v>
+        <v>4500</v>
       </c>
       <c r="E3736" t="s">
-        <v>3946</v>
+        <v>1934</v>
       </c>
       <c r="K3736">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3737" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3737" t="s">
-        <v>4557</v>
+        <v>4501</v>
       </c>
       <c r="E3737" t="s">
-        <v>1167</v>
+        <v>1934</v>
       </c>
       <c r="K3737">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3738" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3738" t="s">
-        <v>4562</v>
+        <v>4502</v>
       </c>
       <c r="E3738" t="s">
-        <v>3946</v>
+        <v>4503</v>
       </c>
       <c r="K3738">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3739" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3739" t="s">
-        <v>4563</v>
+        <v>4504</v>
       </c>
       <c r="E3739" t="s">
-        <v>1131</v>
+        <v>365</v>
       </c>
       <c r="K3739">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3740" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3740" t="s">
-        <v>4564</v>
+        <v>4505</v>
       </c>
       <c r="E3740" t="s">
-        <v>1131</v>
+        <v>626</v>
       </c>
       <c r="K3740">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3741" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3741" t="s">
-        <v>4565</v>
+        <v>4506</v>
       </c>
       <c r="E3741" t="s">
-        <v>1131</v>
+        <v>1102</v>
       </c>
       <c r="K3741">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3742" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3742" t="s">
-        <v>4567</v>
+        <v>4511</v>
       </c>
       <c r="E3742" t="s">
-        <v>1131</v>
+        <v>4211</v>
       </c>
       <c r="K3742">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3743" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3743" t="s">
-        <v>4568</v>
+        <v>4545</v>
       </c>
       <c r="E3743" t="s">
-        <v>20</v>
+        <v>1167</v>
       </c>
       <c r="K3743">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3744" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3744" t="s">
-        <v>4569</v>
+        <v>4553</v>
       </c>
       <c r="E3744" t="s">
-        <v>1115</v>
+        <v>3946</v>
       </c>
       <c r="K3744">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3745" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3745" t="s">
-        <v>4570</v>
+        <v>4554</v>
       </c>
       <c r="E3745" t="s">
-        <v>1995</v>
+        <v>1934</v>
       </c>
       <c r="K3745">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3746" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3746" t="s">
-        <v>4571</v>
+        <v>4555</v>
       </c>
       <c r="E3746" t="s">
-        <v>1995</v>
+        <v>626</v>
       </c>
       <c r="K3746">
         <v>20</v>
@@ -56262,10 +56295,10 @@
     </row>
     <row r="3747" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3747" t="s">
-        <v>4572</v>
+        <v>4556</v>
       </c>
       <c r="E3747" t="s">
-        <v>1995</v>
+        <v>3946</v>
       </c>
       <c r="K3747">
         <v>25</v>
@@ -56273,197 +56306,197 @@
     </row>
     <row r="3748" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3748" t="s">
-        <v>4573</v>
+        <v>4557</v>
       </c>
       <c r="E3748" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="K3748">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3749" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3749" t="s">
-        <v>4576</v>
+        <v>4562</v>
       </c>
       <c r="E3749" t="s">
-        <v>1181</v>
+        <v>3946</v>
       </c>
       <c r="K3749">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3750" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3750" t="s">
-        <v>4580</v>
+        <v>4563</v>
       </c>
       <c r="E3750" t="s">
-        <v>1934</v>
+        <v>1131</v>
       </c>
       <c r="K3750">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3751" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3751" t="s">
-        <v>4639</v>
+        <v>4564</v>
       </c>
       <c r="E3751" t="s">
-        <v>3946</v>
+        <v>1131</v>
       </c>
       <c r="K3751">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3752" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3752" t="s">
-        <v>4652</v>
+        <v>4565</v>
       </c>
       <c r="E3752" t="s">
-        <v>4653</v>
+        <v>1131</v>
       </c>
       <c r="K3752">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3753" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3753" t="s">
-        <v>4677</v>
+        <v>4567</v>
       </c>
       <c r="E3753" t="s">
-        <v>879</v>
+        <v>1131</v>
       </c>
       <c r="K3753">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3754" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3754" t="s">
-        <v>4685</v>
+        <v>4568</v>
       </c>
       <c r="E3754" t="s">
-        <v>4653</v>
+        <v>20</v>
       </c>
       <c r="K3754">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3755" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3755" t="s">
-        <v>4686</v>
+        <v>4569</v>
       </c>
       <c r="E3755" t="s">
-        <v>4653</v>
+        <v>1115</v>
       </c>
       <c r="K3755">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3756" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3756" t="s">
-        <v>4689</v>
+        <v>4570</v>
       </c>
       <c r="E3756" t="s">
         <v>1995</v>
       </c>
       <c r="K3756">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3757" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3757" t="s">
-        <v>4692</v>
+        <v>4571</v>
       </c>
       <c r="E3757" t="s">
-        <v>879</v>
+        <v>1995</v>
       </c>
       <c r="K3757">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3758" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3758" t="s">
-        <v>4693</v>
+        <v>4572</v>
       </c>
       <c r="E3758" t="s">
         <v>1995</v>
       </c>
       <c r="K3758">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3759" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3759" t="s">
-        <v>4694</v>
+        <v>4573</v>
       </c>
       <c r="E3759" t="s">
-        <v>20</v>
+        <v>1181</v>
       </c>
       <c r="K3759">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3760" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3760" t="s">
-        <v>4695</v>
+        <v>4576</v>
       </c>
       <c r="E3760" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="K3760">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3761" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3761" t="s">
-        <v>4696</v>
+        <v>4580</v>
       </c>
       <c r="E3761" t="s">
-        <v>3946</v>
+        <v>1934</v>
       </c>
       <c r="K3761">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3762" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3762" t="s">
-        <v>4724</v>
+        <v>4639</v>
       </c>
       <c r="E3762" t="s">
-        <v>4725</v>
+        <v>3946</v>
       </c>
       <c r="K3762">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3763" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3763" t="s">
-        <v>4747</v>
+        <v>4652</v>
       </c>
       <c r="E3763" t="s">
-        <v>1167</v>
+        <v>4653</v>
       </c>
       <c r="K3763">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3764" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3764" t="s">
-        <v>4748</v>
+        <v>4677</v>
       </c>
       <c r="E3764" t="s">
-        <v>1167</v>
+        <v>879</v>
       </c>
       <c r="K3764">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3765" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3765" t="s">
-        <v>4749</v>
+        <v>4685</v>
       </c>
       <c r="E3765" t="s">
-        <v>4503</v>
+        <v>4653</v>
       </c>
       <c r="K3765">
         <v>35</v>
@@ -56471,76 +56504,76 @@
     </row>
     <row r="3766" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3766" t="s">
-        <v>4750</v>
+        <v>4686</v>
       </c>
       <c r="E3766" t="s">
-        <v>4503</v>
+        <v>4653</v>
       </c>
       <c r="K3766">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3767" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3767" t="s">
-        <v>4754</v>
+        <v>4689</v>
       </c>
       <c r="E3767" t="s">
-        <v>4755</v>
+        <v>1995</v>
       </c>
       <c r="K3767">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3768" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3768" t="s">
-        <v>4769</v>
+        <v>4692</v>
       </c>
       <c r="E3768" t="s">
-        <v>2447</v>
+        <v>879</v>
       </c>
       <c r="K3768">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3769" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3769" t="s">
-        <v>4784</v>
+        <v>4693</v>
       </c>
       <c r="E3769" t="s">
         <v>1995</v>
       </c>
       <c r="K3769">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3770" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3770" t="s">
-        <v>4786</v>
+        <v>4694</v>
       </c>
       <c r="E3770" t="s">
-        <v>1075</v>
+        <v>20</v>
       </c>
       <c r="K3770">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3771" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3771" t="s">
-        <v>4787</v>
+        <v>4695</v>
       </c>
       <c r="E3771" t="s">
-        <v>879</v>
+        <v>1174</v>
       </c>
       <c r="K3771">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3772" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3772" t="s">
-        <v>4812</v>
+        <v>4696</v>
       </c>
       <c r="E3772" t="s">
-        <v>1934</v>
+        <v>3946</v>
       </c>
       <c r="K3772">
         <v>35</v>
@@ -56548,296 +56581,296 @@
     </row>
     <row r="3773" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3773" t="s">
-        <v>4882</v>
+        <v>4724</v>
       </c>
       <c r="E3773" t="s">
-        <v>3161</v>
+        <v>4725</v>
       </c>
       <c r="K3773">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3774" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3774" t="s">
-        <v>4883</v>
+        <v>4747</v>
       </c>
       <c r="E3774" t="s">
-        <v>3264</v>
+        <v>1167</v>
       </c>
       <c r="K3774">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3775" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3775" t="s">
-        <v>4884</v>
+        <v>4748</v>
       </c>
       <c r="E3775" t="s">
-        <v>4887</v>
+        <v>1167</v>
       </c>
       <c r="K3775">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3776" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3776" t="s">
-        <v>2882</v>
+        <v>4749</v>
       </c>
       <c r="E3776" t="s">
-        <v>1021</v>
+        <v>4503</v>
       </c>
       <c r="K3776">
-        <v>2.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3777" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3777" t="s">
-        <v>4885</v>
+        <v>4750</v>
       </c>
       <c r="E3777" t="s">
-        <v>4888</v>
+        <v>4503</v>
       </c>
       <c r="K3777">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3778" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3778" t="s">
-        <v>4886</v>
+        <v>4754</v>
       </c>
       <c r="E3778" t="s">
-        <v>4893</v>
+        <v>4755</v>
       </c>
       <c r="K3778">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3779" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3779" t="s">
-        <v>991</v>
+        <v>4769</v>
       </c>
       <c r="E3779" t="s">
-        <v>992</v>
+        <v>2447</v>
       </c>
       <c r="K3779">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3780" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3780" t="s">
-        <v>984</v>
+        <v>4784</v>
       </c>
       <c r="E3780" t="s">
-        <v>985</v>
+        <v>1995</v>
       </c>
       <c r="K3780">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3781" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3781" t="s">
-        <v>2812</v>
+        <v>4786</v>
       </c>
       <c r="E3781" t="s">
-        <v>2797</v>
+        <v>1075</v>
       </c>
       <c r="K3781">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3782" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3782" t="s">
-        <v>2868</v>
+        <v>4787</v>
       </c>
       <c r="E3782" t="s">
-        <v>1016</v>
+        <v>879</v>
       </c>
       <c r="K3782">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3783" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3783" t="s">
-        <v>2809</v>
+        <v>4812</v>
       </c>
       <c r="E3783" t="s">
-        <v>2797</v>
+        <v>1934</v>
       </c>
       <c r="K3783">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3784" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3784" t="s">
-        <v>2790</v>
+        <v>4882</v>
       </c>
       <c r="E3784" t="s">
-        <v>573</v>
+        <v>3161</v>
       </c>
       <c r="K3784">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3785" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3785" t="s">
-        <v>2705</v>
+        <v>4883</v>
       </c>
       <c r="E3785" t="s">
-        <v>999</v>
+        <v>3264</v>
       </c>
       <c r="K3785">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3786" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3786" t="s">
-        <v>2808</v>
+        <v>4884</v>
       </c>
       <c r="E3786" t="s">
-        <v>2797</v>
+        <v>4887</v>
       </c>
       <c r="K3786">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3787" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3787" t="s">
-        <v>986</v>
+        <v>2882</v>
       </c>
       <c r="E3787" t="s">
-        <v>985</v>
+        <v>1021</v>
       </c>
       <c r="K3787">
-        <v>18</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3788" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3788" t="s">
-        <v>1009</v>
+        <v>4885</v>
       </c>
       <c r="E3788" t="s">
-        <v>1010</v>
+        <v>4888</v>
       </c>
       <c r="K3788">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3789" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3789" t="s">
-        <v>995</v>
+        <v>4886</v>
       </c>
       <c r="E3789" t="s">
-        <v>996</v>
+        <v>4893</v>
       </c>
       <c r="K3789">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3790" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3790" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E3790" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="K3790">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3791" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3791" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="E3791" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="K3791">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3792" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3792" t="s">
-        <v>1007</v>
+        <v>2812</v>
       </c>
       <c r="E3792" t="s">
-        <v>1008</v>
+        <v>2797</v>
       </c>
       <c r="K3792">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3793" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3793" t="s">
-        <v>1000</v>
+        <v>2868</v>
       </c>
       <c r="E3793" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="K3793">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3794" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3794" t="s">
-        <v>1002</v>
+        <v>2809</v>
       </c>
       <c r="E3794" t="s">
-        <v>1001</v>
+        <v>2797</v>
       </c>
       <c r="K3794">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3795" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3795" t="s">
-        <v>987</v>
+        <v>2790</v>
       </c>
       <c r="E3795" t="s">
-        <v>985</v>
+        <v>573</v>
       </c>
       <c r="K3795">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3796" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3796" t="s">
-        <v>1011</v>
+        <v>2705</v>
       </c>
       <c r="E3796" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="K3796">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3797" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3797" t="s">
-        <v>1023</v>
+        <v>2808</v>
       </c>
       <c r="E3797" t="s">
-        <v>1024</v>
+        <v>2797</v>
       </c>
       <c r="K3797">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3798" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3798" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="E3798" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="K3798">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3799" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3799" t="s">
-        <v>993</v>
+        <v>1009</v>
       </c>
       <c r="E3799" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="K3799">
         <v>16</v>
@@ -56845,109 +56878,109 @@
     </row>
     <row r="3800" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3800" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="E3800" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="K3800">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3801" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3801" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="E3801" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="K3801">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3802" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3802" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="E3802" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="K3802">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3803" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3803" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="E3803" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="K3803">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3804" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3804" t="s">
-        <v>1027</v>
+        <v>1000</v>
       </c>
       <c r="E3804" t="s">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="K3804">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3805" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3805" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="E3805" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="K3805">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3806" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3806" t="s">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="E3806" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="K3806">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3807" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3807" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="E3807" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="K3807">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3808" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3808" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E3808" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="K3808">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3809" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3809" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
       <c r="E3809" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="K3809">
         <v>15</v>
@@ -56955,505 +56988,505 @@
     </row>
     <row r="3810" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3810" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="E3810" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="K3810">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3811" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3811" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="E3811" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="K3811">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3812" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3812" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="E3812" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="K3812">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3813" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3813" t="s">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="E3813" t="s">
-        <v>1026</v>
+        <v>985</v>
       </c>
       <c r="K3813">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3814" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3814" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E3814" t="s">
         <v>1026</v>
       </c>
       <c r="K3814">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3815" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3815" t="s">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="E3815" t="s">
-        <v>999</v>
+        <v>1026</v>
       </c>
       <c r="K3815">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3816" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3816" t="s">
-        <v>2691</v>
+        <v>1017</v>
       </c>
       <c r="E3816" t="s">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="K3816">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3817" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3817" t="s">
-        <v>2811</v>
+        <v>1019</v>
       </c>
       <c r="E3817" t="s">
-        <v>2797</v>
+        <v>1018</v>
       </c>
       <c r="K3817">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3818" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3818" t="s">
-        <v>2694</v>
+        <v>1028</v>
       </c>
       <c r="E3818" t="s">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="K3818">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3819" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3819" t="s">
-        <v>2692</v>
+        <v>1020</v>
       </c>
       <c r="E3819" t="s">
-        <v>992</v>
+        <v>1021</v>
       </c>
       <c r="K3819">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3820" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3820" t="s">
-        <v>2805</v>
+        <v>1022</v>
       </c>
       <c r="E3820" t="s">
-        <v>2797</v>
+        <v>1021</v>
       </c>
       <c r="K3820">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3821" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3821" t="s">
-        <v>2867</v>
+        <v>1015</v>
       </c>
       <c r="E3821" t="s">
-        <v>2687</v>
+        <v>1016</v>
       </c>
       <c r="K3821">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3822" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3822" t="s">
-        <v>2865</v>
+        <v>989</v>
       </c>
       <c r="E3822" t="s">
-        <v>2866</v>
+        <v>990</v>
       </c>
       <c r="K3822">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3823" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3823" t="s">
-        <v>2649</v>
+        <v>1013</v>
       </c>
       <c r="E3823" t="s">
-        <v>985</v>
+        <v>1014</v>
       </c>
       <c r="K3823">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3824" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3824" t="s">
-        <v>2650</v>
+        <v>1029</v>
       </c>
       <c r="E3824" t="s">
-        <v>985</v>
+        <v>1026</v>
       </c>
       <c r="K3824">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3825" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3825" t="s">
-        <v>2810</v>
+        <v>1030</v>
       </c>
       <c r="E3825" t="s">
-        <v>2797</v>
+        <v>1026</v>
       </c>
       <c r="K3825">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3826" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3826" t="s">
-        <v>2881</v>
+        <v>998</v>
       </c>
       <c r="E3826" t="s">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="K3826">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3827" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3827" t="s">
-        <v>2887</v>
+        <v>2691</v>
       </c>
       <c r="E3827" t="s">
-        <v>2687</v>
+        <v>992</v>
       </c>
       <c r="K3827">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3828" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3828" t="s">
-        <v>2870</v>
+        <v>2811</v>
       </c>
       <c r="E3828" t="s">
-        <v>1016</v>
+        <v>2797</v>
       </c>
       <c r="K3828">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3829" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3829" t="s">
-        <v>2779</v>
+        <v>2694</v>
       </c>
       <c r="E3829" t="s">
-        <v>2289</v>
+        <v>992</v>
       </c>
       <c r="K3829">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3830" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3830" t="s">
-        <v>2782</v>
+        <v>2692</v>
       </c>
       <c r="E3830" t="s">
-        <v>2783</v>
+        <v>992</v>
       </c>
       <c r="K3830">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3831" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3831" t="s">
-        <v>2883</v>
+        <v>2805</v>
       </c>
       <c r="E3831" t="s">
-        <v>1021</v>
+        <v>2797</v>
       </c>
       <c r="K3831">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3832" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3832" t="s">
-        <v>2718</v>
+        <v>2867</v>
       </c>
       <c r="E3832" t="s">
-        <v>2715</v>
+        <v>2687</v>
       </c>
       <c r="K3832">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3833" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3833" t="s">
-        <v>2689</v>
+        <v>2865</v>
       </c>
       <c r="E3833" t="s">
-        <v>2690</v>
+        <v>2866</v>
       </c>
       <c r="K3833">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3834" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3834" t="s">
-        <v>2658</v>
+        <v>2649</v>
       </c>
       <c r="E3834" t="s">
-        <v>2659</v>
+        <v>985</v>
       </c>
       <c r="K3834">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3835" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3835" t="s">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="E3835" t="s">
-        <v>2659</v>
+        <v>985</v>
       </c>
       <c r="K3835">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3836" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3836" t="s">
-        <v>2665</v>
+        <v>2810</v>
       </c>
       <c r="E3836" t="s">
-        <v>2666</v>
+        <v>2797</v>
       </c>
       <c r="K3836">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3837" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3837" t="s">
-        <v>2813</v>
+        <v>2881</v>
       </c>
       <c r="E3837" t="s">
-        <v>2814</v>
+        <v>1021</v>
       </c>
       <c r="K3837">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3838" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3838" t="s">
-        <v>2792</v>
+        <v>2887</v>
       </c>
       <c r="E3838" t="s">
-        <v>2793</v>
+        <v>2687</v>
       </c>
       <c r="K3838">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3839" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3839" t="s">
-        <v>2686</v>
+        <v>2870</v>
       </c>
       <c r="E3839" t="s">
-        <v>2687</v>
+        <v>1016</v>
       </c>
       <c r="K3839">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3840" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3840" t="s">
-        <v>2688</v>
+        <v>2779</v>
       </c>
       <c r="E3840" t="s">
-        <v>2687</v>
+        <v>2289</v>
       </c>
       <c r="K3840">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3841" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3841" t="s">
-        <v>2661</v>
+        <v>2782</v>
       </c>
       <c r="E3841" t="s">
-        <v>2659</v>
+        <v>2783</v>
       </c>
       <c r="K3841">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3842" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3842" t="s">
-        <v>2806</v>
+        <v>2883</v>
       </c>
       <c r="E3842" t="s">
-        <v>2797</v>
+        <v>1021</v>
       </c>
       <c r="K3842">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3843" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3843" t="s">
-        <v>2807</v>
+        <v>2718</v>
       </c>
       <c r="E3843" t="s">
-        <v>2797</v>
+        <v>2715</v>
       </c>
       <c r="K3843">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3844" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3844" t="s">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="E3844" t="s">
-        <v>992</v>
+        <v>2690</v>
       </c>
       <c r="K3844">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3845" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3845" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="E3845" t="s">
         <v>2659</v>
       </c>
       <c r="K3845">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3846" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3846" t="s">
-        <v>2869</v>
+        <v>2660</v>
       </c>
       <c r="E3846" t="s">
-        <v>1016</v>
+        <v>2659</v>
       </c>
       <c r="K3846">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3847" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3847" t="s">
-        <v>2875</v>
+        <v>2665</v>
       </c>
       <c r="E3847" t="s">
-        <v>2876</v>
+        <v>2666</v>
       </c>
       <c r="K3847">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3848" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3848" t="s">
-        <v>2679</v>
+        <v>2813</v>
       </c>
       <c r="E3848" t="s">
-        <v>2680</v>
+        <v>2814</v>
       </c>
       <c r="K3848">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3849" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3849" t="s">
-        <v>2731</v>
+        <v>2792</v>
       </c>
       <c r="E3849" t="s">
-        <v>2732</v>
+        <v>2793</v>
       </c>
       <c r="K3849">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3850" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3850" t="s">
-        <v>3252</v>
+        <v>2686</v>
       </c>
       <c r="E3850" t="s">
-        <v>1016</v>
+        <v>2687</v>
       </c>
       <c r="K3850">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3851" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3851" t="s">
-        <v>3253</v>
+        <v>2688</v>
       </c>
       <c r="E3851" t="s">
-        <v>3254</v>
+        <v>2687</v>
       </c>
       <c r="K3851">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3852" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3852" t="s">
-        <v>3255</v>
+        <v>2661</v>
       </c>
       <c r="E3852" t="s">
-        <v>3254</v>
+        <v>2659</v>
       </c>
       <c r="K3852">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3853" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3853" t="s">
-        <v>3256</v>
+        <v>2806</v>
       </c>
       <c r="E3853" t="s">
-        <v>2687</v>
+        <v>2797</v>
       </c>
       <c r="K3853">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3854" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3854" t="s">
-        <v>3257</v>
+        <v>2807</v>
       </c>
       <c r="E3854" t="s">
-        <v>3258</v>
+        <v>2797</v>
       </c>
       <c r="K3854">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3855" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3855" t="s">
-        <v>3260</v>
+        <v>2693</v>
       </c>
       <c r="E3855" t="s">
-        <v>2797</v>
+        <v>992</v>
       </c>
       <c r="K3855">
         <v>9</v>
@@ -57461,87 +57494,87 @@
     </row>
     <row r="3856" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3856" t="s">
-        <v>3261</v>
+        <v>2662</v>
       </c>
       <c r="E3856" t="s">
-        <v>3262</v>
+        <v>2659</v>
       </c>
       <c r="K3856">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3857" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3857" t="s">
-        <v>3160</v>
+        <v>2869</v>
       </c>
       <c r="E3857" t="s">
-        <v>3161</v>
+        <v>1016</v>
       </c>
       <c r="K3857">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3858" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3858" t="s">
-        <v>3263</v>
+        <v>2875</v>
       </c>
       <c r="E3858" t="s">
-        <v>3264</v>
+        <v>2876</v>
       </c>
       <c r="K3858">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3859" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3859" t="s">
-        <v>3546</v>
+        <v>2679</v>
       </c>
       <c r="E3859" t="s">
-        <v>2481</v>
+        <v>2680</v>
       </c>
       <c r="K3859">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3860" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3860" t="s">
-        <v>3547</v>
+        <v>2731</v>
       </c>
       <c r="E3860" t="s">
-        <v>2700</v>
+        <v>2732</v>
       </c>
       <c r="K3860">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3861" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3861" t="s">
-        <v>3548</v>
+        <v>3252</v>
       </c>
       <c r="E3861" t="s">
-        <v>2797</v>
+        <v>1016</v>
       </c>
       <c r="K3861">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3862" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3862" t="s">
-        <v>3549</v>
+        <v>3253</v>
       </c>
       <c r="E3862" t="s">
-        <v>2797</v>
+        <v>3254</v>
       </c>
       <c r="K3862">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3863" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3863" t="s">
-        <v>3550</v>
+        <v>3255</v>
       </c>
       <c r="E3863" t="s">
-        <v>3551</v>
+        <v>3254</v>
       </c>
       <c r="K3863">
         <v>22</v>
@@ -57549,131 +57582,131 @@
     </row>
     <row r="3864" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3864" t="s">
-        <v>3552</v>
+        <v>3256</v>
       </c>
       <c r="E3864" t="s">
-        <v>3553</v>
+        <v>2687</v>
       </c>
       <c r="K3864">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3865" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3865" t="s">
-        <v>3554</v>
+        <v>3257</v>
       </c>
       <c r="E3865" t="s">
-        <v>3555</v>
+        <v>3258</v>
       </c>
       <c r="K3865">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3866" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3866" t="s">
-        <v>4123</v>
+        <v>3260</v>
       </c>
       <c r="E3866" t="s">
-        <v>1016</v>
+        <v>2797</v>
       </c>
       <c r="K3866">
-        <v>285</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3867" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3867" t="s">
-        <v>4124</v>
+        <v>3261</v>
       </c>
       <c r="E3867" t="s">
-        <v>3469</v>
+        <v>3262</v>
       </c>
       <c r="K3867">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3868" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3868" t="s">
-        <v>4308</v>
+        <v>3160</v>
       </c>
       <c r="E3868" t="s">
-        <v>4309</v>
+        <v>3161</v>
       </c>
       <c r="K3868">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3869" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3869" t="s">
-        <v>4310</v>
+        <v>3263</v>
       </c>
       <c r="E3869" t="s">
-        <v>2680</v>
+        <v>3264</v>
       </c>
       <c r="K3869">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3870" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3870" t="s">
-        <v>4384</v>
+        <v>3546</v>
       </c>
       <c r="E3870" t="s">
-        <v>1014</v>
+        <v>2481</v>
       </c>
       <c r="K3870">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3871" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3871" t="s">
-        <v>4416</v>
+        <v>3547</v>
       </c>
       <c r="E3871" t="s">
-        <v>1570</v>
+        <v>2700</v>
       </c>
       <c r="K3871">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3872" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3872" t="s">
-        <v>4417</v>
+        <v>3548</v>
       </c>
       <c r="E3872" t="s">
-        <v>1077</v>
+        <v>2797</v>
       </c>
       <c r="K3872">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3873" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3873" t="s">
-        <v>4512</v>
+        <v>3549</v>
       </c>
       <c r="E3873" t="s">
-        <v>573</v>
+        <v>2797</v>
       </c>
       <c r="K3873">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3874" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3874" t="s">
-        <v>4513</v>
+        <v>3550</v>
       </c>
       <c r="E3874" t="s">
-        <v>2141</v>
+        <v>3551</v>
       </c>
       <c r="K3874">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3875" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3875" t="s">
-        <v>4543</v>
+        <v>3552</v>
       </c>
       <c r="E3875" t="s">
-        <v>990</v>
+        <v>3553</v>
       </c>
       <c r="K3875">
         <v>15</v>
@@ -57681,43 +57714,43 @@
     </row>
     <row r="3876" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3876" t="s">
-        <v>4657</v>
+        <v>3554</v>
       </c>
       <c r="E3876" t="s">
-        <v>2481</v>
+        <v>3555</v>
       </c>
       <c r="K3876">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3877" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3877" t="s">
-        <v>4658</v>
+        <v>4123</v>
       </c>
       <c r="E3877" t="s">
-        <v>2481</v>
+        <v>1016</v>
       </c>
       <c r="K3877">
-        <v>38</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3878" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3878" t="s">
-        <v>4771</v>
+        <v>4124</v>
       </c>
       <c r="E3878" t="s">
-        <v>1570</v>
+        <v>3469</v>
       </c>
       <c r="K3878">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3879" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3879" t="s">
-        <v>4820</v>
+        <v>4308</v>
       </c>
       <c r="E3879" t="s">
-        <v>2715</v>
+        <v>4309</v>
       </c>
       <c r="K3879">
         <v>7</v>
@@ -57725,43 +57758,43 @@
     </row>
     <row r="3880" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3880" t="s">
-        <v>4821</v>
+        <v>4310</v>
       </c>
       <c r="E3880" t="s">
-        <v>2715</v>
+        <v>2680</v>
       </c>
       <c r="K3880">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3881" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3881" t="s">
-        <v>4822</v>
+        <v>4384</v>
       </c>
       <c r="E3881" t="s">
-        <v>2715</v>
+        <v>1014</v>
       </c>
       <c r="K3881">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3882" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3882" t="s">
-        <v>1265</v>
+        <v>4416</v>
       </c>
       <c r="E3882" t="s">
-        <v>1266</v>
+        <v>1570</v>
       </c>
       <c r="K3882">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3883" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3883" t="s">
-        <v>1267</v>
+        <v>4417</v>
       </c>
       <c r="E3883" t="s">
-        <v>1266</v>
+        <v>1077</v>
       </c>
       <c r="K3883">
         <v>10</v>
@@ -57769,604 +57802,604 @@
     </row>
     <row r="3884" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3884" t="s">
-        <v>1227</v>
+        <v>4512</v>
       </c>
       <c r="E3884" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="K3884">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3885" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3885" t="s">
-        <v>1228</v>
+        <v>4513</v>
       </c>
       <c r="E3885" t="s">
-        <v>497</v>
+        <v>2141</v>
       </c>
       <c r="K3885">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3886" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3886" t="s">
-        <v>1261</v>
+        <v>4543</v>
       </c>
       <c r="E3886" t="s">
-        <v>1262</v>
+        <v>990</v>
       </c>
       <c r="K3886">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3887" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3887" t="s">
-        <v>1252</v>
+        <v>4657</v>
       </c>
       <c r="E3887" t="s">
-        <v>580</v>
+        <v>2481</v>
       </c>
       <c r="K3887">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3888" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3888" t="s">
-        <v>1244</v>
+        <v>4658</v>
       </c>
       <c r="E3888" t="s">
-        <v>1083</v>
+        <v>2481</v>
       </c>
       <c r="K3888">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3889" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3889" t="s">
-        <v>1221</v>
+        <v>4771</v>
       </c>
       <c r="E3889" t="s">
-        <v>356</v>
+        <v>1570</v>
       </c>
       <c r="K3889">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3890" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3890" t="s">
-        <v>1257</v>
+        <v>4820</v>
       </c>
       <c r="E3890" t="s">
-        <v>620</v>
+        <v>2715</v>
       </c>
       <c r="K3890">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3891" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3891" t="s">
-        <v>1229</v>
+        <v>4821</v>
       </c>
       <c r="E3891" t="s">
-        <v>497</v>
+        <v>2715</v>
       </c>
       <c r="K3891">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3892" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3892" t="s">
-        <v>1263</v>
+        <v>4822</v>
       </c>
       <c r="E3892" t="s">
-        <v>1262</v>
+        <v>2715</v>
       </c>
       <c r="K3892">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3893" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3893" t="s">
-        <v>3101</v>
+        <v>1265</v>
       </c>
       <c r="E3893" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="K3893">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3894" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3894" t="s">
-        <v>3102</v>
+        <v>1267</v>
       </c>
       <c r="E3894" t="s">
-        <v>3103</v>
+        <v>1266</v>
       </c>
       <c r="K3894">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3895" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3895" t="s">
-        <v>3503</v>
+        <v>1227</v>
       </c>
       <c r="E3895" t="s">
         <v>497</v>
       </c>
       <c r="K3895">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3896" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3896" t="s">
-        <v>3509</v>
+        <v>1228</v>
       </c>
       <c r="E3896" t="s">
-        <v>620</v>
+        <v>497</v>
       </c>
       <c r="K3896">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3897" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3897" t="s">
-        <v>4872</v>
+        <v>1261</v>
       </c>
       <c r="E3897" t="s">
-        <v>1083</v>
+        <v>1262</v>
       </c>
       <c r="K3897">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3898" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3898" t="s">
-        <v>4267</v>
+        <v>1252</v>
       </c>
       <c r="E3898" t="s">
-        <v>741</v>
+        <v>580</v>
       </c>
       <c r="K3898">
-        <v>3.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3899" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3899" t="s">
-        <v>4268</v>
+        <v>1244</v>
       </c>
       <c r="E3899" t="s">
-        <v>667</v>
+        <v>1083</v>
       </c>
       <c r="K3899">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3900" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3900" t="s">
-        <v>1253</v>
+        <v>1221</v>
       </c>
       <c r="E3900" t="s">
-        <v>667</v>
+        <v>356</v>
       </c>
       <c r="K3900">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3901" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3901" t="s">
-        <v>678</v>
+        <v>1257</v>
       </c>
       <c r="E3901" t="s">
-        <v>352</v>
+        <v>620</v>
       </c>
       <c r="K3901">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3902" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3902" t="s">
-        <v>3236</v>
+        <v>1229</v>
       </c>
       <c r="E3902" t="s">
-        <v>775</v>
+        <v>497</v>
       </c>
       <c r="K3902">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3903" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3903" t="s">
-        <v>3237</v>
+        <v>1263</v>
       </c>
       <c r="E3903" t="s">
-        <v>775</v>
+        <v>1262</v>
       </c>
       <c r="K3903">
-        <v>12</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3904" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3904" t="s">
-        <v>3238</v>
+        <v>3101</v>
       </c>
       <c r="E3904" t="s">
-        <v>474</v>
+        <v>1262</v>
       </c>
       <c r="K3904">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3905" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3905" t="s">
-        <v>3239</v>
+        <v>3102</v>
       </c>
       <c r="E3905" t="s">
-        <v>667</v>
+        <v>3103</v>
       </c>
       <c r="K3905">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3906" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3906" t="s">
-        <v>3240</v>
+        <v>3503</v>
       </c>
       <c r="E3906" t="s">
-        <v>326</v>
+        <v>497</v>
       </c>
       <c r="K3906">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3907" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3907" t="s">
-        <v>3241</v>
+        <v>3509</v>
       </c>
       <c r="E3907" t="s">
-        <v>352</v>
+        <v>620</v>
       </c>
       <c r="K3907">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3908" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3908" t="s">
-        <v>3242</v>
+        <v>4872</v>
       </c>
       <c r="E3908" t="s">
-        <v>3243</v>
+        <v>1083</v>
       </c>
       <c r="K3908">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3909" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3909" t="s">
-        <v>3244</v>
+        <v>4267</v>
       </c>
       <c r="E3909" t="s">
-        <v>287</v>
+        <v>741</v>
       </c>
       <c r="K3909">
-        <v>40</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3910" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3910" t="s">
-        <v>3921</v>
+        <v>4268</v>
       </c>
       <c r="E3910" t="s">
         <v>667</v>
       </c>
       <c r="K3910">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3911" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3911" t="s">
-        <v>3922</v>
+        <v>1253</v>
       </c>
       <c r="E3911" t="s">
-        <v>3923</v>
+        <v>667</v>
       </c>
       <c r="K3911">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3912" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3912" t="s">
-        <v>3924</v>
+        <v>678</v>
       </c>
       <c r="E3912" t="s">
-        <v>3925</v>
+        <v>352</v>
       </c>
       <c r="K3912">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3913" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3913" t="s">
-        <v>3926</v>
+        <v>3236</v>
       </c>
       <c r="E3913" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="K3913">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3914" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3914" t="s">
-        <v>3927</v>
+        <v>3237</v>
       </c>
       <c r="E3914" t="s">
-        <v>1272</v>
+        <v>775</v>
       </c>
       <c r="K3914">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3915" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3915" t="s">
-        <v>3928</v>
+        <v>3238</v>
       </c>
       <c r="E3915" t="s">
-        <v>3929</v>
+        <v>474</v>
       </c>
       <c r="K3915">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3916" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3916" t="s">
-        <v>3930</v>
+        <v>3239</v>
       </c>
       <c r="E3916" t="s">
-        <v>3931</v>
+        <v>667</v>
       </c>
       <c r="K3916">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3917" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3917" t="s">
-        <v>3932</v>
+        <v>3240</v>
       </c>
       <c r="E3917" t="s">
-        <v>3933</v>
+        <v>326</v>
       </c>
       <c r="K3917">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3918" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3918" t="s">
-        <v>3934</v>
+        <v>3241</v>
       </c>
       <c r="E3918" t="s">
-        <v>3935</v>
+        <v>352</v>
       </c>
       <c r="K3918">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3919" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3919" t="s">
-        <v>3967</v>
+        <v>3242</v>
       </c>
       <c r="E3919" t="s">
-        <v>3968</v>
+        <v>3243</v>
       </c>
       <c r="K3919">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3920" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3920" t="s">
-        <v>3969</v>
+        <v>3244</v>
       </c>
       <c r="E3920" t="s">
-        <v>639</v>
+        <v>287</v>
       </c>
       <c r="K3920">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3921" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3921" t="s">
-        <v>4281</v>
+        <v>3921</v>
       </c>
       <c r="E3921" t="s">
         <v>667</v>
       </c>
       <c r="K3921">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3922" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3922" t="s">
-        <v>4391</v>
+        <v>3922</v>
       </c>
       <c r="E3922" t="s">
-        <v>791</v>
+        <v>3923</v>
       </c>
       <c r="K3922">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3923" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3923" t="s">
-        <v>4654</v>
+        <v>3924</v>
       </c>
       <c r="E3923" t="s">
-        <v>3590</v>
+        <v>3925</v>
       </c>
       <c r="K3923">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3924" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3924" t="s">
-        <v>4659</v>
+        <v>3926</v>
       </c>
       <c r="E3924" t="s">
-        <v>4660</v>
+        <v>791</v>
       </c>
       <c r="K3924">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3925" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3925" t="s">
-        <v>4690</v>
+        <v>3927</v>
       </c>
       <c r="E3925" t="s">
-        <v>153</v>
+        <v>1272</v>
       </c>
       <c r="K3925">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3926" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3926" t="s">
-        <v>4734</v>
+        <v>3928</v>
       </c>
       <c r="E3926" t="s">
-        <v>2507</v>
+        <v>3929</v>
       </c>
       <c r="K3926">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3927" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3927" t="s">
-        <v>4735</v>
+        <v>3930</v>
       </c>
       <c r="E3927" t="s">
-        <v>4736</v>
+        <v>3931</v>
       </c>
       <c r="K3927">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3928" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3928" t="s">
-        <v>4737</v>
+        <v>3932</v>
       </c>
       <c r="E3928" t="s">
-        <v>3088</v>
+        <v>3933</v>
       </c>
       <c r="K3928">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3929" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3929" t="s">
-        <v>4738</v>
+        <v>3934</v>
       </c>
       <c r="E3929" t="s">
-        <v>626</v>
+        <v>3935</v>
       </c>
       <c r="K3929">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3930" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3930" t="s">
-        <v>4739</v>
+        <v>3967</v>
       </c>
       <c r="E3930" t="s">
-        <v>1570</v>
+        <v>3968</v>
       </c>
       <c r="K3930">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3931" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3931" t="s">
-        <v>4740</v>
+        <v>3969</v>
       </c>
       <c r="E3931" t="s">
-        <v>3946</v>
+        <v>639</v>
       </c>
       <c r="K3931">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3932" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3932" t="s">
-        <v>4741</v>
+        <v>4281</v>
       </c>
       <c r="E3932" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="K3932">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3933" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3933" t="s">
-        <v>4742</v>
+        <v>4391</v>
       </c>
       <c r="E3933" t="s">
-        <v>4743</v>
+        <v>791</v>
       </c>
       <c r="K3933">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3934" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3934" t="s">
-        <v>4744</v>
+        <v>4654</v>
       </c>
       <c r="E3934" t="s">
-        <v>3946</v>
+        <v>3590</v>
       </c>
       <c r="K3934">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3935" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3935" t="s">
-        <v>4745</v>
+        <v>4659</v>
       </c>
       <c r="E3935" t="s">
-        <v>3946</v>
+        <v>4660</v>
       </c>
       <c r="K3935">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3936" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3936" t="s">
-        <v>4753</v>
+        <v>4690</v>
       </c>
       <c r="E3936" t="s">
-        <v>1570</v>
+        <v>153</v>
       </c>
       <c r="K3936">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3937" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3937" t="s">
-        <v>4760</v>
+        <v>4734</v>
       </c>
       <c r="E3937" t="s">
-        <v>756</v>
+        <v>2507</v>
       </c>
       <c r="K3937">
-        <v>3.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3938" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3938" t="s">
-        <v>4761</v>
+        <v>4735</v>
       </c>
       <c r="E3938" t="s">
-        <v>756</v>
+        <v>4736</v>
       </c>
       <c r="K3938">
         <v>6</v>
@@ -58374,45 +58407,166 @@
     </row>
     <row r="3939" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3939" t="s">
-        <v>4762</v>
+        <v>4737</v>
       </c>
       <c r="E3939" t="s">
-        <v>3946</v>
+        <v>3088</v>
       </c>
       <c r="K3939">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3940" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3940" t="s">
-        <v>4811</v>
+        <v>4738</v>
       </c>
       <c r="E3940" t="s">
-        <v>3946</v>
+        <v>626</v>
       </c>
       <c r="K3940">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3941" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3941" t="s">
-        <v>4815</v>
+        <v>4739</v>
       </c>
       <c r="E3941" t="s">
-        <v>3946</v>
+        <v>1570</v>
       </c>
       <c r="K3941">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3942" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3942" t="s">
-        <v>4818</v>
+        <v>4740</v>
       </c>
       <c r="E3942" t="s">
         <v>3946</v>
       </c>
       <c r="K3942">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3943" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3943" t="s">
+        <v>4741</v>
+      </c>
+      <c r="E3943" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3943">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3944" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3944" t="s">
+        <v>4742</v>
+      </c>
+      <c r="E3944" t="s">
+        <v>4743</v>
+      </c>
+      <c r="K3944">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3945" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3945" t="s">
+        <v>4744</v>
+      </c>
+      <c r="E3945" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3945">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3946" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3946" t="s">
+        <v>4745</v>
+      </c>
+      <c r="E3946" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3946">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3947" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3947" t="s">
+        <v>4753</v>
+      </c>
+      <c r="E3947" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K3947">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3948" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3948" t="s">
+        <v>4760</v>
+      </c>
+      <c r="E3948" t="s">
+        <v>756</v>
+      </c>
+      <c r="K3948">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3949" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3949" t="s">
+        <v>4761</v>
+      </c>
+      <c r="E3949" t="s">
+        <v>756</v>
+      </c>
+      <c r="K3949">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3950" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3950" t="s">
+        <v>4762</v>
+      </c>
+      <c r="E3950" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3950">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3951" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3951" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E3951" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3951">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3952" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3952" t="s">
+        <v>4815</v>
+      </c>
+      <c r="E3952" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3952">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3953" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3953" t="s">
+        <v>4818</v>
+      </c>
+      <c r="E3953" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3953">
         <v>12</v>
       </c>
     </row>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SorazaImport\Desktop\barcodevba\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2C457-EA5C-4830-BF7D-86E4E69CEE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C349171-13CC-42E3-A329-D2981D1ADC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Productos!$B$3:$B$3961</definedName>
+  </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7914" uniqueCount="4907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7926" uniqueCount="4913">
   <si>
     <t>#</t>
   </si>
@@ -14754,6 +14757,24 @@
   </si>
   <si>
     <t>Manicura</t>
+  </si>
+  <si>
+    <t>WB001</t>
+  </si>
+  <si>
+    <t>WQ001</t>
+  </si>
+  <si>
+    <t>WT001</t>
+  </si>
+  <si>
+    <t>WT002</t>
+  </si>
+  <si>
+    <t>WW001</t>
+  </si>
+  <si>
+    <t>WB002</t>
   </si>
 </sst>
 </file>
@@ -15094,10 +15115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A3:L3954"/>
+  <dimension ref="A3:L3960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3902" workbookViewId="0">
-      <selection activeCell="B3936" sqref="B3936"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56733,65 +56754,65 @@
     </row>
     <row r="3785" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3785" t="s">
-        <v>4882</v>
+        <v>4907</v>
       </c>
       <c r="E3785" t="s">
-        <v>3161</v>
+        <v>86</v>
       </c>
       <c r="K3785">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3786" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3786" t="s">
-        <v>4883</v>
+        <v>4912</v>
       </c>
       <c r="E3786" t="s">
-        <v>3264</v>
+        <v>86</v>
       </c>
       <c r="K3786">
-        <v>25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3787" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3787" t="s">
-        <v>4884</v>
+        <v>4908</v>
       </c>
       <c r="E3787" t="s">
-        <v>4887</v>
+        <v>149</v>
       </c>
       <c r="K3787">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3788" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3788" t="s">
-        <v>2882</v>
+        <v>4909</v>
       </c>
       <c r="E3788" t="s">
-        <v>1021</v>
+        <v>3686</v>
       </c>
       <c r="K3788">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3789" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3789" t="s">
-        <v>4885</v>
+        <v>4910</v>
       </c>
       <c r="E3789" t="s">
-        <v>4888</v>
+        <v>4862</v>
       </c>
       <c r="K3789">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3790" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3790" t="s">
-        <v>4886</v>
+        <v>4911</v>
       </c>
       <c r="E3790" t="s">
-        <v>4893</v>
+        <v>365</v>
       </c>
       <c r="K3790">
         <v>15</v>
@@ -56799,32 +56820,32 @@
     </row>
     <row r="3791" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3791" t="s">
-        <v>991</v>
+        <v>4882</v>
       </c>
       <c r="E3791" t="s">
-        <v>992</v>
+        <v>3161</v>
       </c>
       <c r="K3791">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3792" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3792" t="s">
-        <v>984</v>
+        <v>4883</v>
       </c>
       <c r="E3792" t="s">
-        <v>985</v>
+        <v>3264</v>
       </c>
       <c r="K3792">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3793" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3793" t="s">
-        <v>2812</v>
+        <v>4884</v>
       </c>
       <c r="E3793" t="s">
-        <v>2797</v>
+        <v>4887</v>
       </c>
       <c r="K3793">
         <v>15</v>
@@ -56832,131 +56853,131 @@
     </row>
     <row r="3794" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3794" t="s">
-        <v>2868</v>
+        <v>2882</v>
       </c>
       <c r="E3794" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="K3794">
-        <v>12</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3795" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3795" t="s">
-        <v>2809</v>
+        <v>4885</v>
       </c>
       <c r="E3795" t="s">
-        <v>2797</v>
+        <v>4888</v>
       </c>
       <c r="K3795">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3796" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3796" t="s">
-        <v>2790</v>
+        <v>4886</v>
       </c>
       <c r="E3796" t="s">
-        <v>573</v>
+        <v>4893</v>
       </c>
       <c r="K3796">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3797" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3797" t="s">
-        <v>2705</v>
+        <v>991</v>
       </c>
       <c r="E3797" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="K3797">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3798" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3798" t="s">
-        <v>2808</v>
+        <v>984</v>
       </c>
       <c r="E3798" t="s">
-        <v>2797</v>
+        <v>985</v>
       </c>
       <c r="K3798">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3799" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3799" t="s">
-        <v>986</v>
+        <v>2812</v>
       </c>
       <c r="E3799" t="s">
-        <v>985</v>
+        <v>2797</v>
       </c>
       <c r="K3799">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3800" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3800" t="s">
-        <v>1009</v>
+        <v>2868</v>
       </c>
       <c r="E3800" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="K3800">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3801" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3801" t="s">
-        <v>995</v>
+        <v>2809</v>
       </c>
       <c r="E3801" t="s">
-        <v>996</v>
+        <v>2797</v>
       </c>
       <c r="K3801">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3802" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3802" t="s">
-        <v>1003</v>
+        <v>2790</v>
       </c>
       <c r="E3802" t="s">
-        <v>1004</v>
+        <v>573</v>
       </c>
       <c r="K3802">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3803" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3803" t="s">
-        <v>1005</v>
+        <v>2705</v>
       </c>
       <c r="E3803" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="K3803">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3804" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3804" t="s">
-        <v>1007</v>
+        <v>2808</v>
       </c>
       <c r="E3804" t="s">
-        <v>1008</v>
+        <v>2797</v>
       </c>
       <c r="K3804">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3805" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3805" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="E3805" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="K3805">
         <v>18</v>
@@ -56964,131 +56985,131 @@
     </row>
     <row r="3806" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3806" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="E3806" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="K3806">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3807" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3807" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="E3807" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="K3807">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3808" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3808" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="E3808" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="K3808">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3809" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3809" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="E3809" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="K3809">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3810" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3810" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="E3810" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="K3810">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3811" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3811" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="E3811" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
       <c r="K3811">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3812" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3812" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E3812" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K3812">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3813" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3813" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="E3813" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="K3813">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3814" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3814" t="s">
-        <v>988</v>
+        <v>1011</v>
       </c>
       <c r="E3814" t="s">
-        <v>985</v>
+        <v>1012</v>
       </c>
       <c r="K3814">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3815" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3815" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E3815" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K3815">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3816" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3816" t="s">
-        <v>1027</v>
+        <v>997</v>
       </c>
       <c r="E3816" t="s">
-        <v>1026</v>
+        <v>996</v>
       </c>
       <c r="K3816">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3817" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3817" t="s">
-        <v>1017</v>
+        <v>993</v>
       </c>
       <c r="E3817" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="K3817">
         <v>16</v>
@@ -57096,238 +57117,238 @@
     </row>
     <row r="3818" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3818" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="E3818" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="K3818">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3819" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3819" t="s">
-        <v>1028</v>
+        <v>994</v>
       </c>
       <c r="E3819" t="s">
-        <v>1026</v>
+        <v>992</v>
       </c>
       <c r="K3819">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3820" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3820" t="s">
-        <v>1020</v>
+        <v>988</v>
       </c>
       <c r="E3820" t="s">
-        <v>1021</v>
+        <v>985</v>
       </c>
       <c r="K3820">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3821" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3821" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E3821" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="K3821">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3822" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3822" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="E3822" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="K3822">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3823" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3823" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="E3823" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="K3823">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3824" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3824" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E3824" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="K3824">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3825" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3825" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E3825" t="s">
         <v>1026</v>
       </c>
       <c r="K3825">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3826" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3826" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="E3826" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="K3826">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3827" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3827" t="s">
-        <v>998</v>
+        <v>1022</v>
       </c>
       <c r="E3827" t="s">
-        <v>999</v>
+        <v>1021</v>
       </c>
       <c r="K3827">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3828" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3828" t="s">
-        <v>2691</v>
+        <v>1015</v>
       </c>
       <c r="E3828" t="s">
-        <v>992</v>
+        <v>1016</v>
       </c>
       <c r="K3828">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3829" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3829" t="s">
-        <v>2811</v>
+        <v>989</v>
       </c>
       <c r="E3829" t="s">
-        <v>2797</v>
+        <v>990</v>
       </c>
       <c r="K3829">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3830" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3830" t="s">
-        <v>2694</v>
+        <v>1013</v>
       </c>
       <c r="E3830" t="s">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="K3830">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3831" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3831" t="s">
-        <v>2692</v>
+        <v>1029</v>
       </c>
       <c r="E3831" t="s">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="K3831">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3832" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3832" t="s">
-        <v>2805</v>
+        <v>1030</v>
       </c>
       <c r="E3832" t="s">
-        <v>2797</v>
+        <v>1026</v>
       </c>
       <c r="K3832">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3833" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3833" t="s">
-        <v>2867</v>
+        <v>998</v>
       </c>
       <c r="E3833" t="s">
-        <v>2687</v>
+        <v>999</v>
       </c>
       <c r="K3833">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3834" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3834" t="s">
-        <v>2865</v>
+        <v>2691</v>
       </c>
       <c r="E3834" t="s">
-        <v>2866</v>
+        <v>992</v>
       </c>
       <c r="K3834">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3835" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3835" t="s">
-        <v>2649</v>
+        <v>2811</v>
       </c>
       <c r="E3835" t="s">
-        <v>985</v>
+        <v>2797</v>
       </c>
       <c r="K3835">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3836" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3836" t="s">
-        <v>2650</v>
+        <v>2694</v>
       </c>
       <c r="E3836" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="K3836">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3837" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3837" t="s">
-        <v>2810</v>
+        <v>2692</v>
       </c>
       <c r="E3837" t="s">
-        <v>2797</v>
+        <v>992</v>
       </c>
       <c r="K3837">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3838" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3838" t="s">
-        <v>2881</v>
+        <v>2805</v>
       </c>
       <c r="E3838" t="s">
-        <v>1021</v>
+        <v>2797</v>
       </c>
       <c r="K3838">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3839" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3839" t="s">
-        <v>2887</v>
+        <v>2867</v>
       </c>
       <c r="E3839" t="s">
         <v>2687</v>
@@ -57338,98 +57359,98 @@
     </row>
     <row r="3840" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3840" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="E3840" t="s">
-        <v>1016</v>
+        <v>2866</v>
       </c>
       <c r="K3840">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3841" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3841" t="s">
-        <v>2779</v>
+        <v>2649</v>
       </c>
       <c r="E3841" t="s">
-        <v>2289</v>
+        <v>985</v>
       </c>
       <c r="K3841">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3842" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3842" t="s">
-        <v>2782</v>
+        <v>2650</v>
       </c>
       <c r="E3842" t="s">
-        <v>2783</v>
+        <v>985</v>
       </c>
       <c r="K3842">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3843" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3843" t="s">
-        <v>2883</v>
+        <v>2810</v>
       </c>
       <c r="E3843" t="s">
-        <v>1021</v>
+        <v>2797</v>
       </c>
       <c r="K3843">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3844" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3844" t="s">
-        <v>2718</v>
+        <v>2881</v>
       </c>
       <c r="E3844" t="s">
-        <v>2715</v>
+        <v>1021</v>
       </c>
       <c r="K3844">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3845" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3845" t="s">
-        <v>2689</v>
+        <v>2887</v>
       </c>
       <c r="E3845" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="K3845">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3846" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3846" t="s">
-        <v>2658</v>
+        <v>2870</v>
       </c>
       <c r="E3846" t="s">
-        <v>2659</v>
+        <v>1016</v>
       </c>
       <c r="K3846">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3847" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3847" t="s">
-        <v>2660</v>
+        <v>2779</v>
       </c>
       <c r="E3847" t="s">
-        <v>2659</v>
+        <v>2289</v>
       </c>
       <c r="K3847">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3848" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3848" t="s">
-        <v>2665</v>
+        <v>2782</v>
       </c>
       <c r="E3848" t="s">
-        <v>2666</v>
+        <v>2783</v>
       </c>
       <c r="K3848">
         <v>5</v>
@@ -57437,197 +57458,197 @@
     </row>
     <row r="3849" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3849" t="s">
-        <v>2813</v>
+        <v>2883</v>
       </c>
       <c r="E3849" t="s">
-        <v>2814</v>
+        <v>1021</v>
       </c>
       <c r="K3849">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3850" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3850" t="s">
-        <v>2792</v>
+        <v>2718</v>
       </c>
       <c r="E3850" t="s">
-        <v>2793</v>
+        <v>2715</v>
       </c>
       <c r="K3850">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3851" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3851" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="E3851" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
       <c r="K3851">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3852" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3852" t="s">
-        <v>2688</v>
+        <v>2658</v>
       </c>
       <c r="E3852" t="s">
-        <v>2687</v>
+        <v>2659</v>
       </c>
       <c r="K3852">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3853" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3853" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="E3853" t="s">
         <v>2659</v>
       </c>
       <c r="K3853">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3854" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3854" t="s">
-        <v>2806</v>
+        <v>2665</v>
       </c>
       <c r="E3854" t="s">
-        <v>2797</v>
+        <v>2666</v>
       </c>
       <c r="K3854">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3855" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3855" t="s">
-        <v>2807</v>
+        <v>2813</v>
       </c>
       <c r="E3855" t="s">
-        <v>2797</v>
+        <v>2814</v>
       </c>
       <c r="K3855">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3856" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3856" t="s">
-        <v>2693</v>
+        <v>2792</v>
       </c>
       <c r="E3856" t="s">
-        <v>992</v>
+        <v>2793</v>
       </c>
       <c r="K3856">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3857" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3857" t="s">
-        <v>2662</v>
+        <v>2686</v>
       </c>
       <c r="E3857" t="s">
-        <v>2659</v>
+        <v>2687</v>
       </c>
       <c r="K3857">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3858" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3858" t="s">
-        <v>2869</v>
+        <v>2688</v>
       </c>
       <c r="E3858" t="s">
-        <v>1016</v>
+        <v>2687</v>
       </c>
       <c r="K3858">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3859" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3859" t="s">
-        <v>2875</v>
+        <v>2661</v>
       </c>
       <c r="E3859" t="s">
-        <v>2876</v>
+        <v>2659</v>
       </c>
       <c r="K3859">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3860" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3860" t="s">
-        <v>2679</v>
+        <v>2806</v>
       </c>
       <c r="E3860" t="s">
-        <v>2680</v>
+        <v>2797</v>
       </c>
       <c r="K3860">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3861" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3861" t="s">
-        <v>2731</v>
+        <v>2807</v>
       </c>
       <c r="E3861" t="s">
-        <v>2732</v>
+        <v>2797</v>
       </c>
       <c r="K3861">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3862" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3862" t="s">
-        <v>3252</v>
+        <v>2693</v>
       </c>
       <c r="E3862" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="K3862">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3863" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3863" t="s">
-        <v>3253</v>
+        <v>2662</v>
       </c>
       <c r="E3863" t="s">
-        <v>3254</v>
+        <v>2659</v>
       </c>
       <c r="K3863">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3864" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3864" t="s">
-        <v>3255</v>
+        <v>2869</v>
       </c>
       <c r="E3864" t="s">
-        <v>3254</v>
+        <v>1016</v>
       </c>
       <c r="K3864">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3865" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3865" t="s">
-        <v>3256</v>
+        <v>2875</v>
       </c>
       <c r="E3865" t="s">
-        <v>2687</v>
+        <v>2876</v>
       </c>
       <c r="K3865">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3866" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3866" t="s">
-        <v>3257</v>
+        <v>2679</v>
       </c>
       <c r="E3866" t="s">
-        <v>3258</v>
+        <v>2680</v>
       </c>
       <c r="K3866">
         <v>12</v>
@@ -57635,98 +57656,98 @@
     </row>
     <row r="3867" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3867" t="s">
-        <v>3260</v>
+        <v>2731</v>
       </c>
       <c r="E3867" t="s">
-        <v>2797</v>
+        <v>2732</v>
       </c>
       <c r="K3867">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3868" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3868" t="s">
-        <v>3261</v>
+        <v>3252</v>
       </c>
       <c r="E3868" t="s">
-        <v>3262</v>
+        <v>1016</v>
       </c>
       <c r="K3868">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3869" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3869" t="s">
-        <v>3160</v>
+        <v>3253</v>
       </c>
       <c r="E3869" t="s">
-        <v>3161</v>
+        <v>3254</v>
       </c>
       <c r="K3869">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3870" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3870" t="s">
-        <v>3263</v>
+        <v>3255</v>
       </c>
       <c r="E3870" t="s">
-        <v>3264</v>
+        <v>3254</v>
       </c>
       <c r="K3870">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3871" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3871" t="s">
-        <v>3546</v>
+        <v>3256</v>
       </c>
       <c r="E3871" t="s">
-        <v>2481</v>
+        <v>2687</v>
       </c>
       <c r="K3871">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3872" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3872" t="s">
-        <v>3547</v>
+        <v>3257</v>
       </c>
       <c r="E3872" t="s">
-        <v>2700</v>
+        <v>3258</v>
       </c>
       <c r="K3872">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3873" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3873" t="s">
-        <v>3548</v>
+        <v>3260</v>
       </c>
       <c r="E3873" t="s">
         <v>2797</v>
       </c>
       <c r="K3873">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3874" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3874" t="s">
-        <v>3549</v>
+        <v>3261</v>
       </c>
       <c r="E3874" t="s">
-        <v>2797</v>
+        <v>3262</v>
       </c>
       <c r="K3874">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3875" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3875" t="s">
-        <v>3550</v>
+        <v>3160</v>
       </c>
       <c r="E3875" t="s">
-        <v>3551</v>
+        <v>3161</v>
       </c>
       <c r="K3875">
         <v>22</v>
@@ -57734,384 +57755,384 @@
     </row>
     <row r="3876" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3876" t="s">
-        <v>3552</v>
+        <v>3263</v>
       </c>
       <c r="E3876" t="s">
-        <v>3553</v>
+        <v>3264</v>
       </c>
       <c r="K3876">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3877" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3877" t="s">
-        <v>3554</v>
+        <v>3546</v>
       </c>
       <c r="E3877" t="s">
-        <v>3555</v>
+        <v>2481</v>
       </c>
       <c r="K3877">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3878" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3878" t="s">
-        <v>4123</v>
+        <v>3547</v>
       </c>
       <c r="E3878" t="s">
-        <v>1016</v>
+        <v>2700</v>
       </c>
       <c r="K3878">
-        <v>285</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3879" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3879" t="s">
-        <v>4124</v>
+        <v>3548</v>
       </c>
       <c r="E3879" t="s">
-        <v>3469</v>
+        <v>2797</v>
       </c>
       <c r="K3879">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3880" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3880" t="s">
-        <v>4308</v>
+        <v>3549</v>
       </c>
       <c r="E3880" t="s">
-        <v>4309</v>
+        <v>2797</v>
       </c>
       <c r="K3880">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3881" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3881" t="s">
-        <v>4310</v>
+        <v>3550</v>
       </c>
       <c r="E3881" t="s">
-        <v>2680</v>
+        <v>3551</v>
       </c>
       <c r="K3881">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3882" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3882" t="s">
-        <v>4384</v>
+        <v>3552</v>
       </c>
       <c r="E3882" t="s">
-        <v>1014</v>
+        <v>3553</v>
       </c>
       <c r="K3882">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3883" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3883" t="s">
-        <v>4416</v>
+        <v>3554</v>
       </c>
       <c r="E3883" t="s">
-        <v>1570</v>
+        <v>3555</v>
       </c>
       <c r="K3883">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3884" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3884" t="s">
-        <v>4417</v>
+        <v>4123</v>
       </c>
       <c r="E3884" t="s">
-        <v>1077</v>
+        <v>1016</v>
       </c>
       <c r="K3884">
-        <v>10</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3885" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3885" t="s">
-        <v>4512</v>
+        <v>4124</v>
       </c>
       <c r="E3885" t="s">
-        <v>573</v>
+        <v>3469</v>
       </c>
       <c r="K3885">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3886" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3886" t="s">
-        <v>4513</v>
+        <v>4308</v>
       </c>
       <c r="E3886" t="s">
-        <v>2141</v>
+        <v>4309</v>
       </c>
       <c r="K3886">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3887" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3887" t="s">
-        <v>4543</v>
+        <v>4310</v>
       </c>
       <c r="E3887" t="s">
-        <v>990</v>
+        <v>2680</v>
       </c>
       <c r="K3887">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3888" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3888" t="s">
-        <v>4657</v>
+        <v>4384</v>
       </c>
       <c r="E3888" t="s">
-        <v>2481</v>
+        <v>1014</v>
       </c>
       <c r="K3888">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3889" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3889" t="s">
-        <v>4658</v>
+        <v>4416</v>
       </c>
       <c r="E3889" t="s">
-        <v>2481</v>
+        <v>1570</v>
       </c>
       <c r="K3889">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3890" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3890" t="s">
-        <v>4771</v>
+        <v>4417</v>
       </c>
       <c r="E3890" t="s">
-        <v>1570</v>
+        <v>1077</v>
       </c>
       <c r="K3890">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3891" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3891" t="s">
-        <v>4820</v>
+        <v>4512</v>
       </c>
       <c r="E3891" t="s">
-        <v>2715</v>
+        <v>573</v>
       </c>
       <c r="K3891">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3892" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3892" t="s">
-        <v>4821</v>
+        <v>4513</v>
       </c>
       <c r="E3892" t="s">
-        <v>2715</v>
+        <v>2141</v>
       </c>
       <c r="K3892">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3893" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3893" t="s">
-        <v>4822</v>
+        <v>4543</v>
       </c>
       <c r="E3893" t="s">
-        <v>2715</v>
+        <v>990</v>
       </c>
       <c r="K3893">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3894" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3894" t="s">
-        <v>1265</v>
+        <v>4657</v>
       </c>
       <c r="E3894" t="s">
-        <v>1266</v>
+        <v>2481</v>
       </c>
       <c r="K3894">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3895" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3895" t="s">
-        <v>1267</v>
+        <v>4658</v>
       </c>
       <c r="E3895" t="s">
-        <v>1266</v>
+        <v>2481</v>
       </c>
       <c r="K3895">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3896" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3896" t="s">
-        <v>1227</v>
+        <v>4771</v>
       </c>
       <c r="E3896" t="s">
-        <v>497</v>
+        <v>1570</v>
       </c>
       <c r="K3896">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3897" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3897" t="s">
-        <v>1228</v>
+        <v>4820</v>
       </c>
       <c r="E3897" t="s">
-        <v>497</v>
+        <v>2715</v>
       </c>
       <c r="K3897">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3898" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3898" t="s">
-        <v>1261</v>
+        <v>4821</v>
       </c>
       <c r="E3898" t="s">
-        <v>1262</v>
+        <v>2715</v>
       </c>
       <c r="K3898">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3899" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3899" t="s">
-        <v>1252</v>
+        <v>4822</v>
       </c>
       <c r="E3899" t="s">
-        <v>580</v>
+        <v>2715</v>
       </c>
       <c r="K3899">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3900" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3900" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
       <c r="E3900" t="s">
-        <v>1083</v>
+        <v>1266</v>
       </c>
       <c r="K3900">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3901" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3901" t="s">
-        <v>1221</v>
+        <v>1267</v>
       </c>
       <c r="E3901" t="s">
-        <v>356</v>
+        <v>1266</v>
       </c>
       <c r="K3901">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3902" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3902" t="s">
-        <v>1257</v>
+        <v>1227</v>
       </c>
       <c r="E3902" t="s">
-        <v>620</v>
+        <v>497</v>
       </c>
       <c r="K3902">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3903" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3903" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E3903" t="s">
         <v>497</v>
       </c>
       <c r="K3903">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3904" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3904" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E3904" t="s">
         <v>1262</v>
       </c>
       <c r="K3904">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3905" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3905" t="s">
-        <v>3101</v>
+        <v>1252</v>
       </c>
       <c r="E3905" t="s">
-        <v>1262</v>
+        <v>580</v>
       </c>
       <c r="K3905">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3906" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3906" t="s">
-        <v>3102</v>
+        <v>1244</v>
       </c>
       <c r="E3906" t="s">
-        <v>3103</v>
+        <v>1083</v>
       </c>
       <c r="K3906">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3907" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3907" t="s">
-        <v>3503</v>
+        <v>1221</v>
       </c>
       <c r="E3907" t="s">
-        <v>497</v>
+        <v>356</v>
       </c>
       <c r="K3907">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3908" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3908" t="s">
-        <v>3509</v>
+        <v>1257</v>
       </c>
       <c r="E3908" t="s">
         <v>620</v>
       </c>
       <c r="K3908">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3909" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3909" t="s">
-        <v>4872</v>
+        <v>1229</v>
       </c>
       <c r="E3909" t="s">
-        <v>1083</v>
+        <v>497</v>
       </c>
       <c r="K3909">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3910" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3910" t="s">
-        <v>4267</v>
+        <v>1263</v>
       </c>
       <c r="E3910" t="s">
-        <v>741</v>
+        <v>1262</v>
       </c>
       <c r="K3910">
         <v>3.5</v>
@@ -58119,87 +58140,87 @@
     </row>
     <row r="3911" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3911" t="s">
-        <v>4268</v>
+        <v>3101</v>
       </c>
       <c r="E3911" t="s">
-        <v>667</v>
+        <v>1262</v>
       </c>
       <c r="K3911">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3912" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3912" t="s">
-        <v>1253</v>
+        <v>3102</v>
       </c>
       <c r="E3912" t="s">
-        <v>667</v>
+        <v>3103</v>
       </c>
       <c r="K3912">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3913" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3913" t="s">
-        <v>678</v>
+        <v>3503</v>
       </c>
       <c r="E3913" t="s">
-        <v>352</v>
+        <v>497</v>
       </c>
       <c r="K3913">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3914" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3914" t="s">
-        <v>3236</v>
+        <v>3509</v>
       </c>
       <c r="E3914" t="s">
-        <v>775</v>
+        <v>620</v>
       </c>
       <c r="K3914">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3915" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3915" t="s">
-        <v>3237</v>
+        <v>4872</v>
       </c>
       <c r="E3915" t="s">
-        <v>775</v>
+        <v>1083</v>
       </c>
       <c r="K3915">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3916" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3916" t="s">
-        <v>3238</v>
+        <v>4267</v>
       </c>
       <c r="E3916" t="s">
-        <v>474</v>
+        <v>741</v>
       </c>
       <c r="K3916">
-        <v>25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3917" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3917" t="s">
-        <v>3239</v>
+        <v>4268</v>
       </c>
       <c r="E3917" t="s">
         <v>667</v>
       </c>
       <c r="K3917">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3918" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3918" t="s">
-        <v>3240</v>
+        <v>1253</v>
       </c>
       <c r="E3918" t="s">
-        <v>326</v>
+        <v>667</v>
       </c>
       <c r="K3918">
         <v>25</v>
@@ -58207,397 +58228,463 @@
     </row>
     <row r="3919" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3919" t="s">
-        <v>3241</v>
+        <v>678</v>
       </c>
       <c r="E3919" t="s">
         <v>352</v>
       </c>
       <c r="K3919">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3920" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3920" t="s">
-        <v>3242</v>
+        <v>3236</v>
       </c>
       <c r="E3920" t="s">
-        <v>3243</v>
+        <v>775</v>
       </c>
       <c r="K3920">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3921" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3921" t="s">
-        <v>3244</v>
+        <v>3237</v>
       </c>
       <c r="E3921" t="s">
-        <v>287</v>
+        <v>775</v>
       </c>
       <c r="K3921">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3922" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3922" t="s">
-        <v>3921</v>
+        <v>3238</v>
       </c>
       <c r="E3922" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="K3922">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3923" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3923" t="s">
-        <v>3922</v>
+        <v>3239</v>
       </c>
       <c r="E3923" t="s">
-        <v>3923</v>
+        <v>667</v>
       </c>
       <c r="K3923">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3924" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3924" t="s">
-        <v>3924</v>
+        <v>3240</v>
       </c>
       <c r="E3924" t="s">
-        <v>3925</v>
+        <v>326</v>
       </c>
       <c r="K3924">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3925" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3925" t="s">
-        <v>3926</v>
+        <v>3241</v>
       </c>
       <c r="E3925" t="s">
-        <v>791</v>
+        <v>352</v>
       </c>
       <c r="K3925">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3926" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3926" t="s">
-        <v>3927</v>
+        <v>3242</v>
       </c>
       <c r="E3926" t="s">
-        <v>1272</v>
+        <v>3243</v>
       </c>
       <c r="K3926">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3927" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3927" t="s">
-        <v>3928</v>
+        <v>3244</v>
       </c>
       <c r="E3927" t="s">
-        <v>3929</v>
+        <v>287</v>
       </c>
       <c r="K3927">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3928" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3928" t="s">
-        <v>3930</v>
+        <v>3921</v>
       </c>
       <c r="E3928" t="s">
-        <v>3931</v>
+        <v>667</v>
       </c>
       <c r="K3928">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3929" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3929" t="s">
-        <v>3932</v>
+        <v>3922</v>
       </c>
       <c r="E3929" t="s">
-        <v>3933</v>
+        <v>3923</v>
       </c>
       <c r="K3929">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3930" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3930" t="s">
-        <v>3934</v>
+        <v>3924</v>
       </c>
       <c r="E3930" t="s">
-        <v>3935</v>
+        <v>3925</v>
       </c>
       <c r="K3930">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3931" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3931" t="s">
-        <v>3967</v>
+        <v>3926</v>
       </c>
       <c r="E3931" t="s">
-        <v>3968</v>
+        <v>791</v>
       </c>
       <c r="K3931">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3932" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3932" t="s">
-        <v>3969</v>
+        <v>3927</v>
       </c>
       <c r="E3932" t="s">
-        <v>639</v>
+        <v>1272</v>
       </c>
       <c r="K3932">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3933" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3933" t="s">
-        <v>4281</v>
+        <v>3928</v>
       </c>
       <c r="E3933" t="s">
-        <v>667</v>
+        <v>3929</v>
       </c>
       <c r="K3933">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3934" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3934" t="s">
-        <v>4391</v>
+        <v>3930</v>
       </c>
       <c r="E3934" t="s">
-        <v>791</v>
+        <v>3931</v>
       </c>
       <c r="K3934">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3935" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3935" t="s">
-        <v>4654</v>
+        <v>3932</v>
       </c>
       <c r="E3935" t="s">
-        <v>3590</v>
+        <v>3933</v>
       </c>
       <c r="K3935">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3936" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3936" t="s">
-        <v>4659</v>
+        <v>3934</v>
       </c>
       <c r="E3936" t="s">
-        <v>4660</v>
+        <v>3935</v>
       </c>
       <c r="K3936">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3937" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3937" t="s">
-        <v>4690</v>
+        <v>3967</v>
       </c>
       <c r="E3937" t="s">
-        <v>153</v>
+        <v>3968</v>
       </c>
       <c r="K3937">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3938" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3938" t="s">
-        <v>4734</v>
+        <v>3969</v>
       </c>
       <c r="E3938" t="s">
-        <v>2507</v>
+        <v>639</v>
       </c>
       <c r="K3938">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3939" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3939" t="s">
-        <v>4735</v>
+        <v>4281</v>
       </c>
       <c r="E3939" t="s">
-        <v>4736</v>
+        <v>667</v>
       </c>
       <c r="K3939">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3940" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3940" t="s">
-        <v>4737</v>
+        <v>4391</v>
       </c>
       <c r="E3940" t="s">
-        <v>3088</v>
+        <v>791</v>
       </c>
       <c r="K3940">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3941" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3941" t="s">
-        <v>4738</v>
+        <v>4654</v>
       </c>
       <c r="E3941" t="s">
-        <v>626</v>
+        <v>3590</v>
       </c>
       <c r="K3941">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3942" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3942" t="s">
-        <v>4739</v>
+        <v>4659</v>
       </c>
       <c r="E3942" t="s">
-        <v>1570</v>
+        <v>4660</v>
       </c>
       <c r="K3942">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3943" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3943" t="s">
-        <v>4740</v>
+        <v>4690</v>
       </c>
       <c r="E3943" t="s">
-        <v>3946</v>
+        <v>153</v>
       </c>
       <c r="K3943">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3944" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3944" t="s">
-        <v>4741</v>
+        <v>4734</v>
       </c>
       <c r="E3944" t="s">
-        <v>626</v>
+        <v>2507</v>
       </c>
       <c r="K3944">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3945" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3945" t="s">
-        <v>4742</v>
+        <v>4735</v>
       </c>
       <c r="E3945" t="s">
-        <v>4743</v>
+        <v>4736</v>
       </c>
       <c r="K3945">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3946" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3946" t="s">
-        <v>4744</v>
+        <v>4737</v>
       </c>
       <c r="E3946" t="s">
-        <v>3946</v>
+        <v>3088</v>
       </c>
       <c r="K3946">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3947" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3947" t="s">
-        <v>4745</v>
+        <v>4738</v>
       </c>
       <c r="E3947" t="s">
-        <v>3946</v>
+        <v>626</v>
       </c>
       <c r="K3947">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3948" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3948" t="s">
-        <v>4753</v>
+        <v>4739</v>
       </c>
       <c r="E3948" t="s">
         <v>1570</v>
       </c>
       <c r="K3948">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3949" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3949" t="s">
-        <v>4760</v>
+        <v>4740</v>
       </c>
       <c r="E3949" t="s">
-        <v>756</v>
+        <v>3946</v>
       </c>
       <c r="K3949">
-        <v>3.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3950" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3950" t="s">
-        <v>4761</v>
+        <v>4741</v>
       </c>
       <c r="E3950" t="s">
-        <v>756</v>
+        <v>626</v>
       </c>
       <c r="K3950">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3951" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3951" t="s">
-        <v>4762</v>
+        <v>4742</v>
       </c>
       <c r="E3951" t="s">
-        <v>3946</v>
+        <v>4743</v>
       </c>
       <c r="K3951">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3952" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3952" t="s">
-        <v>4811</v>
+        <v>4744</v>
       </c>
       <c r="E3952" t="s">
         <v>3946</v>
       </c>
       <c r="K3952">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3953" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3953" t="s">
-        <v>4815</v>
+        <v>4745</v>
       </c>
       <c r="E3953" t="s">
         <v>3946</v>
       </c>
       <c r="K3953">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3954" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3954" t="s">
+        <v>4753</v>
+      </c>
+      <c r="E3954" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K3954">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3955" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3955" t="s">
+        <v>4760</v>
+      </c>
+      <c r="E3955" t="s">
+        <v>756</v>
+      </c>
+      <c r="K3955">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3956" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3956" t="s">
+        <v>4761</v>
+      </c>
+      <c r="E3956" t="s">
+        <v>756</v>
+      </c>
+      <c r="K3956">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3957" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3957" t="s">
+        <v>4762</v>
+      </c>
+      <c r="E3957" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3957">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3958" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3958" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E3958" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3958">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3959" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3959" t="s">
+        <v>4815</v>
+      </c>
+      <c r="E3959" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K3959">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3960" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3960" t="s">
         <v>4818</v>
       </c>
-      <c r="E3954" t="s">
+      <c r="E3960" t="s">
         <v>3946</v>
       </c>
-      <c r="K3954">
+      <c r="K3960">
         <v>12</v>
       </c>
     </row>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SorazaImport\Desktop\barcodevba\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C349171-13CC-42E3-A329-D2981D1ADC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861AE3EB-8907-426A-968A-7E4CFB81EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SorazaImport\Desktop\barcodevba\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861AE3EB-8907-426A-968A-7E4CFB81EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE060A99-EA04-482B-83D2-8E238263947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
